--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedu\Documents\GitHub\euro22\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CF860F-F7EE-4977-BC11-970242212FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751C6D8E-3B34-4CAC-8869-902EA8FBDF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -962,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:L21"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="N9" s="11"/>
     </row>
-    <row r="10" spans="1:22" s="29" customFormat="1" ht="36" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" s="29" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="28" t="s">
         <v>7</v>
       </c>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="N10" s="11"/>
     </row>
-    <row r="11" spans="1:22" s="29" customFormat="1" ht="90" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" s="29" customFormat="1" ht="54" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>7</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="29" customFormat="1" ht="126" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" s="29" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>8</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="29" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" s="29" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>8</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="29" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>4</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="29" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>4</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="29" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" s="29" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>5</v>
       </c>
@@ -1417,11 +1417,15 @@
       <c r="E16" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="31"/>
+      <c r="F16" s="31">
+        <v>1</v>
+      </c>
       <c r="G16" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="H16" s="31"/>
+      <c r="H16" s="31">
+        <v>0</v>
+      </c>
       <c r="J16" s="39" t="s">
         <v>74</v>
       </c>
@@ -1432,7 +1436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="29" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" s="29" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>5</v>
       </c>
@@ -1463,7 +1467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="29" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" s="29" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
         <v>7</v>
       </c>
@@ -1494,7 +1498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="29" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" s="29" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
         <v>7</v>
       </c>
@@ -1525,7 +1529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="29" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
         <v>8</v>
       </c>
@@ -1556,7 +1560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="29" customFormat="1" ht="54" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" s="29" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
         <v>8</v>
       </c>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedu\Documents\GitHub\euro22\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751C6D8E-3B34-4CAC-8869-902EA8FBDF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF164C4-1715-4B22-9959-2BF05A5AC6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="108">
   <si>
     <t>-</t>
   </si>
@@ -195,9 +195,6 @@
     <t>France</t>
   </si>
   <si>
-    <t>Katharina Schiechtl, Katharina Naschenweng</t>
-  </si>
-  <si>
     <t>Austria</t>
   </si>
   <si>
@@ -219,12 +216,6 @@
     <t>Finland </t>
   </si>
   <si>
-    <t>Marie-Antoinette Katoto, Delphine Cascarino</t>
-  </si>
-  <si>
-    <t>Lina Magull, Lea Schuller, Lena Lattwein, Alexandra Popp</t>
-  </si>
-  <si>
     <t>Germany</t>
   </si>
   <si>
@@ -246,9 +237,6 @@
     <t>Netherlands</t>
   </si>
   <si>
-    <t>Julie Blakstad, Frida Maanum, Caroline Graham Hansen, Guro Reiten</t>
-  </si>
-  <si>
     <t>Norway</t>
   </si>
   <si>
@@ -258,15 +246,9 @@
     <t>Northern Ireland</t>
   </si>
   <si>
-    <t>Diana Gomes, Jessica Silva</t>
-  </si>
-  <si>
     <t>Portugal</t>
   </si>
   <si>
-    <t>Irene Paredes, Aitana Bonmati, Lucia Garcia, Mariona Caldentey</t>
-  </si>
-  <si>
     <t>Spain</t>
   </si>
   <si>
@@ -276,10 +258,94 @@
     <t>Sweden</t>
   </si>
   <si>
-    <t>Coumba Sow, Rahel Kiwic</t>
-  </si>
-  <si>
     <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Katharina Naschenweng</t>
+  </si>
+  <si>
+    <t>Katharina Schiechtl</t>
+  </si>
+  <si>
+    <t>Ellen White</t>
+  </si>
+  <si>
+    <t>Hemp</t>
+  </si>
+  <si>
+    <t>Stanway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marie-Antoinette Katoto </t>
+  </si>
+  <si>
+    <t>Delphine Cascarino</t>
+  </si>
+  <si>
+    <t>Lea Schuller</t>
+  </si>
+  <si>
+    <t>Lena Lattwein</t>
+  </si>
+  <si>
+    <t>Alexandra Popp</t>
+  </si>
+  <si>
+    <t>Lina Magull</t>
+  </si>
+  <si>
+    <t>Frida Maanum</t>
+  </si>
+  <si>
+    <t>Caroline Graham Hansen</t>
+  </si>
+  <si>
+    <t>Guro Reiten</t>
+  </si>
+  <si>
+    <t>Julie Blakstad</t>
+  </si>
+  <si>
+    <t>Jessica Silva</t>
+  </si>
+  <si>
+    <t>Diana Gomes</t>
+  </si>
+  <si>
+    <t>Aitana Bonmati</t>
+  </si>
+  <si>
+    <t>Lucia Garcia</t>
+  </si>
+  <si>
+    <t>Mariona Caldentey</t>
+  </si>
+  <si>
+    <t>Irene Paredes</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Alessia Russo</t>
+  </si>
+  <si>
+    <t>Vivianne Miedema</t>
+  </si>
+  <si>
+    <t>Rahel Kiwic</t>
+  </si>
+  <si>
+    <t>Coumba Sow</t>
+  </si>
+  <si>
+    <t>Esther Gonzalez</t>
+  </si>
+  <si>
+    <t>Stina Blackstenius</t>
+  </si>
+  <si>
+    <t>Pernille Harder</t>
   </si>
 </sst>
 </file>
@@ -392,7 +458,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -520,12 +586,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -620,6 +699,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -960,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V102"/>
+  <dimension ref="A1:V123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="H10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,8 +1055,8 @@
     <col min="4" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="10" max="10" width="26.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" customWidth="1"/>
     <col min="17" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1082,7 +1164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="29" customFormat="1" ht="90" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" s="29" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="28" t="s">
         <v>4</v>
       </c>
@@ -1108,17 +1190,17 @@
         <v>1</v>
       </c>
       <c r="J7" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="K7" s="40" t="s">
-        <v>58</v>
-      </c>
       <c r="L7" s="40">
         <v>1</v>
       </c>
       <c r="N7" s="11"/>
     </row>
-    <row r="8" spans="1:22" s="29" customFormat="1" ht="54" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" s="29" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="28" t="s">
         <v>5</v>
       </c>
@@ -1143,18 +1225,18 @@
       <c r="H8" s="31">
         <v>1</v>
       </c>
-      <c r="J8" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="L8" s="39">
+      <c r="J8" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" s="40">
         <v>1</v>
       </c>
       <c r="N8" s="11"/>
     </row>
-    <row r="9" spans="1:22" s="29" customFormat="1" ht="36" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" s="29" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A9" s="28" t="s">
         <v>5</v>
       </c>
@@ -1179,13 +1261,13 @@
       <c r="H9" s="31">
         <v>0</v>
       </c>
-      <c r="J9" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="K9" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="L9" s="40">
+      <c r="J9" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="39">
         <v>1</v>
       </c>
       <c r="N9" s="11"/>
@@ -1215,18 +1297,18 @@
       <c r="H10" s="31">
         <v>2</v>
       </c>
-      <c r="J10" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="K10" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="L10" s="39">
-        <v>1</v>
+      <c r="J10" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="40">
+        <v>4</v>
       </c>
       <c r="N10" s="11"/>
     </row>
-    <row r="11" spans="1:22" s="29" customFormat="1" ht="54" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>7</v>
       </c>
@@ -1252,16 +1334,16 @@
         <v>1</v>
       </c>
       <c r="J11" s="40" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="K11" s="40" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="L11" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" s="29" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>8</v>
       </c>
@@ -1286,17 +1368,17 @@
       <c r="H12" s="31">
         <v>1</v>
       </c>
-      <c r="J12" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="K12" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="L12" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" s="29" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+      <c r="J12" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="K12" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="L12" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>8</v>
       </c>
@@ -1322,16 +1404,16 @@
         <v>1</v>
       </c>
       <c r="J13" s="40" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="K13" s="40" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="L13" s="40">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>4</v>
       </c>
@@ -1356,17 +1438,17 @@
       <c r="H14" s="31">
         <v>0</v>
       </c>
-      <c r="J14" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="K14" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="L14" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="J14" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>4</v>
       </c>
@@ -1392,16 +1474,16 @@
         <v>0</v>
       </c>
       <c r="J15" s="40" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="K15" s="40" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="L15" s="40">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="29" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>5</v>
       </c>
@@ -1427,16 +1509,16 @@
         <v>0</v>
       </c>
       <c r="J16" s="39" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="K16" s="39" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="L16" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="29" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>5</v>
       </c>
@@ -1457,17 +1539,17 @@
         <v>0</v>
       </c>
       <c r="H17" s="31"/>
-      <c r="J17" s="40" t="s">
-        <v>76</v>
+      <c r="J17" s="39" t="s">
+        <v>85</v>
       </c>
       <c r="K17" s="40" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="L17" s="40">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="29" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
         <v>7</v>
       </c>
@@ -1488,17 +1570,17 @@
         <v>0</v>
       </c>
       <c r="H18" s="31"/>
-      <c r="J18" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="K18" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="L18" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="29" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="J18" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="L18" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
         <v>7</v>
       </c>
@@ -1520,16 +1602,16 @@
       </c>
       <c r="H19" s="31"/>
       <c r="J19" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="K19" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="L19" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="K19" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="L19" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
         <v>8</v>
       </c>
@@ -1550,17 +1632,17 @@
         <v>0</v>
       </c>
       <c r="H20" s="31"/>
-      <c r="J20" s="39" t="s">
-        <v>82</v>
+      <c r="J20" s="40" t="s">
+        <v>87</v>
       </c>
       <c r="K20" s="39" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="L20" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="29" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
         <v>8</v>
       </c>
@@ -1582,16 +1664,16 @@
       </c>
       <c r="H21" s="31"/>
       <c r="J21" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="K21" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="L21" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="29" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="K21" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="L21" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
         <v>4</v>
       </c>
@@ -1612,8 +1694,17 @@
         <v>0</v>
       </c>
       <c r="H22" s="31"/>
-    </row>
-    <row r="23" spans="1:12" s="29" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J22" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="K22" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="L22" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="29" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>4</v>
       </c>
@@ -1634,8 +1725,17 @@
         <v>0</v>
       </c>
       <c r="H23" s="31"/>
-    </row>
-    <row r="24" spans="1:12" s="29" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J23" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="K23" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="L23" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>5</v>
       </c>
@@ -1656,8 +1756,17 @@
         <v>0</v>
       </c>
       <c r="H24" s="31"/>
-    </row>
-    <row r="25" spans="1:12" s="29" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J24" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="K24" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="L24" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
         <v>5</v>
       </c>
@@ -1678,8 +1787,17 @@
         <v>0</v>
       </c>
       <c r="H25" s="31"/>
-    </row>
-    <row r="26" spans="1:12" s="29" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J25" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="K25" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="L25" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
         <v>7</v>
       </c>
@@ -1700,8 +1818,17 @@
         <v>0</v>
       </c>
       <c r="H26" s="31"/>
-    </row>
-    <row r="27" spans="1:12" s="29" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J26" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="K26" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="L26" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="28" t="s">
         <v>7</v>
       </c>
@@ -1722,8 +1849,17 @@
         <v>0</v>
       </c>
       <c r="H27" s="31"/>
-    </row>
-    <row r="28" spans="1:12" s="29" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J27" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="K27" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="L27" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
         <v>8</v>
       </c>
@@ -1744,8 +1880,17 @@
         <v>0</v>
       </c>
       <c r="H28" s="31"/>
-    </row>
-    <row r="29" spans="1:12" s="29" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J28" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="K28" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="L28" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>8</v>
       </c>
@@ -1766,16 +1911,34 @@
         <v>0</v>
       </c>
       <c r="H29" s="31"/>
-    </row>
-    <row r="30" spans="1:12" s="29" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J29" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="K29" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="L29" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="28"/>
       <c r="B30" s="28"/>
       <c r="D30" s="30"/>
       <c r="F30" s="31"/>
       <c r="G30" s="30"/>
       <c r="H30" s="31"/>
-    </row>
-    <row r="31" spans="1:12" s="29" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J30" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="K30" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="L30" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31"/>
@@ -1784,6 +1947,15 @@
       <c r="F31"/>
       <c r="G31" s="1"/>
       <c r="H31"/>
+      <c r="J31" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="K31" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="L31" s="40">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:12" s="29" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="5"/>
@@ -1794,8 +1966,17 @@
       <c r="F32" s="6"/>
       <c r="G32" s="7"/>
       <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="1:8" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="J32" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="K32" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="L32" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33"/>
@@ -1804,13 +1985,72 @@
       <c r="F33" s="9"/>
       <c r="G33" s="8"/>
       <c r="H33" s="9"/>
-    </row>
-    <row r="34" spans="1:8" s="29" customFormat="1" ht="17.25" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:8" s="29" customFormat="1" ht="17.25" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:8" s="29" customFormat="1" ht="17.25" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:8" s="29" customFormat="1" ht="17.25" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:8" s="29" customFormat="1" ht="17.25" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:8" s="29" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J33" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="K33" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="L33" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J34" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="K34" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="L34" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J35" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="K35" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="L35" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J36" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="K36" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="L36" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J37" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="K37" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="L37" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J38" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="K38" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="L38" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39"/>
       <c r="C39" s="1"/>
@@ -1819,8 +2059,17 @@
       <c r="F39" s="1"/>
       <c r="G39" s="9"/>
       <c r="H39"/>
-    </row>
-    <row r="40" spans="1:8" s="29" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J39" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="K39" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="L39" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40"/>
       <c r="C40" s="1"/>
@@ -1829,9 +2078,28 @@
       <c r="F40" s="1"/>
       <c r="G40" s="9"/>
       <c r="H40"/>
-    </row>
-    <row r="41" spans="1:8" s="29" customFormat="1" ht="17.25" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:8" s="29" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J40" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="K40" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="L40" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J41" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="K41" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L41" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42"/>
       <c r="C42" s="1"/>
@@ -1840,8 +2108,17 @@
       <c r="F42" s="1"/>
       <c r="G42"/>
       <c r="H42"/>
-    </row>
-    <row r="43" spans="1:8" s="29" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J42" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="K42" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L42" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="29" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43"/>
       <c r="C43" s="1"/>
@@ -1851,7 +2128,7 @@
       <c r="G43"/>
       <c r="H43"/>
     </row>
-    <row r="44" spans="1:8" s="29" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" s="29" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44"/>
       <c r="C44" s="1"/>
@@ -1861,7 +2138,7 @@
       <c r="G44"/>
       <c r="H44"/>
     </row>
-    <row r="45" spans="1:8" s="29" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" s="29" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
       <c r="B45"/>
       <c r="C45" s="1"/>
@@ -1871,7 +2148,7 @@
       <c r="G45"/>
       <c r="H45"/>
     </row>
-    <row r="46" spans="1:8" s="29" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12" s="29" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="16" t="s">
         <v>42</v>
       </c>
@@ -1883,7 +2160,7 @@
       <c r="G46"/>
       <c r="H46"/>
     </row>
-    <row r="47" spans="1:8" s="29" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" s="29" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47"/>
       <c r="C47" s="1"/>
@@ -1893,7 +2170,7 @@
       <c r="G47"/>
       <c r="H47"/>
     </row>
-    <row r="48" spans="1:8" s="29" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12" s="29" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="16" t="s">
         <v>25</v>
       </c>
@@ -1907,7 +2184,7 @@
       <c r="G48"/>
       <c r="H48"/>
     </row>
-    <row r="49" spans="1:8" s="29" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" s="29" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="B49" s="34" t="s">
         <v>47</v>
@@ -1919,7 +2196,7 @@
       <c r="G49"/>
       <c r="H49"/>
     </row>
-    <row r="50" spans="1:8" s="29" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12" s="29" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2"/>
       <c r="B50" s="36" t="s">
         <v>48</v>
@@ -1931,7 +2208,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="17"/>
     </row>
-    <row r="51" spans="1:8" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
         <v>33</v>
       </c>
@@ -1943,7 +2220,7 @@
       <c r="G51"/>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" s="29" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" s="29" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52"/>
@@ -1953,7 +2230,7 @@
       <c r="G52" s="26"/>
       <c r="H52" s="26"/>
     </row>
-    <row r="53" spans="1:8" s="29" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" s="29" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>20</v>
       </c>
@@ -1965,13 +2242,16 @@
       <c r="G53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B54" s="4"/>
-    </row>
-    <row r="55" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+    </row>
+    <row r="55" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>21</v>
       </c>
@@ -1979,48 +2259,75 @@
       <c r="F55" s="14"/>
       <c r="G55" s="15"/>
       <c r="H55" s="14"/>
-    </row>
-    <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+    </row>
+    <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
-    </row>
-    <row r="57" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J56" s="29"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+    </row>
+    <row r="57" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B57" s="4"/>
-    </row>
-    <row r="58" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J57" s="29"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
+    </row>
+    <row r="58" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B58" s="4"/>
-    </row>
-    <row r="59" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J58" s="29"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="29"/>
+    </row>
+    <row r="59" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
-    </row>
-    <row r="60" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J59" s="29"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="29"/>
+    </row>
+    <row r="60" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B60" s="4"/>
-    </row>
-    <row r="61" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29"/>
+    </row>
+    <row r="61" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J61" s="29"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="29"/>
+    </row>
+    <row r="62" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B62" s="4"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J62" s="29"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="29"/>
+    </row>
+    <row r="63" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
-    </row>
-    <row r="64" spans="1:8" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="29"/>
+    </row>
+    <row r="64" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>34</v>
       </c>
@@ -2031,36 +2338,57 @@
       <c r="F64"/>
       <c r="G64" s="1"/>
       <c r="H64"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J64" s="29"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="29"/>
+    </row>
+    <row r="65" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J65" s="29"/>
+      <c r="K65" s="29"/>
+      <c r="L65" s="29"/>
+    </row>
+    <row r="66" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B66" s="4"/>
-    </row>
-    <row r="67" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J66" s="29"/>
+      <c r="K66" s="29"/>
+      <c r="L66" s="29"/>
+    </row>
+    <row r="67" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
-    </row>
-    <row r="68" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J67" s="29"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="29"/>
+    </row>
+    <row r="68" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B68" s="4"/>
-    </row>
-    <row r="69" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J68" s="29"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="29"/>
+    </row>
+    <row r="69" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
-    </row>
-    <row r="70" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J69" s="29"/>
+      <c r="K69" s="29"/>
+      <c r="L69" s="29"/>
+    </row>
+    <row r="70" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70"/>
       <c r="B70"/>
-    </row>
-    <row r="71" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="J70" s="29"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="29"/>
+    </row>
+    <row r="71" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A71" s="16" t="s">
         <v>43</v>
       </c>
@@ -2070,15 +2398,21 @@
         <v>44</v>
       </c>
       <c r="E71" s="27"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J71" s="29"/>
+      <c r="K71" s="29"/>
+      <c r="L71" s="29"/>
+    </row>
+    <row r="72" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="D72" s="38" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J72" s="29"/>
+      <c r="K72" s="29"/>
+      <c r="L72" s="29"/>
+    </row>
+    <row r="73" spans="1:12" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
       <c r="B73" s="16"/>
       <c r="C73" s="27"/>
@@ -2087,14 +2421,20 @@
       <c r="F73"/>
       <c r="G73" s="1"/>
       <c r="H73"/>
-    </row>
-    <row r="74" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="J73" s="29"/>
+      <c r="K73" s="29"/>
+      <c r="L73" s="29"/>
+    </row>
+    <row r="74" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A74" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B74" s="16"/>
-    </row>
-    <row r="75" spans="1:8" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J74" s="29"/>
+      <c r="K74" s="29"/>
+      <c r="L74" s="29"/>
+    </row>
+    <row r="75" spans="1:12" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="27"/>
       <c r="B75" s="27"/>
       <c r="C75" s="27"/>
@@ -2103,15 +2443,18 @@
       <c r="F75" s="20"/>
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
-    </row>
-    <row r="77" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+    </row>
+    <row r="77" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="F77" s="27"/>
       <c r="G77" s="20"/>
       <c r="H77" s="27"/>
     </row>
-    <row r="78" spans="1:8" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78"/>
@@ -2120,26 +2463,49 @@
       <c r="F78"/>
       <c r="G78" s="1"/>
       <c r="H78"/>
-    </row>
-    <row r="79" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="L78"/>
+    </row>
+    <row r="79" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="F79" s="27"/>
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
     </row>
-    <row r="98" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="94" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="J94" s="17"/>
+      <c r="K94" s="17"/>
+      <c r="L94" s="17"/>
+    </row>
+    <row r="96" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="J96" s="17"/>
+      <c r="K96" s="17"/>
+      <c r="L96" s="17"/>
+    </row>
+    <row r="98" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="I98" s="27"/>
     </row>
-    <row r="100" spans="1:9" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J99" s="14"/>
+      <c r="K99" s="14"/>
+      <c r="L99" s="14"/>
+    </row>
+    <row r="100" spans="1:12" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100"/>
@@ -2148,8 +2514,11 @@
       <c r="F100"/>
       <c r="G100" s="1"/>
       <c r="H100"/>
-    </row>
-    <row r="102" spans="1:9" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="J100"/>
+      <c r="K100"/>
+      <c r="L100"/>
+    </row>
+    <row r="102" spans="1:12" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102"/>
@@ -2158,6 +2527,19 @@
       <c r="F102"/>
       <c r="G102" s="1"/>
       <c r="H102"/>
+      <c r="J102"/>
+      <c r="K102"/>
+      <c r="L102"/>
+    </row>
+    <row r="121" spans="10:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="J121" s="27"/>
+      <c r="K121" s="27"/>
+      <c r="L121" s="27"/>
+    </row>
+    <row r="123" spans="10:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="J123" s="27"/>
+      <c r="K123" s="27"/>
+      <c r="L123" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.31496062992125984" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedu\Documents\GitHub\euro22\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF164C4-1715-4B22-9959-2BF05A5AC6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551FE9BC-1B05-4E16-82F0-C80EBD8C7537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="109">
   <si>
     <t>-</t>
   </si>
@@ -346,6 +346,9 @@
   </si>
   <si>
     <t>Pernille Harder</t>
+  </si>
+  <si>
+    <t>Klara Buhl</t>
   </si>
 </sst>
 </file>
@@ -1042,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V123"/>
+  <dimension ref="A1:V124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1483,7 +1486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>5</v>
       </c>
@@ -1534,11 +1537,15 @@
       <c r="E17" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="31"/>
+      <c r="F17" s="31">
+        <v>2</v>
+      </c>
       <c r="G17" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="H17" s="31"/>
+      <c r="H17" s="31">
+        <v>0</v>
+      </c>
       <c r="J17" s="39" t="s">
         <v>85</v>
       </c>
@@ -1602,12 +1609,12 @@
       </c>
       <c r="H19" s="31"/>
       <c r="J19" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="K19" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="L19" s="39">
+      <c r="L19" s="40">
         <v>1</v>
       </c>
     </row>
@@ -1633,7 +1640,7 @@
       </c>
       <c r="H20" s="31"/>
       <c r="J20" s="40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K20" s="39" t="s">
         <v>64</v>
@@ -1664,7 +1671,7 @@
       </c>
       <c r="H21" s="31"/>
       <c r="J21" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K21" s="39" t="s">
         <v>64</v>
@@ -1694,17 +1701,17 @@
         <v>0</v>
       </c>
       <c r="H22" s="31"/>
-      <c r="J22" s="39" t="s">
-        <v>89</v>
+      <c r="J22" s="40" t="s">
+        <v>88</v>
       </c>
       <c r="K22" s="39" t="s">
         <v>64</v>
       </c>
       <c r="L22" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="29" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>4</v>
       </c>
@@ -1725,17 +1732,17 @@
         <v>0</v>
       </c>
       <c r="H23" s="31"/>
-      <c r="J23" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="K23" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="L23" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J23" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="K23" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="L23" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="29" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>5</v>
       </c>
@@ -1756,13 +1763,13 @@
         <v>0</v>
       </c>
       <c r="H24" s="31"/>
-      <c r="J24" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="K24" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="L24" s="39">
+      <c r="J24" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="K24" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="L24" s="40">
         <v>1</v>
       </c>
     </row>
@@ -1788,10 +1795,10 @@
       </c>
       <c r="H25" s="31"/>
       <c r="J25" s="39" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="K25" s="39" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L25" s="39">
         <v>1</v>
@@ -1818,13 +1825,13 @@
         <v>0</v>
       </c>
       <c r="H26" s="31"/>
-      <c r="J26" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="K26" s="40" t="s">
+      <c r="J26" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="K26" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="L26" s="40">
+      <c r="L26" s="39">
         <v>1</v>
       </c>
     </row>
@@ -1850,12 +1857,12 @@
       </c>
       <c r="H27" s="31"/>
       <c r="J27" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="K27" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="L27" s="39">
+        <v>69</v>
+      </c>
+      <c r="K27" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="L27" s="40">
         <v>1</v>
       </c>
     </row>
@@ -1881,12 +1888,12 @@
       </c>
       <c r="H28" s="31"/>
       <c r="J28" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K28" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="L28" s="40">
+      <c r="L28" s="39">
         <v>1</v>
       </c>
     </row>
@@ -1912,12 +1919,12 @@
       </c>
       <c r="H29" s="31"/>
       <c r="J29" s="40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K29" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="L29" s="39">
+      <c r="L29" s="40">
         <v>1</v>
       </c>
     </row>
@@ -1928,8 +1935,8 @@
       <c r="F30" s="31"/>
       <c r="G30" s="30"/>
       <c r="H30" s="31"/>
-      <c r="J30" s="39" t="s">
-        <v>93</v>
+      <c r="J30" s="40" t="s">
+        <v>92</v>
       </c>
       <c r="K30" s="39" t="s">
         <v>71</v>
@@ -1947,13 +1954,13 @@
       <c r="F31"/>
       <c r="G31" s="1"/>
       <c r="H31"/>
-      <c r="J31" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="K31" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="L31" s="40">
+      <c r="J31" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="K31" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="L31" s="39">
         <v>1</v>
       </c>
     </row>
@@ -1967,10 +1974,10 @@
       <c r="G32" s="7"/>
       <c r="H32" s="6"/>
       <c r="J32" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="K32" s="39" t="s">
-        <v>74</v>
+        <v>72</v>
+      </c>
+      <c r="K32" s="40" t="s">
+        <v>73</v>
       </c>
       <c r="L32" s="40">
         <v>1</v>
@@ -1985,63 +1992,63 @@
       <c r="F33" s="9"/>
       <c r="G33" s="8"/>
       <c r="H33" s="9"/>
-      <c r="J33" s="39" t="s">
-        <v>95</v>
+      <c r="J33" s="40" t="s">
+        <v>94</v>
       </c>
       <c r="K33" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="L33" s="39">
+      <c r="L33" s="40">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="J34" s="39" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="K34" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L34" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="J35" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="K35" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="K35" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="L35" s="40">
-        <v>1</v>
+      <c r="L35" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="J36" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K36" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="L36" s="39">
+      <c r="L36" s="40">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="J37" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K37" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="L37" s="40">
+      <c r="L37" s="39">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="J38" s="40" t="s">
-        <v>99</v>
+      <c r="J38" s="39" t="s">
+        <v>98</v>
       </c>
       <c r="K38" s="40" t="s">
         <v>75</v>
@@ -2059,14 +2066,14 @@
       <c r="F39" s="1"/>
       <c r="G39" s="9"/>
       <c r="H39"/>
-      <c r="J39" s="41" t="s">
-        <v>106</v>
+      <c r="J39" s="40" t="s">
+        <v>99</v>
       </c>
       <c r="K39" s="40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L39" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -2078,24 +2085,24 @@
       <c r="F40" s="1"/>
       <c r="G40" s="9"/>
       <c r="H40"/>
-      <c r="J40" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="K40" s="39" t="s">
+      <c r="J40" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="K40" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="L40" s="39">
-        <v>1</v>
+      <c r="L40" s="40">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="J41" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="K41" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="L41" s="40">
+        <v>76</v>
+      </c>
+      <c r="K41" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="L41" s="39">
         <v>1</v>
       </c>
     </row>
@@ -2108,8 +2115,8 @@
       <c r="F42" s="1"/>
       <c r="G42"/>
       <c r="H42"/>
-      <c r="J42" s="40" t="s">
-        <v>104</v>
+      <c r="J42" s="39" t="s">
+        <v>103</v>
       </c>
       <c r="K42" s="40" t="s">
         <v>78</v>
@@ -2118,7 +2125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="29" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43"/>
       <c r="C43" s="1"/>
@@ -2127,6 +2134,15 @@
       <c r="F43" s="1"/>
       <c r="G43"/>
       <c r="H43"/>
+      <c r="J43" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="K43" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L43" s="40">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:12" s="29" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
@@ -2443,9 +2459,9 @@
       <c r="F75" s="20"/>
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
-      <c r="J75"/>
-      <c r="K75"/>
-      <c r="L75"/>
+      <c r="J75" s="29"/>
+      <c r="K75" s="29"/>
+      <c r="L75" s="29"/>
     </row>
     <row r="77" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A77" s="4"/>
@@ -2482,28 +2498,23 @@
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="94" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="J94" s="17"/>
-      <c r="K94" s="17"/>
-      <c r="L94" s="17"/>
-    </row>
-    <row r="96" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="J96" s="17"/>
-      <c r="K96" s="17"/>
-      <c r="L96" s="17"/>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="95" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="J95" s="17"/>
+      <c r="K95" s="17"/>
+      <c r="L95" s="17"/>
+    </row>
+    <row r="97" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="J97" s="17"/>
+      <c r="K97" s="17"/>
+      <c r="L97" s="17"/>
     </row>
     <row r="98" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="I98" s="27"/>
-    </row>
-    <row r="99" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="J99" s="14"/>
-      <c r="K99" s="14"/>
-      <c r="L99" s="14"/>
     </row>
     <row r="100" spans="1:12" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
@@ -2514,9 +2525,9 @@
       <c r="F100"/>
       <c r="G100" s="1"/>
       <c r="H100"/>
-      <c r="J100"/>
-      <c r="K100"/>
-      <c r="L100"/>
+      <c r="J100" s="14"/>
+      <c r="K100" s="14"/>
+      <c r="L100" s="14"/>
     </row>
     <row r="102" spans="1:12" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A102" s="2"/>
@@ -2531,15 +2542,15 @@
       <c r="K102"/>
       <c r="L102"/>
     </row>
-    <row r="121" spans="10:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="J121" s="27"/>
-      <c r="K121" s="27"/>
-      <c r="L121" s="27"/>
-    </row>
-    <row r="123" spans="10:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="J123" s="27"/>
-      <c r="K123" s="27"/>
-      <c r="L123" s="27"/>
+    <row r="122" spans="10:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="J122" s="27"/>
+      <c r="K122" s="27"/>
+      <c r="L122" s="27"/>
+    </row>
+    <row r="124" spans="10:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="J124" s="27"/>
+      <c r="K124" s="27"/>
+      <c r="L124" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.31496062992125984" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedu\Documents\GitHub\euro22\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551FE9BC-1B05-4E16-82F0-C80EBD8C7537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8FFDF2-C7B4-4CFF-8D89-E83BCAF42CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1047,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1486,7 +1486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>5</v>
       </c>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedu\Documents\GitHub\euro22\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8FFDF2-C7B4-4CFF-8D89-E83BCAF42CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2C9CB9-535C-4819-96D9-A59D09341F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="112">
   <si>
     <t>-</t>
   </si>
@@ -349,6 +349,15 @@
   </si>
   <si>
     <t>Klara Buhl</t>
+  </si>
+  <si>
+    <t>Hanna Bennison</t>
+  </si>
+  <si>
+    <t>Fridolina Rolfö</t>
+  </si>
+  <si>
+    <t>Ramona Bachmann</t>
   </si>
 </sst>
 </file>
@@ -607,7 +616,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -705,6 +714,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1045,10 +1057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V124"/>
+  <dimension ref="A1:V127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="C27" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1468,7 +1480,7 @@
         <v>37</v>
       </c>
       <c r="F15" s="31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G15" s="30" t="s">
         <v>0</v>
@@ -1486,7 +1498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>5</v>
       </c>
@@ -1572,11 +1584,15 @@
       <c r="E18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="31"/>
+      <c r="F18" s="31">
+        <v>2</v>
+      </c>
       <c r="G18" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="H18" s="31"/>
+      <c r="H18" s="31">
+        <v>1</v>
+      </c>
       <c r="J18" s="40" t="s">
         <v>84</v>
       </c>
@@ -1711,7 +1727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>4</v>
       </c>
@@ -1742,7 +1758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="29" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" s="29" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>5</v>
       </c>
@@ -1773,7 +1789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
         <v>5</v>
       </c>
@@ -1804,7 +1820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
         <v>7</v>
       </c>
@@ -1835,7 +1851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="28" t="s">
         <v>7</v>
       </c>
@@ -1866,7 +1882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
         <v>8</v>
       </c>
@@ -1897,7 +1913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>8</v>
       </c>
@@ -1928,7 +1944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="28"/>
       <c r="B30" s="28"/>
       <c r="D30" s="30"/>
@@ -1945,7 +1961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31"/>
@@ -2002,7 +2018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="J34" s="39" t="s">
         <v>95</v>
       </c>
@@ -2013,7 +2029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="J35" s="39" t="s">
         <v>105</v>
       </c>
@@ -2024,7 +2040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="J36" s="39" t="s">
         <v>96</v>
       </c>
@@ -2035,7 +2051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="J37" s="39" t="s">
         <v>97</v>
       </c>
@@ -2046,7 +2062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="J38" s="39" t="s">
         <v>98</v>
       </c>
@@ -2085,25 +2101,25 @@
       <c r="F40" s="1"/>
       <c r="G40" s="9"/>
       <c r="H40"/>
-      <c r="J40" s="41" t="s">
-        <v>106</v>
+      <c r="J40" s="42" t="s">
+        <v>109</v>
       </c>
       <c r="K40" s="40" t="s">
         <v>77</v>
       </c>
       <c r="L40" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="J41" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="K41" s="39" t="s">
+      <c r="J41" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="K41" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="L41" s="39">
-        <v>1</v>
+      <c r="L41" s="40">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -2116,12 +2132,12 @@
       <c r="G42"/>
       <c r="H42"/>
       <c r="J42" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="K42" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="L42" s="40">
+        <v>76</v>
+      </c>
+      <c r="K42" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="L42" s="39">
         <v>1</v>
       </c>
     </row>
@@ -2134,17 +2150,17 @@
       <c r="F43" s="1"/>
       <c r="G43"/>
       <c r="H43"/>
-      <c r="J43" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="K43" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="L43" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" s="29" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J43" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="K43" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="L43" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44"/>
       <c r="C44" s="1"/>
@@ -2153,8 +2169,17 @@
       <c r="F44" s="1"/>
       <c r="G44"/>
       <c r="H44"/>
-    </row>
-    <row r="45" spans="1:12" s="29" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J44" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="K44" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L44" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" s="29" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
       <c r="B45"/>
       <c r="C45" s="1"/>
@@ -2163,6 +2188,15 @@
       <c r="F45" s="1"/>
       <c r="G45"/>
       <c r="H45"/>
+      <c r="J45" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="K45" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L45" s="40">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:12" s="29" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="16" t="s">
@@ -2175,6 +2209,15 @@
       <c r="F46" s="1"/>
       <c r="G46"/>
       <c r="H46"/>
+      <c r="J46" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="K46" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L46" s="40">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:12" s="29" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
@@ -2463,12 +2506,20 @@
       <c r="K75" s="29"/>
       <c r="L75" s="29"/>
     </row>
+    <row r="76" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J76" s="29"/>
+      <c r="K76" s="29"/>
+      <c r="L76" s="29"/>
+    </row>
     <row r="77" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="F77" s="27"/>
       <c r="G77" s="20"/>
       <c r="H77" s="27"/>
+      <c r="J77" s="29"/>
+      <c r="K77" s="29"/>
+      <c r="L77" s="29"/>
     </row>
     <row r="78" spans="1:12" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
@@ -2479,9 +2530,9 @@
       <c r="F78"/>
       <c r="G78" s="1"/>
       <c r="H78"/>
-      <c r="J78"/>
-      <c r="K78"/>
-      <c r="L78"/>
+      <c r="J78" s="29"/>
+      <c r="K78" s="29"/>
+      <c r="L78" s="29"/>
     </row>
     <row r="79" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A79" s="4"/>
@@ -2498,23 +2549,16 @@
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="95" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="J95" s="17"/>
-      <c r="K95" s="17"/>
-      <c r="L95" s="17"/>
-    </row>
-    <row r="97" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="J97" s="17"/>
-      <c r="K97" s="17"/>
-      <c r="L97" s="17"/>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
     </row>
     <row r="98" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="I98" s="27"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="17"/>
+      <c r="L98" s="17"/>
     </row>
     <row r="100" spans="1:12" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
@@ -2525,9 +2569,9 @@
       <c r="F100"/>
       <c r="G100" s="1"/>
       <c r="H100"/>
-      <c r="J100" s="14"/>
-      <c r="K100" s="14"/>
-      <c r="L100" s="14"/>
+      <c r="J100" s="17"/>
+      <c r="K100" s="17"/>
+      <c r="L100" s="17"/>
     </row>
     <row r="102" spans="1:12" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A102" s="2"/>
@@ -2542,15 +2586,20 @@
       <c r="K102"/>
       <c r="L102"/>
     </row>
-    <row r="122" spans="10:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="J122" s="27"/>
-      <c r="K122" s="27"/>
-      <c r="L122" s="27"/>
-    </row>
-    <row r="124" spans="10:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="J124" s="27"/>
-      <c r="K124" s="27"/>
-      <c r="L124" s="27"/>
+    <row r="103" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J103" s="14"/>
+      <c r="K103" s="14"/>
+      <c r="L103" s="14"/>
+    </row>
+    <row r="125" spans="10:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="J125" s="27"/>
+      <c r="K125" s="27"/>
+      <c r="L125" s="27"/>
+    </row>
+    <row r="127" spans="10:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="J127" s="27"/>
+      <c r="K127" s="27"/>
+      <c r="L127" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.31496062992125984" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedu\Documents\GitHub\euro22\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2C9CB9-535C-4819-96D9-A59D09341F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BC9B56-F4C6-4658-AFBD-7338F6DAEC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1059,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C27" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+    <sheetView tabSelected="1" topLeftCell="C9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>5</v>
       </c>
@@ -1619,11 +1619,15 @@
       <c r="E19" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="31"/>
+      <c r="F19" s="31">
+        <v>3</v>
+      </c>
       <c r="G19" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="H19" s="31"/>
+      <c r="H19" s="31">
+        <v>2</v>
+      </c>
       <c r="J19" s="40" t="s">
         <v>108</v>
       </c>
@@ -1727,7 +1731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>4</v>
       </c>
@@ -1758,7 +1762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="29" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" s="29" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>5</v>
       </c>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedu\Documents\GitHub\euro22\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BC9B56-F4C6-4658-AFBD-7338F6DAEC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0A7F1A-CC70-47FA-AD7E-752E73C2A531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1060,7 +1060,7 @@
   <dimension ref="A1:V127"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>5</v>
       </c>
@@ -1654,11 +1654,15 @@
       <c r="E20" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="31"/>
+      <c r="F20" s="31">
+        <v>1</v>
+      </c>
       <c r="G20" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="H20" s="31"/>
+      <c r="H20" s="31">
+        <v>1</v>
+      </c>
       <c r="J20" s="40" t="s">
         <v>86</v>
       </c>
@@ -1731,7 +1735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>4</v>
       </c>
@@ -1762,7 +1766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="29" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" s="29" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>5</v>
       </c>
@@ -2077,7 +2081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39"/>
       <c r="C39" s="1"/>
@@ -2096,7 +2100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40"/>
       <c r="C40" s="1"/>
@@ -2115,7 +2119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="J41" s="41" t="s">
         <v>106</v>
       </c>
@@ -2126,7 +2130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42"/>
       <c r="C42" s="1"/>
@@ -2145,7 +2149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43"/>
       <c r="C43" s="1"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedu\Documents\GitHub\euro22\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0A7F1A-CC70-47FA-AD7E-752E73C2A531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA4FFAA-7801-4CA4-B4AE-69B1B407D4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1060,7 +1060,7 @@
   <dimension ref="A1:V127"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>5</v>
       </c>
@@ -1689,11 +1689,15 @@
       <c r="E21" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="31"/>
+      <c r="F21" s="31">
+        <v>2</v>
+      </c>
       <c r="G21" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="H21" s="31"/>
+      <c r="H21" s="31">
+        <v>1</v>
+      </c>
       <c r="J21" s="40" t="s">
         <v>87</v>
       </c>
@@ -1735,7 +1739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>4</v>
       </c>
@@ -1766,7 +1770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="29" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" s="29" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>5</v>
       </c>
@@ -2026,7 +2030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="J34" s="39" t="s">
         <v>95</v>
       </c>
@@ -2037,7 +2041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="J35" s="39" t="s">
         <v>105</v>
       </c>
@@ -2048,7 +2052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="J36" s="39" t="s">
         <v>96</v>
       </c>
@@ -2059,7 +2063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="J37" s="39" t="s">
         <v>97</v>
       </c>
@@ -2070,7 +2074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="J38" s="39" t="s">
         <v>98</v>
       </c>
@@ -2081,7 +2085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39"/>
       <c r="C39" s="1"/>
@@ -2100,7 +2104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40"/>
       <c r="C40" s="1"/>
@@ -2119,7 +2123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="J41" s="41" t="s">
         <v>106</v>
       </c>
@@ -2130,7 +2134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42"/>
       <c r="C42" s="1"/>
@@ -2149,7 +2153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43"/>
       <c r="C43" s="1"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedu\Documents\GitHub\euro22\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA4FFAA-7801-4CA4-B4AE-69B1B407D4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D432A05-DEAA-4F34-AE3F-932EAD662644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -616,7 +616,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -635,10 +635,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -715,7 +711,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1059,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,7 +1072,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="5"/>
@@ -1086,894 +1082,910 @@
       <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:22" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="5"/>
-      <c r="E2" s="33"/>
+      <c r="E2" s="31"/>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="4" spans="1:22" s="22" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="21" t="s">
+    <row r="4" spans="1:22" s="20" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="22" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="23" t="s">
+      <c r="F4" s="22"/>
+      <c r="G4" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="25"/>
-      <c r="J4" s="10" t="s">
+      <c r="H4" s="23"/>
+      <c r="J4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="N4" s="29" t="s">
+      <c r="N4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="29" t="s">
+      <c r="O4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="29" t="s">
+      <c r="Q4" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="R4" s="29" t="s">
+      <c r="R4" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
-    </row>
-    <row r="5" spans="1:22" s="14" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="D5" s="15"/>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" spans="1:22" s="29" customFormat="1" ht="36" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+    </row>
+    <row r="5" spans="1:22" s="12" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="D5" s="13"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="1:22" s="27" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="26">
         <v>44718</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="29" t="s">
+      <c r="D6" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="31">
-        <v>1</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="31">
-        <v>0</v>
-      </c>
-      <c r="J6" s="39" t="s">
+      <c r="F6" s="29">
+        <v>1</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="29">
+        <v>0</v>
+      </c>
+      <c r="J6" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="39" t="s">
+      <c r="K6" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="39">
+      <c r="L6" s="37">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="29" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A7" s="28" t="s">
+    <row r="7" spans="1:22" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="26">
         <v>44719</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="29" t="s">
+      <c r="D7" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="29">
         <v>4</v>
       </c>
-      <c r="G7" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="31">
-        <v>1</v>
-      </c>
-      <c r="J7" s="40" t="s">
+      <c r="G7" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="29">
+        <v>1</v>
+      </c>
+      <c r="J7" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="K7" s="40" t="s">
+      <c r="K7" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="L7" s="40">
-        <v>1</v>
-      </c>
-      <c r="N7" s="11"/>
-    </row>
-    <row r="8" spans="1:22" s="29" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A8" s="28" t="s">
+      <c r="L7" s="38">
+        <v>1</v>
+      </c>
+      <c r="N7" s="9"/>
+    </row>
+    <row r="8" spans="1:22" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="26">
         <v>44720</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="29" t="s">
+      <c r="D8" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="29">
         <v>4</v>
       </c>
-      <c r="G8" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="31">
-        <v>1</v>
-      </c>
-      <c r="J8" s="40" t="s">
+      <c r="G8" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="29">
+        <v>1</v>
+      </c>
+      <c r="J8" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="K8" s="40" t="s">
+      <c r="K8" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="L8" s="40">
-        <v>1</v>
-      </c>
-      <c r="N8" s="11"/>
-    </row>
-    <row r="9" spans="1:22" s="29" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="28" t="s">
+      <c r="L8" s="38">
+        <v>1</v>
+      </c>
+      <c r="N8" s="9"/>
+    </row>
+    <row r="9" spans="1:22" s="27" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="26">
         <v>44720</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="29" t="s">
+      <c r="D9" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="29">
         <v>4</v>
       </c>
-      <c r="G9" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="31">
-        <v>0</v>
-      </c>
-      <c r="J9" s="39" t="s">
+      <c r="G9" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="29">
+        <v>0</v>
+      </c>
+      <c r="J9" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="K9" s="39" t="s">
+      <c r="K9" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="L9" s="39">
-        <v>1</v>
-      </c>
-      <c r="N9" s="11"/>
-    </row>
-    <row r="10" spans="1:22" s="29" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A10" s="28" t="s">
+      <c r="L9" s="37">
+        <v>1</v>
+      </c>
+      <c r="N9" s="9"/>
+    </row>
+    <row r="10" spans="1:22" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A10" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="26">
         <v>44721</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="29" t="s">
+      <c r="D10" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="29">
         <v>2</v>
       </c>
-      <c r="G10" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="31">
+      <c r="G10" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="29">
         <v>2</v>
       </c>
-      <c r="J10" s="40" t="s">
+      <c r="J10" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="40" t="s">
+      <c r="K10" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="L10" s="40">
+      <c r="L10" s="38">
+        <v>5</v>
+      </c>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="1:22" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="26">
+        <v>44721</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="29">
+        <v>1</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="29">
+        <v>1</v>
+      </c>
+      <c r="J11" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="26">
+        <v>44722</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="29">
+        <v>1</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="29">
+        <v>1</v>
+      </c>
+      <c r="J12" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="K12" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="L12" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="26">
+        <v>44722</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="29">
+        <v>5</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="29">
+        <v>1</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="11"/>
-    </row>
-    <row r="11" spans="1:22" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+      <c r="B14" s="26">
+        <v>44723</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="29">
+        <v>2</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="29">
+        <v>0</v>
+      </c>
+      <c r="J14" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="26">
+        <v>44723</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="29">
+        <v>8</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="29">
+        <v>0</v>
+      </c>
+      <c r="J15" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="K15" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="L15" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="26">
+        <v>44724</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="29">
+        <v>1</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="29">
+        <v>0</v>
+      </c>
+      <c r="J16" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="26">
+        <v>44724</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="29">
+        <v>2</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="29">
+        <v>0</v>
+      </c>
+      <c r="J17" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="K17" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="28">
-        <v>44721</v>
-      </c>
-      <c r="C11" s="29" t="s">
+      <c r="B18" s="26">
+        <v>44725</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="29">
+        <v>2</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="29">
+        <v>1</v>
+      </c>
+      <c r="J18" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="L18" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="26">
+        <v>44725</v>
+      </c>
+      <c r="C19" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="29" t="s">
+      <c r="D19" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="29">
+        <v>3</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="29">
+        <v>2</v>
+      </c>
+      <c r="J19" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="L19" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="26">
+        <v>44726</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="29">
+        <v>1</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="29">
+        <v>1</v>
+      </c>
+      <c r="J20" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="K20" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="L20" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="26">
+        <v>44726</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="29">
+        <v>2</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="29">
+        <v>1</v>
+      </c>
+      <c r="J21" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="K21" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="L21" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="26">
+        <v>44727</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="29">
+        <v>0</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="29">
+        <v>5</v>
+      </c>
+      <c r="J22" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="K22" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="L22" s="37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="26">
+        <v>44727</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="29">
+        <v>1</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="29">
+        <v>0</v>
+      </c>
+      <c r="J23" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="K23" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="L23" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="27" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="26">
+        <v>44728</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="29">
+        <v>0</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="29">
+        <v>3</v>
+      </c>
+      <c r="J24" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="K24" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="L24" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="26">
+        <v>44728</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="29">
+        <v>0</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="29">
+        <v>1</v>
+      </c>
+      <c r="J25" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="K25" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="L25" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="26">
+        <v>44729</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="29"/>
+      <c r="G26" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="29"/>
+      <c r="J26" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="K26" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="L26" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="26">
+        <v>44729</v>
+      </c>
+      <c r="C27" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="31">
-        <v>1</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="31">
-        <v>1</v>
-      </c>
-      <c r="J11" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="K11" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="L11" s="40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
+      <c r="D27" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="29"/>
+      <c r="G27" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="29"/>
+      <c r="J27" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="K27" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="L27" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="28">
-        <v>44722</v>
-      </c>
-      <c r="C12" s="29" t="s">
+      <c r="B28" s="26">
+        <v>44730</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="29"/>
+      <c r="G28" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="29"/>
+      <c r="J28" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="K28" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="L28" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="26">
+        <v>44730</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="31">
-        <v>1</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="31">
-        <v>1</v>
-      </c>
-      <c r="J12" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="K12" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="L12" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="28">
-        <v>44722</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="31">
-        <v>5</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="31">
-        <v>1</v>
-      </c>
-      <c r="J13" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="K13" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="L13" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="28">
-        <v>44723</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="31">
-        <v>2</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="31">
-        <v>0</v>
-      </c>
-      <c r="J14" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="K14" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="L14" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="28">
-        <v>44723</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="31">
-        <v>8</v>
-      </c>
-      <c r="G15" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="31">
-        <v>0</v>
-      </c>
-      <c r="J15" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="K15" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="L15" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="28">
-        <v>44724</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="31">
-        <v>1</v>
-      </c>
-      <c r="G16" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="31">
-        <v>0</v>
-      </c>
-      <c r="J16" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="K16" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="L16" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="28">
-        <v>44724</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="31">
-        <v>2</v>
-      </c>
-      <c r="G17" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="31">
-        <v>0</v>
-      </c>
-      <c r="J17" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="K17" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="L17" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="28">
-        <v>44725</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="31">
-        <v>2</v>
-      </c>
-      <c r="G18" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="31">
-        <v>1</v>
-      </c>
-      <c r="J18" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="K18" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="L18" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="28">
-        <v>44725</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="31">
-        <v>3</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="31">
-        <v>2</v>
-      </c>
-      <c r="J19" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="L19" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="28">
-        <v>44726</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="31">
-        <v>1</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="31">
-        <v>1</v>
-      </c>
-      <c r="J20" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="K20" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="L20" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="28">
-        <v>44726</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="31">
-        <v>2</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H21" s="31">
-        <v>1</v>
-      </c>
-      <c r="J21" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="K21" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="L21" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="28">
-        <v>44727</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="31"/>
-      <c r="G22" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H22" s="31"/>
-      <c r="J22" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="K22" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="L22" s="39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="28">
-        <v>44727</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="31"/>
-      <c r="G23" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" s="31"/>
-      <c r="J23" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="K23" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="L23" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="29" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="28">
-        <v>44728</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="31"/>
-      <c r="G24" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H24" s="31"/>
-      <c r="J24" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="K24" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="L24" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A25" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="28">
-        <v>44728</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="31"/>
-      <c r="G25" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H25" s="31"/>
-      <c r="J25" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="K25" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="L25" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A26" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="28">
-        <v>44729</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="31"/>
-      <c r="G26" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H26" s="31"/>
-      <c r="J26" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="K26" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="L26" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A27" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="28">
-        <v>44729</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="31"/>
-      <c r="G27" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H27" s="31"/>
-      <c r="J27" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="K27" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="L27" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A28" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="28">
-        <v>44730</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="31"/>
-      <c r="G28" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H28" s="31"/>
-      <c r="J28" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="K28" s="39" t="s">
+      <c r="F29" s="29"/>
+      <c r="G29" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="29"/>
+      <c r="J29" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="K29" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="L28" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A29" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="28">
-        <v>44730</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="31"/>
-      <c r="G29" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H29" s="31"/>
-      <c r="J29" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="K29" s="39" t="s">
+      <c r="L29" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="D30" s="28"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="29"/>
+      <c r="J30" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="K30" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="L29" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="D30" s="30"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="31"/>
-      <c r="J30" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="K30" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="L30" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="L30" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31"/>
@@ -1982,17 +1994,17 @@
       <c r="F31"/>
       <c r="G31" s="1"/>
       <c r="H31"/>
-      <c r="J31" s="39" t="s">
+      <c r="J31" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="K31" s="39" t="s">
+      <c r="K31" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="L31" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="29" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L31" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="27" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32"/>
@@ -2001,140 +2013,140 @@
       <c r="F32" s="6"/>
       <c r="G32" s="7"/>
       <c r="H32" s="6"/>
-      <c r="J32" s="40" t="s">
+      <c r="J32" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="K32" s="40" t="s">
+      <c r="K32" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="L32" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="L32" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="27" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
-      <c r="J33" s="40" t="s">
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33" s="1"/>
+      <c r="H33"/>
+      <c r="J33" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="K33" s="39" t="s">
+      <c r="K33" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="L33" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="J34" s="39" t="s">
+      <c r="L33" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J34" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="K34" s="39" t="s">
+      <c r="K34" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="L34" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="J35" s="39" t="s">
+      <c r="L34" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J35" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="K35" s="39" t="s">
+      <c r="K35" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="L35" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="J36" s="39" t="s">
+      <c r="L35" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J36" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="K36" s="40" t="s">
+      <c r="K36" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="L36" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="J37" s="39" t="s">
+      <c r="L36" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J37" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="K37" s="40" t="s">
+      <c r="K37" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="L37" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="J38" s="39" t="s">
+      <c r="L37" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J38" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="K38" s="40" t="s">
+      <c r="K38" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="L38" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L38" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39"/>
       <c r="C39" s="1"/>
       <c r="D39"/>
       <c r="E39"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="9"/>
+      <c r="G39"/>
       <c r="H39"/>
-      <c r="J39" s="40" t="s">
+      <c r="J39" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="K39" s="40" t="s">
+      <c r="K39" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="L39" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L39" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40"/>
       <c r="C40" s="1"/>
       <c r="D40"/>
       <c r="E40"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="9"/>
+      <c r="G40"/>
       <c r="H40"/>
-      <c r="J40" s="42" t="s">
+      <c r="J40" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="K40" s="40" t="s">
+      <c r="K40" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="L40" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="J41" s="41" t="s">
+      <c r="L40" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J41" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="K41" s="40" t="s">
+      <c r="K41" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="L41" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L41" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42"/>
       <c r="C42" s="1"/>
@@ -2143,17 +2155,17 @@
       <c r="F42" s="1"/>
       <c r="G42"/>
       <c r="H42"/>
-      <c r="J42" s="39" t="s">
+      <c r="J42" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="K42" s="39" t="s">
+      <c r="K42" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="L42" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L42" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43"/>
       <c r="C43" s="1"/>
@@ -2162,17 +2174,17 @@
       <c r="F43" s="1"/>
       <c r="G43"/>
       <c r="H43"/>
-      <c r="J43" s="39" t="s">
+      <c r="J43" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="K43" s="39" t="s">
+      <c r="K43" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="L43" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L43" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44"/>
       <c r="C44" s="1"/>
@@ -2181,17 +2193,17 @@
       <c r="F44" s="1"/>
       <c r="G44"/>
       <c r="H44"/>
-      <c r="J44" s="39" t="s">
+      <c r="J44" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="K44" s="40" t="s">
+      <c r="K44" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="L44" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" s="29" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L44" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" s="27" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
       <c r="B45"/>
       <c r="C45" s="1"/>
@@ -2200,38 +2212,38 @@
       <c r="F45" s="1"/>
       <c r="G45"/>
       <c r="H45"/>
-      <c r="J45" s="39" t="s">
+      <c r="J45" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="K45" s="40" t="s">
+      <c r="K45" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="L45" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" s="29" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="16" t="s">
+      <c r="L45" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" s="27" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="18"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="16"/>
       <c r="F46" s="1"/>
       <c r="G46"/>
       <c r="H46"/>
-      <c r="J46" s="40" t="s">
+      <c r="J46" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="K46" s="40" t="s">
+      <c r="K46" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="L46" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" s="29" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="L46" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" s="27" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47"/>
       <c r="C47" s="1"/>
@@ -2241,67 +2253,67 @@
       <c r="G47"/>
       <c r="H47"/>
     </row>
-    <row r="48" spans="1:12" s="29" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="16" t="s">
+    <row r="48" spans="1:12" s="27" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="14" t="s">
+      <c r="B48" s="15"/>
+      <c r="C48" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
       <c r="F48" s="1"/>
       <c r="G48"/>
       <c r="H48"/>
     </row>
-    <row r="49" spans="1:12" s="29" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" s="27" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
-      <c r="B49" s="34" t="s">
+      <c r="B49" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="35"/>
+      <c r="C49" s="33"/>
       <c r="D49"/>
       <c r="E49"/>
       <c r="F49" s="1"/>
       <c r="G49"/>
       <c r="H49"/>
     </row>
-    <row r="50" spans="1:12" s="29" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12" s="27" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2"/>
-      <c r="B50" s="36" t="s">
+      <c r="B50" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="37"/>
+      <c r="C50" s="35"/>
       <c r="D50" s="1"/>
       <c r="E50"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="17"/>
-    </row>
-    <row r="51" spans="1:12" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="13" t="s">
+      <c r="F50" s="17"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="15"/>
+    </row>
+    <row r="51" spans="1:12" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="14"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="12"/>
       <c r="F51" s="1"/>
       <c r="G51"/>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:12" s="29" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" s="27" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52"/>
       <c r="D52" s="1"/>
       <c r="E52"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-    </row>
-    <row r="53" spans="1:12" s="29" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+    </row>
+    <row r="53" spans="1:12" s="27" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>20</v>
       </c>
@@ -2318,85 +2330,85 @@
         <v>26</v>
       </c>
       <c r="B54" s="4"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="29"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="27"/>
     </row>
     <row r="55" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B55" s="4"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="14"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="29"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="12"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="27"/>
+      <c r="L55" s="27"/>
     </row>
     <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="29"/>
-      <c r="L56" s="29"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="27"/>
     </row>
     <row r="57" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B57" s="4"/>
-      <c r="J57" s="29"/>
-      <c r="K57" s="29"/>
-      <c r="L57" s="29"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="27"/>
+      <c r="L57" s="27"/>
     </row>
     <row r="58" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B58" s="4"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="29"/>
-      <c r="L58" s="29"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="27"/>
+      <c r="L58" s="27"/>
     </row>
     <row r="59" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="29"/>
-      <c r="L59" s="29"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="27"/>
     </row>
     <row r="60" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B60" s="4"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="29"/>
-      <c r="L60" s="29"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="27"/>
+      <c r="L60" s="27"/>
     </row>
     <row r="61" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="29"/>
-      <c r="L61" s="29"/>
+      <c r="J61" s="27"/>
+      <c r="K61" s="27"/>
+      <c r="L61" s="27"/>
     </row>
     <row r="62" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B62" s="4"/>
-      <c r="J62" s="29"/>
-      <c r="K62" s="29"/>
-      <c r="L62" s="29"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="27"/>
+      <c r="L62" s="27"/>
     </row>
     <row r="63" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
-      <c r="J63" s="29"/>
-      <c r="K63" s="29"/>
-      <c r="L63" s="29"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="27"/>
+      <c r="L63" s="27"/>
     </row>
     <row r="64" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
@@ -2409,131 +2421,131 @@
       <c r="F64"/>
       <c r="G64" s="1"/>
       <c r="H64"/>
-      <c r="J64" s="29"/>
-      <c r="K64" s="29"/>
-      <c r="L64" s="29"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="27"/>
+      <c r="L64" s="27"/>
     </row>
     <row r="65" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
-      <c r="J65" s="29"/>
-      <c r="K65" s="29"/>
-      <c r="L65" s="29"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="27"/>
+      <c r="L65" s="27"/>
     </row>
     <row r="66" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B66" s="4"/>
-      <c r="J66" s="29"/>
-      <c r="K66" s="29"/>
-      <c r="L66" s="29"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="27"/>
+      <c r="L66" s="27"/>
     </row>
     <row r="67" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="29"/>
-      <c r="L67" s="29"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="27"/>
+      <c r="L67" s="27"/>
     </row>
     <row r="68" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B68" s="4"/>
-      <c r="J68" s="29"/>
-      <c r="K68" s="29"/>
-      <c r="L68" s="29"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="27"/>
+      <c r="L68" s="27"/>
     </row>
     <row r="69" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
-      <c r="J69" s="29"/>
-      <c r="K69" s="29"/>
-      <c r="L69" s="29"/>
+      <c r="J69" s="27"/>
+      <c r="K69" s="27"/>
+      <c r="L69" s="27"/>
     </row>
     <row r="70" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70"/>
       <c r="B70"/>
-      <c r="J70" s="29"/>
-      <c r="K70" s="29"/>
-      <c r="L70" s="29"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="27"/>
+      <c r="L70" s="27"/>
     </row>
     <row r="71" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A71" s="16" t="s">
+      <c r="A71" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B71" s="16"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27" t="s">
+      <c r="B71" s="14"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="E71" s="27"/>
-      <c r="J71" s="29"/>
-      <c r="K71" s="29"/>
-      <c r="L71" s="29"/>
+      <c r="E71" s="25"/>
+      <c r="J71" s="27"/>
+      <c r="K71" s="27"/>
+      <c r="L71" s="27"/>
     </row>
     <row r="72" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
-      <c r="D72" s="38" t="s">
+      <c r="D72" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="J72" s="29"/>
-      <c r="K72" s="29"/>
-      <c r="L72" s="29"/>
-    </row>
-    <row r="73" spans="1:12" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J72" s="27"/>
+      <c r="K72" s="27"/>
+      <c r="L72" s="27"/>
+    </row>
+    <row r="73" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="27"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="25"/>
       <c r="F73"/>
       <c r="G73" s="1"/>
       <c r="H73"/>
-      <c r="J73" s="29"/>
-      <c r="K73" s="29"/>
-      <c r="L73" s="29"/>
+      <c r="J73" s="27"/>
+      <c r="K73" s="27"/>
+      <c r="L73" s="27"/>
     </row>
     <row r="74" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A74" s="16" t="s">
+      <c r="A74" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B74" s="16"/>
-      <c r="J74" s="29"/>
-      <c r="K74" s="29"/>
-      <c r="L74" s="29"/>
-    </row>
-    <row r="75" spans="1:12" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="27"/>
-      <c r="B75" s="27"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="27"/>
-      <c r="J75" s="29"/>
-      <c r="K75" s="29"/>
-      <c r="L75" s="29"/>
+      <c r="B74" s="14"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="27"/>
+      <c r="L74" s="27"/>
+    </row>
+    <row r="75" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="25"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="J75" s="27"/>
+      <c r="K75" s="27"/>
+      <c r="L75" s="27"/>
     </row>
     <row r="76" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="J76" s="29"/>
-      <c r="K76" s="29"/>
-      <c r="L76" s="29"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="27"/>
+      <c r="L76" s="27"/>
     </row>
     <row r="77" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="27"/>
-      <c r="J77" s="29"/>
-      <c r="K77" s="29"/>
-      <c r="L77" s="29"/>
-    </row>
-    <row r="78" spans="1:12" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F77" s="25"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="25"/>
+      <c r="J77" s="27"/>
+      <c r="K77" s="27"/>
+      <c r="L77" s="27"/>
+    </row>
+    <row r="78" spans="1:12" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78"/>
@@ -2542,16 +2554,16 @@
       <c r="F78"/>
       <c r="G78" s="1"/>
       <c r="H78"/>
-      <c r="J78" s="29"/>
-      <c r="K78" s="29"/>
-      <c r="L78" s="29"/>
+      <c r="J78" s="27"/>
+      <c r="K78" s="27"/>
+      <c r="L78" s="27"/>
     </row>
     <row r="79" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="27"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
@@ -2567,12 +2579,12 @@
       <c r="L89" s="3"/>
     </row>
     <row r="98" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="I98" s="27"/>
-      <c r="J98" s="17"/>
-      <c r="K98" s="17"/>
-      <c r="L98" s="17"/>
-    </row>
-    <row r="100" spans="1:12" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="I98" s="25"/>
+      <c r="J98" s="15"/>
+      <c r="K98" s="15"/>
+      <c r="L98" s="15"/>
+    </row>
+    <row r="100" spans="1:12" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100"/>
@@ -2581,11 +2593,11 @@
       <c r="F100"/>
       <c r="G100" s="1"/>
       <c r="H100"/>
-      <c r="J100" s="17"/>
-      <c r="K100" s="17"/>
-      <c r="L100" s="17"/>
-    </row>
-    <row r="102" spans="1:12" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="J100" s="15"/>
+      <c r="K100" s="15"/>
+      <c r="L100" s="15"/>
+    </row>
+    <row r="102" spans="1:12" s="25" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102"/>
@@ -2599,19 +2611,19 @@
       <c r="L102"/>
     </row>
     <row r="103" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="J103" s="14"/>
-      <c r="K103" s="14"/>
-      <c r="L103" s="14"/>
+      <c r="J103" s="12"/>
+      <c r="K103" s="12"/>
+      <c r="L103" s="12"/>
     </row>
     <row r="125" spans="10:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="J125" s="27"/>
-      <c r="K125" s="27"/>
-      <c r="L125" s="27"/>
+      <c r="J125" s="25"/>
+      <c r="K125" s="25"/>
+      <c r="L125" s="25"/>
     </row>
     <row r="127" spans="10:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="J127" s="27"/>
-      <c r="K127" s="27"/>
-      <c r="L127" s="27"/>
+      <c r="J127" s="25"/>
+      <c r="K127" s="25"/>
+      <c r="L127" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.31496062992125984" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedu\Documents\GitHub\euro22\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D432A05-DEAA-4F34-AE3F-932EAD662644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668D2115-DFEF-4DB0-A545-C9716A7D913A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1055,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1860,11 +1860,15 @@
       <c r="E26" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="29"/>
+      <c r="F26" s="29">
+        <v>1</v>
+      </c>
       <c r="G26" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="H26" s="29"/>
+      <c r="H26" s="29">
+        <v>4</v>
+      </c>
       <c r="J26" s="37" t="s">
         <v>102</v>
       </c>
@@ -1891,11 +1895,15 @@
       <c r="E27" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="29"/>
+      <c r="F27" s="29">
+        <v>5</v>
+      </c>
       <c r="G27" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="H27" s="29"/>
+      <c r="H27" s="29">
+        <v>0</v>
+      </c>
       <c r="J27" s="38" t="s">
         <v>69</v>
       </c>
@@ -2143,7 +2151,7 @@
         <v>77</v>
       </c>
       <c r="L41" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:12" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedu\Documents\GitHub\euro22\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668D2115-DFEF-4DB0-A545-C9716A7D913A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F276A428-EC7D-4F76-B32D-02948F6A3455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="112">
   <si>
     <t>-</t>
   </si>
@@ -1055,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,6 +1174,9 @@
       <c r="L6" s="37">
         <v>3</v>
       </c>
+      <c r="Q6" s="27" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:22" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
@@ -1210,6 +1213,9 @@
         <v>1</v>
       </c>
       <c r="N7" s="9"/>
+      <c r="Q7" s="27" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" spans="1:22" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
@@ -1246,6 +1252,9 @@
         <v>1</v>
       </c>
       <c r="N8" s="9"/>
+      <c r="Q8" s="27" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:22" s="27" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
@@ -1282,6 +1291,9 @@
         <v>1</v>
       </c>
       <c r="N9" s="9"/>
+      <c r="Q9" s="27" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:22" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
@@ -1494,7 +1506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>5</v>
       </c>
@@ -1736,10 +1748,10 @@
         <v>64</v>
       </c>
       <c r="L22" s="37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
         <v>4</v>
       </c>
@@ -1774,7 +1786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="27" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" s="27" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
         <v>5</v>
       </c>
@@ -1930,11 +1942,15 @@
       <c r="E28" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="29"/>
+      <c r="F28" s="29">
+        <v>1</v>
+      </c>
       <c r="G28" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="H28" s="29"/>
+      <c r="H28" s="29">
+        <v>1</v>
+      </c>
       <c r="J28" s="38" t="s">
         <v>90</v>
       </c>
@@ -1961,11 +1977,15 @@
       <c r="E29" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="29"/>
+      <c r="F29" s="29">
+        <v>0</v>
+      </c>
       <c r="G29" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="H29" s="29"/>
+      <c r="H29" s="29">
+        <v>1</v>
+      </c>
       <c r="J29" s="38" t="s">
         <v>91</v>
       </c>
@@ -2069,7 +2089,7 @@
         <v>75</v>
       </c>
       <c r="L35" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -2173,7 +2193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43"/>
       <c r="C43" s="1"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedu\Documents\GitHub\euro22\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F276A428-EC7D-4F76-B32D-02948F6A3455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4198345-5F90-4FFF-9147-C48D6C0DACD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,9 +78,6 @@
     <t>Maa</t>
   </si>
   <si>
-    <t>Maalikuningas</t>
-  </si>
-  <si>
     <t>Maalimäärät</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>* Oikea "merkki" (1X2) ja toisen joukkueen maalimäärä oikein 3 pistettä</t>
   </si>
   <si>
-    <t>* Oikein nimetty maalikuningas 8 pistettä (+ 4 bonuspistettä jos olet ainoa kyseisen pelaajan tiennyt)</t>
-  </si>
-  <si>
     <t>* Oikein nimetty välierämaa 5 pistettä per oikea maa (+ 3 bonuspistettä jos olet ainoa kyseisen maan tiennyt)</t>
   </si>
   <si>
@@ -123,12 +117,6 @@
     <t>Tanska</t>
   </si>
   <si>
-    <t>MM-kisaveikkauksen säännöt</t>
-  </si>
-  <si>
-    <t>* Oikein nimetty maailmanmestari 10 pistettä (+ 5 bonuspistettä jos olet ainoa kyseisen maan tiennyt)</t>
-  </si>
-  <si>
     <t>Puhnumero:</t>
   </si>
   <si>
@@ -358,6 +346,18 @@
   </si>
   <si>
     <t>Ramona Bachmann</t>
+  </si>
+  <si>
+    <t>* Oikein nimetty mestari 10 pistettä (+ 5 bonuspistettä jos olet ainoa kyseisen maan tiennyt)</t>
+  </si>
+  <si>
+    <t>* Oikein nimetty maalipörssin voittaja 8 pistettä (+ 4 bonuspistettä jos olet ainoa kyseisen pelaajan tiennyt)</t>
+  </si>
+  <si>
+    <t>kisaveikkauksen säännöt</t>
+  </si>
+  <si>
+    <t>Top 1 maalintekijä</t>
   </si>
 </sst>
 </file>
@@ -1055,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="2" spans="1:22" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B2" s="5"/>
       <c r="E2" s="31"/>
@@ -1096,7 +1096,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>2</v>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" s="23"/>
       <c r="J4" s="8" t="s">
@@ -1117,19 +1117,19 @@
         <v>17</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N4" s="27" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="O4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="Q4" s="27" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="R4" s="27" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="U4" s="27"/>
       <c r="V4" s="27"/>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F6" s="29">
         <v>1</v>
@@ -1166,10 +1166,10 @@
         <v>0</v>
       </c>
       <c r="J6" s="37" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K6" s="37" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="L6" s="37">
         <v>3</v>
@@ -1186,13 +1186,13 @@
         <v>44719</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F7" s="29">
         <v>4</v>
@@ -1204,17 +1204,17 @@
         <v>1</v>
       </c>
       <c r="J7" s="38" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K7" s="38" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L7" s="38">
         <v>1</v>
       </c>
       <c r="N7" s="9"/>
       <c r="Q7" s="27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:22" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F8" s="29">
         <v>4</v>
@@ -1243,10 +1243,10 @@
         <v>1</v>
       </c>
       <c r="J8" s="38" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K8" s="38" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L8" s="38">
         <v>1</v>
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="29">
         <v>4</v>
@@ -1282,10 +1282,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K9" s="37" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L9" s="37">
         <v>1</v>
@@ -1321,10 +1321,10 @@
         <v>2</v>
       </c>
       <c r="J10" s="38" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K10" s="38" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L10" s="38">
         <v>5</v>
@@ -1339,13 +1339,13 @@
         <v>44721</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>0</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F11" s="29">
         <v>1</v>
@@ -1357,10 +1357,10 @@
         <v>1</v>
       </c>
       <c r="J11" s="38" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K11" s="38" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L11" s="38">
         <v>2</v>
@@ -1380,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="29">
         <v>1</v>
@@ -1392,10 +1392,10 @@
         <v>1</v>
       </c>
       <c r="J12" s="38" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K12" s="38" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L12" s="38">
         <v>1</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F13" s="29">
         <v>5</v>
@@ -1427,10 +1427,10 @@
         <v>1</v>
       </c>
       <c r="J13" s="38" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K13" s="38" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L13" s="38">
         <v>1</v>
@@ -1444,13 +1444,13 @@
         <v>44723</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D14" s="28" t="s">
         <v>0</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F14" s="29">
         <v>2</v>
@@ -1462,10 +1462,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="38" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L14" s="38">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F15" s="29">
         <v>8</v>
@@ -1497,10 +1497,10 @@
         <v>0</v>
       </c>
       <c r="J15" s="38" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K15" s="38" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L15" s="38">
         <v>3</v>
@@ -1514,13 +1514,13 @@
         <v>44724</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D16" s="28" t="s">
         <v>0</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F16" s="29">
         <v>1</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="J16" s="37" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K16" s="37" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L16" s="37">
         <v>1</v>
@@ -1567,10 +1567,10 @@
         <v>0</v>
       </c>
       <c r="J17" s="37" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K17" s="38" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="L17" s="38">
         <v>1</v>
@@ -1584,7 +1584,7 @@
         <v>44725</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>0</v>
@@ -1602,10 +1602,10 @@
         <v>1</v>
       </c>
       <c r="J18" s="38" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K18" s="38" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="L18" s="38">
         <v>1</v>
@@ -1619,7 +1619,7 @@
         <v>44725</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D19" s="28" t="s">
         <v>0</v>
@@ -1637,10 +1637,10 @@
         <v>2</v>
       </c>
       <c r="J19" s="38" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K19" s="38" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L19" s="38">
         <v>1</v>
@@ -1654,13 +1654,13 @@
         <v>44726</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D20" s="28" t="s">
         <v>0</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F20" s="29">
         <v>1</v>
@@ -1672,10 +1672,10 @@
         <v>1</v>
       </c>
       <c r="J20" s="38" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K20" s="37" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L20" s="37">
         <v>1</v>
@@ -1707,10 +1707,10 @@
         <v>1</v>
       </c>
       <c r="J21" s="38" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K21" s="37" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L21" s="37">
         <v>1</v>
@@ -1724,7 +1724,7 @@
         <v>44727</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D22" s="28" t="s">
         <v>0</v>
@@ -1742,10 +1742,10 @@
         <v>5</v>
       </c>
       <c r="J22" s="38" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K22" s="37" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L22" s="37">
         <v>4</v>
@@ -1759,13 +1759,13 @@
         <v>44727</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D23" s="28" t="s">
         <v>0</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F23" s="29">
         <v>1</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="J23" s="37" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K23" s="37" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L23" s="37">
         <v>1</v>
@@ -1794,7 +1794,7 @@
         <v>44728</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D24" s="28" t="s">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>3</v>
       </c>
       <c r="J24" s="38" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K24" s="38" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L24" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
         <v>5</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>44728</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D25" s="28" t="s">
         <v>0</v>
@@ -1847,16 +1847,16 @@
         <v>1</v>
       </c>
       <c r="J25" s="37" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K25" s="37" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L25" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
         <v>7</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F26" s="29">
         <v>1</v>
@@ -1882,16 +1882,16 @@
         <v>4</v>
       </c>
       <c r="J26" s="37" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K26" s="37" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L26" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
         <v>7</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>44729</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D27" s="28" t="s">
         <v>0</v>
@@ -1917,16 +1917,16 @@
         <v>0</v>
       </c>
       <c r="J27" s="38" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K27" s="38" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L27" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>8</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>44730</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D28" s="28" t="s">
         <v>0</v>
@@ -1952,16 +1952,16 @@
         <v>1</v>
       </c>
       <c r="J28" s="38" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K28" s="37" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L28" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
         <v>8</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>44730</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D29" s="28" t="s">
         <v>0</v>
@@ -1987,16 +1987,16 @@
         <v>1</v>
       </c>
       <c r="J29" s="38" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K29" s="37" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L29" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="26"/>
       <c r="B30" s="26"/>
       <c r="D30" s="28"/>
@@ -2004,16 +2004,16 @@
       <c r="G30" s="28"/>
       <c r="H30" s="29"/>
       <c r="J30" s="38" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K30" s="37" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L30" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31"/>
@@ -2023,10 +2023,10 @@
       <c r="G31" s="1"/>
       <c r="H31"/>
       <c r="J31" s="37" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K31" s="37" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L31" s="37">
         <v>1</v>
@@ -2042,10 +2042,10 @@
       <c r="G32" s="7"/>
       <c r="H32" s="6"/>
       <c r="J32" s="38" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K32" s="38" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L32" s="38">
         <v>1</v>
@@ -2061,71 +2061,71 @@
       <c r="G33" s="1"/>
       <c r="H33"/>
       <c r="J33" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="K33" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="L33" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="J34" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="K34" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="L34" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="J35" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="K35" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="L35" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="J36" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="K36" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="L36" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="J37" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="K37" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="L37" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="J38" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="K33" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="L33" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="J34" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="K34" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="L34" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="J35" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="K35" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="L35" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="J36" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="K36" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="L36" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="J37" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="K37" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="L37" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="J38" s="37" t="s">
-        <v>98</v>
-      </c>
       <c r="K38" s="38" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L38" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39"/>
       <c r="C39" s="1"/>
@@ -2135,16 +2135,16 @@
       <c r="G39"/>
       <c r="H39"/>
       <c r="J39" s="38" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K39" s="38" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L39" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40"/>
       <c r="C40" s="1"/>
@@ -2154,27 +2154,27 @@
       <c r="G40"/>
       <c r="H40"/>
       <c r="J40" s="40" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K40" s="38" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L40" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="J41" s="39" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K41" s="38" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L41" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" s="27" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42"/>
       <c r="C42" s="1"/>
@@ -2184,10 +2184,10 @@
       <c r="G42"/>
       <c r="H42"/>
       <c r="J42" s="37" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K42" s="37" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L42" s="37">
         <v>1</v>
@@ -2203,10 +2203,10 @@
       <c r="G43"/>
       <c r="H43"/>
       <c r="J43" s="37" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K43" s="37" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L43" s="37">
         <v>1</v>
@@ -2222,10 +2222,10 @@
       <c r="G44"/>
       <c r="H44"/>
       <c r="J44" s="37" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K44" s="38" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L44" s="38">
         <v>1</v>
@@ -2241,10 +2241,10 @@
       <c r="G45"/>
       <c r="H45"/>
       <c r="J45" s="37" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K45" s="38" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L45" s="38">
         <v>1</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="46" spans="1:12" s="27" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B46" s="14"/>
       <c r="C46" s="15"/>
@@ -2262,10 +2262,10 @@
       <c r="G46"/>
       <c r="H46"/>
       <c r="J46" s="38" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K46" s="38" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L46" s="38">
         <v>1</v>
@@ -2283,11 +2283,11 @@
     </row>
     <row r="48" spans="1:12" s="27" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B48" s="15"/>
       <c r="C48" s="12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
@@ -2298,7 +2298,7 @@
     <row r="49" spans="1:12" s="27" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="B49" s="32" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C49" s="33"/>
       <c r="D49"/>
@@ -2310,7 +2310,7 @@
     <row r="50" spans="1:12" s="27" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2"/>
       <c r="B50" s="34" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C50" s="35"/>
       <c r="D50" s="1"/>
@@ -2321,7 +2321,7 @@
     </row>
     <row r="51" spans="1:12" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="12"/>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="53" spans="1:12" s="27" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53"/>
@@ -2355,7 +2355,7 @@
     </row>
     <row r="54" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B54" s="4"/>
       <c r="J54" s="27"/>
@@ -2364,7 +2364,7 @@
     </row>
     <row r="55" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B55" s="4"/>
       <c r="F55" s="12"/>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="57" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B57" s="4"/>
       <c r="J57" s="27"/>
@@ -2392,7 +2392,7 @@
     </row>
     <row r="58" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B58" s="4"/>
       <c r="J58" s="27"/>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="60" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="B60" s="4"/>
       <c r="J60" s="27"/>
@@ -2424,7 +2424,7 @@
     </row>
     <row r="62" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B62" s="4"/>
       <c r="J62" s="27"/>
@@ -2440,7 +2440,7 @@
     </row>
     <row r="64" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64"/>
@@ -2462,7 +2462,7 @@
     </row>
     <row r="66" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B66" s="4"/>
       <c r="J66" s="27"/>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="68" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B68" s="4"/>
       <c r="J68" s="27"/>
@@ -2501,12 +2501,12 @@
     </row>
     <row r="71" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A71" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B71" s="14"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E71" s="25"/>
       <c r="J71" s="27"/>
@@ -2517,7 +2517,7 @@
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="D72" s="36" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J72" s="27"/>
       <c r="K72" s="27"/>
@@ -2538,7 +2538,7 @@
     </row>
     <row r="74" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A74" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B74" s="14"/>
       <c r="J74" s="27"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -475,16 +475,16 @@
   <dimension ref="A1:V127"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L7" activeCellId="0" sqref="L7"/>
+      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="9.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="9.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="2.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="21.89"/>
@@ -632,11 +632,15 @@
       <c r="E7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="18"/>
+      <c r="F7" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="G7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="18"/>
+      <c r="H7" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="J7" s="19" t="s">
         <v>23</v>
       </c>
@@ -1745,7 +1749,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1768,7 +1772,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -475,10 +475,10 @@
   <dimension ref="A1:V127"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
+      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
@@ -666,11 +666,15 @@
       <c r="E8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="18"/>
+      <c r="F8" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="G8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="18"/>
+      <c r="H8" s="18" t="n">
+        <v>2</v>
+      </c>
       <c r="J8" s="19"/>
       <c r="K8" s="19"/>
       <c r="Q8" s="19"/>
@@ -1749,7 +1753,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1772,7 +1776,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="58">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -78,7 +78,7 @@
     <t xml:space="preserve">Ecuador</t>
   </si>
   <si>
-    <t xml:space="preserve">Lionel Messi</t>
+    <t xml:space="preserve">Enner Valencia</t>
   </si>
   <si>
     <t xml:space="preserve">B</t>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t xml:space="preserve">Iran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neymar</t>
   </si>
   <si>
     <t xml:space="preserve">Senegal</t>
@@ -475,10 +472,10 @@
   <dimension ref="A1:V127"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
@@ -602,21 +599,21 @@
         <v>16</v>
       </c>
       <c r="H6" s="18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J6" s="19" t="s">
         <v>18</v>
       </c>
       <c r="K6" s="19"/>
       <c r="L6" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
       <c r="Q6" s="19"/>
       <c r="R6" s="19"/>
     </row>
-    <row r="7" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="16" t="s">
         <v>19</v>
       </c>
@@ -632,25 +629,16 @@
       <c r="E7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="18" t="n">
-        <v>1</v>
-      </c>
+      <c r="F7" s="18"/>
       <c r="G7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>23</v>
-      </c>
+      <c r="H7" s="18"/>
+      <c r="J7" s="19"/>
       <c r="K7" s="19"/>
-      <c r="L7" s="15" t="n">
-        <v>2</v>
-      </c>
       <c r="Q7" s="19"/>
     </row>
-    <row r="8" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="16" t="s">
         <v>14</v>
       </c>
@@ -658,23 +646,19 @@
         <v>44886</v>
       </c>
       <c r="C8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="18" t="n">
-        <v>0</v>
-      </c>
+      <c r="F8" s="18"/>
       <c r="G8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="18" t="n">
-        <v>2</v>
-      </c>
+      <c r="H8" s="18"/>
       <c r="J8" s="19"/>
       <c r="K8" s="19"/>
       <c r="Q8" s="19"/>
@@ -687,13 +671,13 @@
         <v>20</v>
       </c>
       <c r="C9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>27</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="17" t="s">
@@ -706,19 +690,19 @@
     </row>
     <row r="10" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="D10" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>30</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>31</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="17" t="s">
@@ -730,19 +714,19 @@
     </row>
     <row r="11" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="15" t="s">
+      <c r="D11" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>33</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>34</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="17" t="s">
@@ -752,19 +736,19 @@
     </row>
     <row r="12" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="16" t="n">
         <v>44887</v>
       </c>
       <c r="C12" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>35</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>36</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="17" t="s">
@@ -774,19 +758,19 @@
     </row>
     <row r="13" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>37</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>38</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="17" t="s">
@@ -796,19 +780,19 @@
     </row>
     <row r="14" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="16" t="n">
         <v>44888</v>
       </c>
       <c r="C14" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>40</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>41</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="17" t="s">
@@ -818,19 +802,19 @@
     </row>
     <row r="15" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="16" t="n">
         <v>44888</v>
       </c>
       <c r="C15" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>43</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>44</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="17" t="s">
@@ -840,19 +824,19 @@
     </row>
     <row r="16" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="16" t="n">
         <v>44888</v>
       </c>
       <c r="C16" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>45</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>46</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="17" t="s">
@@ -862,19 +846,19 @@
     </row>
     <row r="17" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="16" t="n">
         <v>44888</v>
       </c>
       <c r="C17" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>47</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>48</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="17" t="s">
@@ -884,19 +868,19 @@
     </row>
     <row r="18" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" s="16" t="n">
         <v>44889</v>
       </c>
       <c r="C18" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>51</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="17" t="s">
@@ -906,19 +890,19 @@
     </row>
     <row r="19" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="16" t="n">
         <v>44889</v>
       </c>
       <c r="C19" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>53</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>54</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="17" t="s">
@@ -928,19 +912,19 @@
     </row>
     <row r="20" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" s="16" t="n">
         <v>44889</v>
       </c>
       <c r="C20" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>55</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>56</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="17" t="s">
@@ -950,19 +934,19 @@
     </row>
     <row r="21" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21" s="16" t="n">
         <v>44889</v>
       </c>
       <c r="C21" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>58</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="17" t="s">
@@ -978,7 +962,7 @@
         <v>44891</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>16</v>
@@ -1006,7 +990,7 @@
         <v>16</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="17" t="s">
@@ -1022,7 +1006,7 @@
         <v>44890</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>16</v>
@@ -1050,7 +1034,7 @@
         <v>16</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="17" t="s">
@@ -1060,19 +1044,19 @@
     </row>
     <row r="26" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" s="16" t="n">
         <v>44891</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="17" t="s">
@@ -1082,19 +1066,19 @@
     </row>
     <row r="27" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="16" t="n">
         <v>44891</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="17" t="s">
@@ -1104,19 +1088,19 @@
     </row>
     <row r="28" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="16" t="n">
         <v>44891</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="17" t="s">
@@ -1126,19 +1110,19 @@
     </row>
     <row r="29" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="16" t="n">
         <v>44891</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="17" t="s">
@@ -1148,19 +1132,19 @@
     </row>
     <row r="30" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="16" t="n">
         <v>44892</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="17" t="s">
@@ -1170,19 +1154,19 @@
     </row>
     <row r="31" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" s="16" t="n">
         <v>44892</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" s="18"/>
       <c r="G31" s="17" t="s">
@@ -1192,19 +1176,19 @@
     </row>
     <row r="32" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" s="16" t="n">
         <v>44892</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F32" s="18"/>
       <c r="G32" s="17" t="s">
@@ -1214,19 +1198,19 @@
     </row>
     <row r="33" s="15" customFormat="true" ht="19.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" s="16" t="n">
         <v>44892</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F33" s="18"/>
       <c r="G33" s="17" t="s">
@@ -1236,19 +1220,19 @@
     </row>
     <row r="34" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34" s="16" t="n">
         <v>44893</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="17" t="s">
@@ -1258,19 +1242,19 @@
     </row>
     <row r="35" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" s="16" t="n">
         <v>44893</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="17" t="s">
@@ -1280,19 +1264,19 @@
     </row>
     <row r="36" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" s="16" t="n">
         <v>44893</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="17" t="s">
@@ -1302,19 +1286,19 @@
     </row>
     <row r="37" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B37" s="16" t="n">
         <v>44893</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F37" s="18"/>
       <c r="G37" s="17" t="s">
@@ -1336,7 +1320,7 @@
         <v>16</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F38" s="18"/>
       <c r="G38" s="17" t="s">
@@ -1352,7 +1336,7 @@
         <v>44894</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>16</v>
@@ -1380,7 +1364,7 @@
         <v>16</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F40" s="18"/>
       <c r="G40" s="17" t="s">
@@ -1396,7 +1380,7 @@
         <v>44894</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D41" s="17" t="s">
         <v>16</v>
@@ -1412,19 +1396,19 @@
     </row>
     <row r="42" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B42" s="16" t="n">
         <v>44895</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D42" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F42" s="18"/>
       <c r="G42" s="17" t="s">
@@ -1434,19 +1418,19 @@
     </row>
     <row r="43" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B43" s="16" t="n">
         <v>44895</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D43" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F43" s="18"/>
       <c r="G43" s="17" t="s">
@@ -1456,19 +1440,19 @@
     </row>
     <row r="44" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B44" s="16" t="n">
         <v>44895</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D44" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F44" s="18"/>
       <c r="G44" s="17" t="s">
@@ -1478,19 +1462,19 @@
     </row>
     <row r="45" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B45" s="16" t="n">
         <v>44895</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D45" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F45" s="18"/>
       <c r="G45" s="17" t="s">
@@ -1500,19 +1484,19 @@
     </row>
     <row r="46" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B46" s="16" t="n">
         <v>44896</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D46" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F46" s="18"/>
       <c r="G46" s="17" t="s">
@@ -1522,19 +1506,19 @@
     </row>
     <row r="47" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B47" s="16" t="n">
         <v>44896</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D47" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F47" s="18"/>
       <c r="G47" s="17" t="s">
@@ -1544,19 +1528,19 @@
     </row>
     <row r="48" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B48" s="16" t="n">
         <v>44896</v>
       </c>
       <c r="C48" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="15" t="s">
         <v>44</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>45</v>
       </c>
       <c r="F48" s="18"/>
       <c r="G48" s="17" t="s">
@@ -1566,19 +1550,19 @@
     </row>
     <row r="49" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B49" s="16" t="n">
         <v>44896</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D49" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F49" s="18"/>
       <c r="G49" s="17" t="s">
@@ -1588,19 +1572,19 @@
     </row>
     <row r="50" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B50" s="16" t="n">
         <v>44897</v>
       </c>
       <c r="C50" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="15" t="s">
         <v>54</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>55</v>
       </c>
       <c r="F50" s="18"/>
       <c r="G50" s="17" t="s">
@@ -1610,19 +1594,19 @@
     </row>
     <row r="51" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51" s="16" t="n">
         <v>44897</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D51" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F51" s="18"/>
       <c r="G51" s="17" t="s">
@@ -1632,19 +1616,19 @@
     </row>
     <row r="52" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52" s="16" t="n">
         <v>44897</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D52" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F52" s="18"/>
       <c r="G52" s="17" t="s">
@@ -1654,19 +1638,19 @@
     </row>
     <row r="53" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B53" s="16" t="n">
         <v>44897</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D53" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F53" s="18"/>
       <c r="G53" s="17" t="s">
@@ -1753,7 +1737,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1776,7 +1760,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="65">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -93,18 +93,27 @@
     <t xml:space="preserve">Iran</t>
   </si>
   <si>
+    <t xml:space="preserve">Jude Bellingham</t>
+  </si>
+  <si>
     <t xml:space="preserve">Senegal</t>
   </si>
   <si>
     <t xml:space="preserve">Hollanti</t>
   </si>
   <si>
+    <t xml:space="preserve">Bukayo Saka</t>
+  </si>
+  <si>
     <t xml:space="preserve">USA</t>
   </si>
   <si>
     <t xml:space="preserve">Wales</t>
   </si>
   <si>
+    <t xml:space="preserve">Raheem Sterling</t>
+  </si>
+  <si>
     <t xml:space="preserve">C</t>
   </si>
   <si>
@@ -117,6 +126,9 @@
     <t xml:space="preserve">Saudi-Arabia</t>
   </si>
   <si>
+    <t xml:space="preserve">Marcus Rashford</t>
+  </si>
+  <si>
     <t xml:space="preserve">D</t>
   </si>
   <si>
@@ -126,16 +138,25 @@
     <t xml:space="preserve">Tunisia</t>
   </si>
   <si>
+    <t xml:space="preserve">Harry Kane</t>
+  </si>
+  <si>
     <t xml:space="preserve">Meksiko</t>
   </si>
   <si>
     <t xml:space="preserve">Puola</t>
   </si>
   <si>
+    <t xml:space="preserve">Jack Grealish</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ranska</t>
   </si>
   <si>
     <t xml:space="preserve">Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mehdi Taremi</t>
   </si>
   <si>
     <t xml:space="preserve">F</t>
@@ -350,7 +371,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -429,6 +450,10 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -472,10 +497,10 @@
   <dimension ref="A1:V127"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
@@ -629,13 +654,22 @@
       <c r="E7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="18"/>
+      <c r="F7" s="18" t="n">
+        <v>6</v>
+      </c>
       <c r="G7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="J7" s="19"/>
+      <c r="H7" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>23</v>
+      </c>
       <c r="K7" s="19"/>
+      <c r="L7" s="15" t="n">
+        <v>1</v>
+      </c>
       <c r="Q7" s="19"/>
     </row>
     <row r="8" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -646,24 +680,29 @@
         <v>44886</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="17" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="18"/>
-      <c r="J8" s="19"/>
+      <c r="J8" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="K8" s="19"/>
+      <c r="L8" s="15" t="n">
+        <v>2</v>
+      </c>
       <c r="Q8" s="19"/>
     </row>
-    <row r="9" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="16" t="s">
         <v>19</v>
       </c>
@@ -671,128 +710,156 @@
         <v>20</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="17" t="s">
         <v>16</v>
       </c>
       <c r="H9" s="18"/>
-      <c r="J9" s="19"/>
+      <c r="J9" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="K9" s="19"/>
+      <c r="L9" s="15" t="n">
+        <v>1</v>
+      </c>
       <c r="Q9" s="19"/>
     </row>
-    <row r="10" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="17" t="s">
         <v>16</v>
       </c>
       <c r="H10" s="18"/>
-      <c r="J10" s="19"/>
+      <c r="J10" s="20" t="s">
+        <v>34</v>
+      </c>
       <c r="K10" s="19"/>
+      <c r="L10" s="15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>28</v>
-      </c>
       <c r="C11" s="15" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="17" t="s">
         <v>16</v>
       </c>
       <c r="H11" s="18"/>
-    </row>
-    <row r="12" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="16" t="n">
         <v>44887</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="17" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="18"/>
-    </row>
-    <row r="13" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J12" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>28</v>
-      </c>
       <c r="C13" s="15" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="17" t="s">
         <v>16</v>
       </c>
       <c r="H13" s="18"/>
+      <c r="J13" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="16" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B14" s="16" t="n">
         <v>44888</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="17" t="s">
@@ -802,19 +869,19 @@
     </row>
     <row r="15" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="16" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B15" s="16" t="n">
         <v>44888</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="17" t="s">
@@ -824,19 +891,19 @@
     </row>
     <row r="16" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="16" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B16" s="16" t="n">
         <v>44888</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="17" t="s">
@@ -846,19 +913,19 @@
     </row>
     <row r="17" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="16" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B17" s="16" t="n">
         <v>44888</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="17" t="s">
@@ -868,19 +935,19 @@
     </row>
     <row r="18" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="16" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B18" s="16" t="n">
         <v>44889</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="17" t="s">
@@ -890,19 +957,19 @@
     </row>
     <row r="19" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="16" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B19" s="16" t="n">
         <v>44889</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="17" t="s">
@@ -912,19 +979,19 @@
     </row>
     <row r="20" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="16" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B20" s="16" t="n">
         <v>44889</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="17" t="s">
@@ -934,19 +1001,19 @@
     </row>
     <row r="21" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="16" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B21" s="16" t="n">
         <v>44889</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="17" t="s">
@@ -962,7 +1029,7 @@
         <v>44891</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>16</v>
@@ -990,7 +1057,7 @@
         <v>16</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="17" t="s">
@@ -1006,7 +1073,7 @@
         <v>44890</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>16</v>
@@ -1034,7 +1101,7 @@
         <v>16</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="17" t="s">
@@ -1044,19 +1111,19 @@
     </row>
     <row r="26" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B26" s="16" t="n">
         <v>44891</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="17" t="s">
@@ -1066,19 +1133,19 @@
     </row>
     <row r="27" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B27" s="16" t="n">
         <v>44891</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="17" t="s">
@@ -1088,19 +1155,19 @@
     </row>
     <row r="28" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B28" s="16" t="n">
         <v>44891</v>
       </c>
       <c r="C28" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="15" t="s">
         <v>36</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>32</v>
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="17" t="s">
@@ -1110,19 +1177,19 @@
     </row>
     <row r="29" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B29" s="16" t="n">
         <v>44891</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="17" t="s">
@@ -1132,19 +1199,19 @@
     </row>
     <row r="30" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="16" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B30" s="16" t="n">
         <v>44892</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="17" t="s">
@@ -1154,19 +1221,19 @@
     </row>
     <row r="31" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="16" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B31" s="16" t="n">
         <v>44892</v>
       </c>
       <c r="C31" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="15" t="s">
         <v>46</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>39</v>
       </c>
       <c r="F31" s="18"/>
       <c r="G31" s="17" t="s">
@@ -1176,19 +1243,19 @@
     </row>
     <row r="32" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="16" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B32" s="16" t="n">
         <v>44892</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F32" s="18"/>
       <c r="G32" s="17" t="s">
@@ -1198,19 +1265,19 @@
     </row>
     <row r="33" s="15" customFormat="true" ht="19.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="16" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B33" s="16" t="n">
         <v>44892</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F33" s="18"/>
       <c r="G33" s="17" t="s">
@@ -1220,19 +1287,19 @@
     </row>
     <row r="34" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="16" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B34" s="16" t="n">
         <v>44893</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="17" t="s">
@@ -1242,19 +1309,19 @@
     </row>
     <row r="35" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="16" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B35" s="16" t="n">
         <v>44893</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="17" t="s">
@@ -1264,19 +1331,19 @@
     </row>
     <row r="36" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="16" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B36" s="16" t="n">
         <v>44893</v>
       </c>
       <c r="C36" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="15" t="s">
         <v>56</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>49</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="17" t="s">
@@ -1286,19 +1353,19 @@
     </row>
     <row r="37" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="16" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B37" s="16" t="n">
         <v>44893</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F37" s="18"/>
       <c r="G37" s="17" t="s">
@@ -1320,7 +1387,7 @@
         <v>16</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F38" s="18"/>
       <c r="G38" s="17" t="s">
@@ -1336,7 +1403,7 @@
         <v>44894</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>16</v>
@@ -1364,7 +1431,7 @@
         <v>16</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F40" s="18"/>
       <c r="G40" s="17" t="s">
@@ -1380,7 +1447,7 @@
         <v>44894</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D41" s="17" t="s">
         <v>16</v>
@@ -1396,19 +1463,19 @@
     </row>
     <row r="42" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B42" s="16" t="n">
         <v>44895</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D42" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F42" s="18"/>
       <c r="G42" s="17" t="s">
@@ -1418,19 +1485,19 @@
     </row>
     <row r="43" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B43" s="16" t="n">
         <v>44895</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D43" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F43" s="18"/>
       <c r="G43" s="17" t="s">
@@ -1440,19 +1507,19 @@
     </row>
     <row r="44" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B44" s="16" t="n">
         <v>44895</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D44" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F44" s="18"/>
       <c r="G44" s="17" t="s">
@@ -1462,19 +1529,19 @@
     </row>
     <row r="45" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B45" s="16" t="n">
         <v>44895</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D45" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F45" s="18"/>
       <c r="G45" s="17" t="s">
@@ -1484,19 +1551,19 @@
     </row>
     <row r="46" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="16" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B46" s="16" t="n">
         <v>44896</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D46" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F46" s="18"/>
       <c r="G46" s="17" t="s">
@@ -1506,19 +1573,19 @@
     </row>
     <row r="47" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="16" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B47" s="16" t="n">
         <v>44896</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D47" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F47" s="18"/>
       <c r="G47" s="17" t="s">
@@ -1528,19 +1595,19 @@
     </row>
     <row r="48" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="16" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B48" s="16" t="n">
         <v>44896</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D48" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F48" s="18"/>
       <c r="G48" s="17" t="s">
@@ -1550,19 +1617,19 @@
     </row>
     <row r="49" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="16" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B49" s="16" t="n">
         <v>44896</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D49" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F49" s="18"/>
       <c r="G49" s="17" t="s">
@@ -1572,19 +1639,19 @@
     </row>
     <row r="50" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="16" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B50" s="16" t="n">
         <v>44897</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D50" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F50" s="18"/>
       <c r="G50" s="17" t="s">
@@ -1594,19 +1661,19 @@
     </row>
     <row r="51" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="16" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B51" s="16" t="n">
         <v>44897</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D51" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F51" s="18"/>
       <c r="G51" s="17" t="s">
@@ -1616,19 +1683,19 @@
     </row>
     <row r="52" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="16" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B52" s="16" t="n">
         <v>44897</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D52" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F52" s="18"/>
       <c r="G52" s="17" t="s">
@@ -1638,19 +1705,19 @@
     </row>
     <row r="53" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="16" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B53" s="16" t="n">
         <v>44897</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D53" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F53" s="18"/>
       <c r="G53" s="17" t="s">
@@ -1664,53 +1731,53 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="20"/>
-      <c r="B80" s="20"/>
+      <c r="A80" s="21"/>
+      <c r="B80" s="21"/>
     </row>
     <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="20"/>
-      <c r="B81" s="20"/>
+      <c r="A81" s="21"/>
+      <c r="B81" s="21"/>
     </row>
     <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J89" s="21"/>
-      <c r="K89" s="21"/>
-      <c r="L89" s="21"/>
+      <c r="J89" s="22"/>
+      <c r="K89" s="22"/>
+      <c r="L89" s="22"/>
     </row>
     <row r="98" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I98" s="22"/>
-      <c r="J98" s="23"/>
-      <c r="K98" s="23"/>
-      <c r="L98" s="23"/>
-    </row>
-    <row r="100" s="22" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I98" s="23"/>
+      <c r="J98" s="24"/>
+      <c r="K98" s="24"/>
+      <c r="L98" s="24"/>
+    </row>
+    <row r="100" s="23" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="D100" s="2"/>
       <c r="G100" s="2"/>
-      <c r="J100" s="23"/>
-      <c r="K100" s="23"/>
-      <c r="L100" s="23"/>
-    </row>
-    <row r="102" s="22" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J100" s="24"/>
+      <c r="K100" s="24"/>
+      <c r="L100" s="24"/>
+    </row>
+    <row r="102" s="23" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="D102" s="2"/>
       <c r="G102" s="2"/>
     </row>
     <row r="103" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J103" s="24"/>
-      <c r="K103" s="24"/>
-      <c r="L103" s="24"/>
+      <c r="J103" s="25"/>
+      <c r="K103" s="25"/>
+      <c r="L103" s="25"/>
     </row>
     <row r="125" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J125" s="22"/>
-      <c r="K125" s="22"/>
-      <c r="L125" s="22"/>
+      <c r="J125" s="23"/>
+      <c r="K125" s="23"/>
+      <c r="L125" s="23"/>
     </row>
     <row r="127" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J127" s="22"/>
-      <c r="K127" s="22"/>
-      <c r="L127" s="22"/>
+      <c r="J127" s="23"/>
+      <c r="K127" s="23"/>
+      <c r="L127" s="23"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1737,7 +1804,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1760,7 +1827,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -497,10 +497,10 @@
   <dimension ref="A1:V127"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
@@ -661,7 +661,7 @@
         <v>16</v>
       </c>
       <c r="H7" s="18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="19" t="s">
         <v>23</v>
@@ -842,7 +842,7 @@
         <v>44</v>
       </c>
       <c r="L13" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1804,7 +1804,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1827,7 +1827,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="66">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t xml:space="preserve">Kroatia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cody Gakpo</t>
   </si>
   <si>
     <t xml:space="preserve">E</t>
@@ -497,10 +500,10 @@
   <dimension ref="A1:V127"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
@@ -688,11 +691,15 @@
       <c r="E8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="18"/>
+      <c r="F8" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="G8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="18"/>
+      <c r="H8" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="J8" s="20" t="s">
         <v>26</v>
       </c>
@@ -845,7 +852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="16" t="s">
         <v>45</v>
       </c>
@@ -866,22 +873,28 @@
         <v>16</v>
       </c>
       <c r="H14" s="18"/>
+      <c r="J14" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" s="15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15" s="16" t="n">
         <v>44888</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="17" t="s">
@@ -891,19 +904,19 @@
     </row>
     <row r="16" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" s="16" t="n">
         <v>44888</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="17" t="s">
@@ -919,13 +932,13 @@
         <v>44888</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="17" t="s">
@@ -935,19 +948,19 @@
     </row>
     <row r="18" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B18" s="16" t="n">
         <v>44889</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="17" t="s">
@@ -957,19 +970,19 @@
     </row>
     <row r="19" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B19" s="16" t="n">
         <v>44889</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="17" t="s">
@@ -979,19 +992,19 @@
     </row>
     <row r="20" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B20" s="16" t="n">
         <v>44889</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="17" t="s">
@@ -1001,19 +1014,19 @@
     </row>
     <row r="21" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21" s="16" t="n">
         <v>44889</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="17" t="s">
@@ -1199,19 +1212,19 @@
     </row>
     <row r="30" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B30" s="16" t="n">
         <v>44892</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="17" t="s">
@@ -1227,7 +1240,7 @@
         <v>44892</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>16</v>
@@ -1255,7 +1268,7 @@
         <v>16</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F32" s="18"/>
       <c r="G32" s="17" t="s">
@@ -1265,19 +1278,19 @@
     </row>
     <row r="33" s="15" customFormat="true" ht="19.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B33" s="16" t="n">
         <v>44892</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F33" s="18"/>
       <c r="G33" s="17" t="s">
@@ -1287,19 +1300,19 @@
     </row>
     <row r="34" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B34" s="16" t="n">
         <v>44893</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="17" t="s">
@@ -1309,19 +1322,19 @@
     </row>
     <row r="35" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B35" s="16" t="n">
         <v>44893</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="17" t="s">
@@ -1331,19 +1344,19 @@
     </row>
     <row r="36" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B36" s="16" t="n">
         <v>44893</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="17" t="s">
@@ -1353,19 +1366,19 @@
     </row>
     <row r="37" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B37" s="16" t="n">
         <v>44893</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F37" s="18"/>
       <c r="G37" s="17" t="s">
@@ -1563,7 +1576,7 @@
         <v>16</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F46" s="18"/>
       <c r="G46" s="17" t="s">
@@ -1579,7 +1592,7 @@
         <v>44896</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D47" s="17" t="s">
         <v>16</v>
@@ -1595,19 +1608,19 @@
     </row>
     <row r="48" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48" s="16" t="n">
         <v>44896</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D48" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F48" s="18"/>
       <c r="G48" s="17" t="s">
@@ -1617,19 +1630,19 @@
     </row>
     <row r="49" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" s="16" t="n">
         <v>44896</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D49" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F49" s="18"/>
       <c r="G49" s="17" t="s">
@@ -1639,19 +1652,19 @@
     </row>
     <row r="50" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B50" s="16" t="n">
         <v>44897</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D50" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F50" s="18"/>
       <c r="G50" s="17" t="s">
@@ -1661,19 +1674,19 @@
     </row>
     <row r="51" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B51" s="16" t="n">
         <v>44897</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D51" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F51" s="18"/>
       <c r="G51" s="17" t="s">
@@ -1683,19 +1696,19 @@
     </row>
     <row r="52" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B52" s="16" t="n">
         <v>44897</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D52" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F52" s="18"/>
       <c r="G52" s="17" t="s">
@@ -1705,19 +1718,19 @@
     </row>
     <row r="53" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" s="16" t="n">
         <v>44897</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D53" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F53" s="18"/>
       <c r="G53" s="17" t="s">
@@ -1804,7 +1817,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1827,7 +1840,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="67">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Davy Klaassen</t>
   </si>
   <si>
     <t xml:space="preserve">Espanja</t>
@@ -500,10 +503,10 @@
   <dimension ref="A1:V127"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+      <selection pane="topLeft" activeCell="L16" activeCellId="0" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
@@ -698,7 +701,7 @@
         <v>16</v>
       </c>
       <c r="H8" s="18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" s="20" t="s">
         <v>26</v>
@@ -880,7 +883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="16" t="s">
         <v>49</v>
       </c>
@@ -901,6 +904,12 @@
         <v>16</v>
       </c>
       <c r="H15" s="18"/>
+      <c r="J15" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="L15" s="15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="16" t="s">
@@ -910,13 +919,13 @@
         <v>44888</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="17" t="s">
@@ -932,13 +941,13 @@
         <v>44888</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="17" t="s">
@@ -948,19 +957,19 @@
     </row>
     <row r="18" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B18" s="16" t="n">
         <v>44889</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="17" t="s">
@@ -970,19 +979,19 @@
     </row>
     <row r="19" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B19" s="16" t="n">
         <v>44889</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="17" t="s">
@@ -992,19 +1001,19 @@
     </row>
     <row r="20" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B20" s="16" t="n">
         <v>44889</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="17" t="s">
@@ -1014,19 +1023,19 @@
     </row>
     <row r="21" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21" s="16" t="n">
         <v>44889</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="17" t="s">
@@ -1224,7 +1233,7 @@
         <v>16</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="17" t="s">
@@ -1240,7 +1249,7 @@
         <v>44892</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>16</v>
@@ -1268,7 +1277,7 @@
         <v>16</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F32" s="18"/>
       <c r="G32" s="17" t="s">
@@ -1284,7 +1293,7 @@
         <v>44892</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>16</v>
@@ -1300,19 +1309,19 @@
     </row>
     <row r="34" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B34" s="16" t="n">
         <v>44893</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="17" t="s">
@@ -1322,19 +1331,19 @@
     </row>
     <row r="35" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B35" s="16" t="n">
         <v>44893</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="17" t="s">
@@ -1344,19 +1353,19 @@
     </row>
     <row r="36" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B36" s="16" t="n">
         <v>44893</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="17" t="s">
@@ -1366,19 +1375,19 @@
     </row>
     <row r="37" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B37" s="16" t="n">
         <v>44893</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F37" s="18"/>
       <c r="G37" s="17" t="s">
@@ -1576,7 +1585,7 @@
         <v>16</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F46" s="18"/>
       <c r="G46" s="17" t="s">
@@ -1592,7 +1601,7 @@
         <v>44896</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D47" s="17" t="s">
         <v>16</v>
@@ -1620,7 +1629,7 @@
         <v>16</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F48" s="18"/>
       <c r="G48" s="17" t="s">
@@ -1636,7 +1645,7 @@
         <v>44896</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D49" s="17" t="s">
         <v>16</v>
@@ -1652,19 +1661,19 @@
     </row>
     <row r="50" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B50" s="16" t="n">
         <v>44897</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D50" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F50" s="18"/>
       <c r="G50" s="17" t="s">
@@ -1674,19 +1683,19 @@
     </row>
     <row r="51" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B51" s="16" t="n">
         <v>44897</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D51" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F51" s="18"/>
       <c r="G51" s="17" t="s">
@@ -1696,19 +1705,19 @@
     </row>
     <row r="52" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52" s="16" t="n">
         <v>44897</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D52" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F52" s="18"/>
       <c r="G52" s="17" t="s">
@@ -1718,19 +1727,19 @@
     </row>
     <row r="53" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B53" s="16" t="n">
         <v>44897</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D53" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F53" s="18"/>
       <c r="G53" s="17" t="s">
@@ -1817,7 +1826,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1840,7 +1849,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="69">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -189,10 +189,16 @@
     <t xml:space="preserve">Costa Rica</t>
   </si>
   <si>
+    <t xml:space="preserve">Gareth Bale</t>
+  </si>
+  <si>
     <t xml:space="preserve">Belgia</t>
   </si>
   <si>
     <t xml:space="preserve">Kanada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timothy Weah</t>
   </si>
   <si>
     <t xml:space="preserve">G</t>
@@ -503,10 +509,10 @@
   <dimension ref="A1:V127"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L16" activeCellId="0" sqref="L16"/>
+      <selection pane="topLeft" activeCell="L17" activeCellId="0" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
@@ -728,11 +734,15 @@
       <c r="E9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="18"/>
+      <c r="F9" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="G9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="18"/>
+      <c r="H9" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="J9" s="20" t="s">
         <v>29</v>
       </c>
@@ -911,7 +921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="16" t="s">
         <v>49</v>
       </c>
@@ -932,8 +942,14 @@
         <v>16</v>
       </c>
       <c r="H16" s="18"/>
-    </row>
-    <row r="17" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J16" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="16" t="s">
         <v>45</v>
       </c>
@@ -941,35 +957,41 @@
         <v>44888</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="17" t="s">
         <v>16</v>
       </c>
       <c r="H17" s="18"/>
+      <c r="J17" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="L17" s="15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B18" s="16" t="n">
         <v>44889</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="17" t="s">
@@ -979,19 +1001,19 @@
     </row>
     <row r="19" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B19" s="16" t="n">
         <v>44889</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="17" t="s">
@@ -1001,19 +1023,19 @@
     </row>
     <row r="20" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B20" s="16" t="n">
         <v>44889</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="17" t="s">
@@ -1023,19 +1045,19 @@
     </row>
     <row r="21" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B21" s="16" t="n">
         <v>44889</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="17" t="s">
@@ -1249,7 +1271,7 @@
         <v>44892</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>16</v>
@@ -1277,7 +1299,7 @@
         <v>16</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F32" s="18"/>
       <c r="G32" s="17" t="s">
@@ -1309,19 +1331,19 @@
     </row>
     <row r="34" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B34" s="16" t="n">
         <v>44893</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="17" t="s">
@@ -1331,19 +1353,19 @@
     </row>
     <row r="35" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B35" s="16" t="n">
         <v>44893</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="17" t="s">
@@ -1353,19 +1375,19 @@
     </row>
     <row r="36" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B36" s="16" t="n">
         <v>44893</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="17" t="s">
@@ -1375,19 +1397,19 @@
     </row>
     <row r="37" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B37" s="16" t="n">
         <v>44893</v>
       </c>
       <c r="C37" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="15" t="s">
         <v>63</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>61</v>
       </c>
       <c r="F37" s="18"/>
       <c r="G37" s="17" t="s">
@@ -1585,7 +1607,7 @@
         <v>16</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F46" s="18"/>
       <c r="G46" s="17" t="s">
@@ -1601,7 +1623,7 @@
         <v>44896</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D47" s="17" t="s">
         <v>16</v>
@@ -1661,19 +1683,19 @@
     </row>
     <row r="50" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B50" s="16" t="n">
         <v>44897</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D50" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F50" s="18"/>
       <c r="G50" s="17" t="s">
@@ -1683,19 +1705,19 @@
     </row>
     <row r="51" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B51" s="16" t="n">
         <v>44897</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D51" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F51" s="18"/>
       <c r="G51" s="17" t="s">
@@ -1705,19 +1727,19 @@
     </row>
     <row r="52" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B52" s="16" t="n">
         <v>44897</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D52" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F52" s="18"/>
       <c r="G52" s="17" t="s">
@@ -1727,19 +1749,19 @@
     </row>
     <row r="53" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B53" s="16" t="n">
         <v>44897</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D53" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F53" s="18"/>
       <c r="G53" s="17" t="s">
@@ -1826,7 +1848,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1849,7 +1871,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="72">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -210,6 +210,9 @@
     <t xml:space="preserve">Kamerun</t>
   </si>
   <si>
+    <t xml:space="preserve">Lionel Messi</t>
+  </si>
+  <si>
     <t xml:space="preserve">H</t>
   </si>
   <si>
@@ -219,10 +222,16 @@
     <t xml:space="preserve">Etelä-Korea</t>
   </si>
   <si>
+    <t xml:space="preserve">Saleh Al-Shehri</t>
+  </si>
+  <si>
     <t xml:space="preserve">Portugali</t>
   </si>
   <si>
     <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salem Al Dawsari</t>
   </si>
   <si>
     <t xml:space="preserve">Brasilia</t>
@@ -509,10 +518,10 @@
   <dimension ref="A1:V127"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L17" activeCellId="0" sqref="L17"/>
+      <selection pane="topLeft" activeCell="L20" activeCellId="0" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
@@ -768,11 +777,15 @@
       <c r="E10" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="18"/>
+      <c r="F10" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="G10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="18"/>
+      <c r="H10" s="18" t="n">
+        <v>2</v>
+      </c>
       <c r="J10" s="20" t="s">
         <v>34</v>
       </c>
@@ -797,11 +810,15 @@
       <c r="E11" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="18"/>
+      <c r="F11" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="G11" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="18"/>
+      <c r="H11" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="J11" s="15" t="s">
         <v>38</v>
       </c>
@@ -998,50 +1015,68 @@
         <v>16</v>
       </c>
       <c r="H18" s="18"/>
-    </row>
-    <row r="19" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J18" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="L18" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B19" s="16" t="n">
         <v>44889</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="17" t="s">
         <v>16</v>
       </c>
       <c r="H19" s="18"/>
-    </row>
-    <row r="20" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J19" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="L19" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B20" s="16" t="n">
         <v>44889</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="17" t="s">
         <v>16</v>
       </c>
       <c r="H20" s="18"/>
+      <c r="J20" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="L20" s="15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="16" t="s">
@@ -1051,13 +1086,13 @@
         <v>44889</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="17" t="s">
@@ -1343,7 +1378,7 @@
         <v>16</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="17" t="s">
@@ -1353,19 +1388,19 @@
     </row>
     <row r="35" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B35" s="16" t="n">
         <v>44893</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="17" t="s">
@@ -1381,7 +1416,7 @@
         <v>44893</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>16</v>
@@ -1397,19 +1432,19 @@
     </row>
     <row r="37" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B37" s="16" t="n">
         <v>44893</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F37" s="18"/>
       <c r="G37" s="17" t="s">
@@ -1683,19 +1718,19 @@
     </row>
     <row r="50" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B50" s="16" t="n">
         <v>44897</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D50" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F50" s="18"/>
       <c r="G50" s="17" t="s">
@@ -1705,19 +1740,19 @@
     </row>
     <row r="51" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B51" s="16" t="n">
         <v>44897</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D51" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F51" s="18"/>
       <c r="G51" s="17" t="s">
@@ -1733,7 +1768,7 @@
         <v>44897</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D52" s="17" t="s">
         <v>16</v>
@@ -1761,7 +1796,7 @@
         <v>16</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F53" s="18"/>
       <c r="G53" s="17" t="s">
@@ -1848,7 +1883,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1871,7 +1906,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -518,10 +518,10 @@
   <dimension ref="A1:V127"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L20" activeCellId="0" sqref="L20"/>
+      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
@@ -842,11 +842,15 @@
       <c r="E12" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="18"/>
+      <c r="F12" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="G12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="18"/>
+      <c r="H12" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="J12" s="20" t="s">
         <v>41</v>
       </c>
@@ -1883,7 +1887,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1906,7 +1910,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="76">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -238,6 +238,18 @@
   </si>
   <si>
     <t xml:space="preserve">Serbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Craig Goodwin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adrien Rabiot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olivier Giroud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kylian Mbappe</t>
   </si>
 </sst>
 </file>
@@ -518,10 +530,10 @@
   <dimension ref="A1:V127"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
@@ -874,11 +886,15 @@
       <c r="E13" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="18"/>
+      <c r="F13" s="18" t="n">
+        <v>4</v>
+      </c>
       <c r="G13" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="18"/>
+      <c r="H13" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="J13" s="20" t="s">
         <v>44</v>
       </c>
@@ -1082,7 +1098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="16" t="s">
         <v>59</v>
       </c>
@@ -1103,8 +1119,14 @@
         <v>16</v>
       </c>
       <c r="H21" s="18"/>
-    </row>
-    <row r="22" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J21" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="L21" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="16" t="s">
         <v>19</v>
       </c>
@@ -1125,8 +1147,14 @@
         <v>16</v>
       </c>
       <c r="H22" s="18"/>
-    </row>
-    <row r="23" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J22" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="L22" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="16" t="s">
         <v>14</v>
       </c>
@@ -1147,6 +1175,12 @@
         <v>16</v>
       </c>
       <c r="H23" s="18"/>
+      <c r="J23" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="L23" s="15" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="16" t="s">
@@ -1169,6 +1203,12 @@
         <v>16</v>
       </c>
       <c r="H24" s="18"/>
+      <c r="J24" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="L24" s="15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="16" t="s">
@@ -1887,7 +1927,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1910,7 +1950,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -530,10 +530,10 @@
   <dimension ref="A1:V127"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
@@ -918,11 +918,15 @@
       <c r="E14" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="18"/>
+      <c r="F14" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="G14" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="18"/>
+      <c r="H14" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="J14" s="20" t="s">
         <v>48</v>
       </c>
@@ -1927,7 +1931,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1950,7 +1954,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="79">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -250,6 +250,15 @@
   </si>
   <si>
     <t xml:space="preserve">Kylian Mbappe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Takuma Asano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ritsu Doan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ilkay Gundogan</t>
   </si>
 </sst>
 </file>
@@ -533,7 +542,7 @@
       <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
@@ -950,11 +959,15 @@
       <c r="E15" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="18"/>
+      <c r="F15" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="G15" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="18"/>
+      <c r="H15" s="18" t="n">
+        <v>2</v>
+      </c>
       <c r="J15" s="20" t="s">
         <v>52</v>
       </c>
@@ -1214,7 +1227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="16" t="s">
         <v>19</v>
       </c>
@@ -1235,8 +1248,14 @@
         <v>16</v>
       </c>
       <c r="H25" s="18"/>
-    </row>
-    <row r="26" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J25" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="L25" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="16" t="s">
         <v>35</v>
       </c>
@@ -1257,8 +1276,14 @@
         <v>16</v>
       </c>
       <c r="H26" s="18"/>
-    </row>
-    <row r="27" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J26" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="L26" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="16" t="s">
         <v>30</v>
       </c>
@@ -1279,6 +1304,12 @@
         <v>16</v>
       </c>
       <c r="H27" s="18"/>
+      <c r="J27" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="L27" s="15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="16" t="s">
@@ -1931,7 +1962,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1954,7 +1985,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="85">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -259,6 +259,24 @@
   </si>
   <si>
     <t xml:space="preserve">Ilkay Gundogan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dani Olmo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ferran Torres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marco Asensio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gavi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos Soler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alvaro Morata</t>
   </si>
 </sst>
 </file>
@@ -539,10 +557,10 @@
   <dimension ref="A1:V127"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+      <selection pane="topLeft" activeCell="L33" activeCellId="0" sqref="L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
@@ -991,11 +1009,15 @@
       <c r="E16" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="18"/>
+      <c r="F16" s="18" t="n">
+        <v>7</v>
+      </c>
       <c r="G16" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="18"/>
+      <c r="H16" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="J16" s="20" t="s">
         <v>55</v>
       </c>
@@ -1311,7 +1333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="16" t="s">
         <v>35</v>
       </c>
@@ -1332,6 +1354,12 @@
         <v>16</v>
       </c>
       <c r="H28" s="18"/>
+      <c r="J28" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="L28" s="15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="16" t="s">
@@ -1354,8 +1382,14 @@
         <v>16</v>
       </c>
       <c r="H29" s="18"/>
-    </row>
-    <row r="30" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J29" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L29" s="15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="16" t="s">
         <v>49</v>
       </c>
@@ -1376,6 +1410,12 @@
         <v>16</v>
       </c>
       <c r="H30" s="18"/>
+      <c r="J30" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="L30" s="15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="16" t="s">
@@ -1398,6 +1438,12 @@
         <v>16</v>
       </c>
       <c r="H31" s="18"/>
+      <c r="J31" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="L31" s="15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="16" t="s">
@@ -1420,6 +1466,12 @@
         <v>16</v>
       </c>
       <c r="H32" s="18"/>
+      <c r="J32" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="L32" s="15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" s="15" customFormat="true" ht="19.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="16" t="s">
@@ -1442,6 +1494,12 @@
         <v>16</v>
       </c>
       <c r="H33" s="18"/>
+      <c r="J33" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="L33" s="15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="16" t="s">
@@ -1962,7 +2020,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1985,7 +2043,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="87">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -277,6 +277,12 @@
   </si>
   <si>
     <t xml:space="preserve">Alvaro Morata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michy Batshuayi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breel Embolo</t>
   </si>
 </sst>
 </file>
@@ -557,10 +563,10 @@
   <dimension ref="A1:V127"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L33" activeCellId="0" sqref="L33"/>
+      <selection pane="topLeft" activeCell="O22" activeCellId="0" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
@@ -1041,11 +1047,15 @@
       <c r="E17" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="18"/>
+      <c r="F17" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="G17" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="18"/>
+      <c r="H17" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="J17" s="20" t="s">
         <v>58</v>
       </c>
@@ -1069,11 +1079,15 @@
       <c r="E18" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="18"/>
+      <c r="F18" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="G18" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="18"/>
+      <c r="H18" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="J18" s="15" t="s">
         <v>62</v>
       </c>
@@ -1501,7 +1515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="16" t="s">
         <v>59</v>
       </c>
@@ -1522,6 +1536,12 @@
         <v>16</v>
       </c>
       <c r="H34" s="18"/>
+      <c r="J34" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="L34" s="15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="16" t="s">
@@ -1544,6 +1564,12 @@
         <v>16</v>
       </c>
       <c r="H35" s="18"/>
+      <c r="J35" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="L35" s="15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="16" t="s">
@@ -2020,7 +2046,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2043,7 +2069,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -563,10 +563,10 @@
   <dimension ref="A1:V127"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O22" activeCellId="0" sqref="O22"/>
+      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
@@ -1111,11 +1111,15 @@
       <c r="E19" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="18"/>
+      <c r="F19" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="G19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="18"/>
+      <c r="H19" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="J19" s="20" t="s">
         <v>66</v>
       </c>
@@ -2046,7 +2050,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2069,7 +2073,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -283,6 +283,21 @@
   </si>
   <si>
     <t xml:space="preserve">Breel Embolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cristiano Ronaldo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joao Felix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rafael Leao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andre Ayew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Osman Bukari</t>
   </si>
 </sst>
 </file>
@@ -562,8 +577,8 @@
   </sheetPr>
   <dimension ref="A1:V127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J66" activeCellId="0" sqref="J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1143,11 +1158,15 @@
       <c r="E20" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="18"/>
+      <c r="F20" s="18" t="n">
+        <v>3</v>
+      </c>
       <c r="G20" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="18"/>
+      <c r="H20" s="18" t="n">
+        <v>2</v>
+      </c>
       <c r="J20" s="20" t="s">
         <v>69</v>
       </c>
@@ -1575,7 +1594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="16" t="s">
         <v>59</v>
       </c>
@@ -1596,8 +1615,14 @@
         <v>16</v>
       </c>
       <c r="H36" s="18"/>
-    </row>
-    <row r="37" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J36" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="L36" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="16" t="s">
         <v>63</v>
       </c>
@@ -1618,8 +1643,14 @@
         <v>16</v>
       </c>
       <c r="H37" s="18"/>
-    </row>
-    <row r="38" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J37" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="L37" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="16" t="s">
         <v>14</v>
       </c>
@@ -1640,8 +1671,14 @@
         <v>16</v>
       </c>
       <c r="H38" s="18"/>
-    </row>
-    <row r="39" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J38" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="L38" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="16" t="s">
         <v>14</v>
       </c>
@@ -1662,8 +1699,14 @@
         <v>16</v>
       </c>
       <c r="H39" s="18"/>
-    </row>
-    <row r="40" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J39" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="L39" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="16" t="s">
         <v>19</v>
       </c>
@@ -1684,6 +1727,12 @@
         <v>16</v>
       </c>
       <c r="H40" s="18"/>
+      <c r="J40" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="L40" s="15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="16" t="s">

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="93">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -298,6 +298,9 @@
   </si>
   <si>
     <t xml:space="preserve">Osman Bukari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richarlison</t>
   </si>
 </sst>
 </file>
@@ -577,11 +580,11 @@
   </sheetPr>
   <dimension ref="A1:V127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J66" activeCellId="0" sqref="J66"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D19" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L41" activeCellId="0" sqref="L41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
@@ -1190,11 +1193,15 @@
       <c r="E21" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="18"/>
+      <c r="F21" s="18" t="n">
+        <v>2</v>
+      </c>
       <c r="G21" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="18"/>
+      <c r="H21" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="J21" s="20" t="s">
         <v>72</v>
       </c>
@@ -1734,7 +1741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="16" t="s">
         <v>19</v>
       </c>
@@ -1755,6 +1762,12 @@
         <v>16</v>
       </c>
       <c r="H41" s="18"/>
+      <c r="J41" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="L41" s="15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="16" t="s">
@@ -2099,7 +2112,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2122,7 +2135,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="99">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -301,6 +301,24 @@
   </si>
   <si>
     <t xml:space="preserve">Richarlison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roozbeh Cheshmi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramin Rezaeian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bamba Dieng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Famara Diedhiou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boulaye Dia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohammed Muntar</t>
   </si>
 </sst>
 </file>
@@ -580,11 +598,11 @@
   </sheetPr>
   <dimension ref="A1:V127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D19" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L41" activeCellId="0" sqref="L41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L47" activeCellId="0" sqref="L47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
@@ -1225,11 +1243,15 @@
       <c r="E22" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="18"/>
+      <c r="F22" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="G22" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="18"/>
+      <c r="H22" s="18" t="n">
+        <v>2</v>
+      </c>
       <c r="J22" s="20" t="s">
         <v>73</v>
       </c>
@@ -1253,11 +1275,15 @@
       <c r="E23" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="18"/>
+      <c r="F23" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="G23" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="18"/>
+      <c r="H23" s="18" t="n">
+        <v>3</v>
+      </c>
       <c r="J23" s="20" t="s">
         <v>74</v>
       </c>
@@ -1769,7 +1795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="16" t="s">
         <v>35</v>
       </c>
@@ -1790,8 +1816,14 @@
         <v>16</v>
       </c>
       <c r="H42" s="18"/>
-    </row>
-    <row r="43" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J42" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="L42" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="16" t="s">
         <v>35</v>
       </c>
@@ -1812,8 +1844,14 @@
         <v>16</v>
       </c>
       <c r="H43" s="18"/>
-    </row>
-    <row r="44" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J43" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="L43" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="16" t="s">
         <v>30</v>
       </c>
@@ -1834,8 +1872,14 @@
         <v>16</v>
       </c>
       <c r="H44" s="18"/>
-    </row>
-    <row r="45" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J44" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="L44" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="16" t="s">
         <v>30</v>
       </c>
@@ -1856,8 +1900,14 @@
         <v>16</v>
       </c>
       <c r="H45" s="18"/>
-    </row>
-    <row r="46" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J45" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="L45" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="16" t="s">
         <v>45</v>
       </c>
@@ -1878,8 +1928,14 @@
         <v>16</v>
       </c>
       <c r="H46" s="18"/>
-    </row>
-    <row r="47" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J46" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="L46" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="16" t="s">
         <v>45</v>
       </c>
@@ -1900,6 +1956,12 @@
         <v>16</v>
       </c>
       <c r="H47" s="18"/>
+      <c r="J47" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="L47" s="15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="16" t="s">
@@ -2112,7 +2174,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2135,7 +2197,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -599,10 +599,10 @@
   <dimension ref="A1:V127"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L47" activeCellId="0" sqref="L47"/>
+      <selection pane="topLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
@@ -733,7 +733,7 @@
       </c>
       <c r="K6" s="19"/>
       <c r="L6" s="15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
@@ -1000,7 +1000,7 @@
         <v>48</v>
       </c>
       <c r="L14" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1307,11 +1307,15 @@
       <c r="E24" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="G24" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="18"/>
+      <c r="H24" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="J24" s="15" t="s">
         <v>75</v>
       </c>
@@ -2174,7 +2178,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2197,7 +2201,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -599,10 +599,10 @@
   <dimension ref="A1:V127"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
+      <selection pane="topLeft" activeCell="H25" activeCellId="0" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
@@ -1339,11 +1339,15 @@
       <c r="E25" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="G25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="18"/>
+      <c r="H25" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="J25" s="20" t="s">
         <v>76</v>
       </c>
@@ -2178,7 +2182,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2201,7 +2205,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="100">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -319,6 +319,9 @@
   </si>
   <si>
     <t xml:space="preserve">Mohammed Muntar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitchell Duke</t>
   </si>
 </sst>
 </file>
@@ -598,11 +601,11 @@
   </sheetPr>
   <dimension ref="A1:V127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H25" activeCellId="0" sqref="H25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L48" activeCellId="0" sqref="L48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
@@ -1371,11 +1374,15 @@
       <c r="E26" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="G26" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="18"/>
+      <c r="H26" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="J26" s="20" t="s">
         <v>77</v>
       </c>
@@ -1992,6 +1999,12 @@
         <v>16</v>
       </c>
       <c r="H48" s="18"/>
+      <c r="J48" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="L48" s="15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="16" t="s">
@@ -2182,7 +2195,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2205,7 +2218,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="103">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -322,6 +322,15 @@
   </si>
   <si>
     <t xml:space="preserve">Mitchell Duke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piotr Zielinski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert Lewandowski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andreas Christensen</t>
   </si>
 </sst>
 </file>
@@ -332,7 +341,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="d\.m\.;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -402,6 +411,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -476,7 +491,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -561,11 +576,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -577,7 +596,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -601,11 +620,11 @@
   </sheetPr>
   <dimension ref="A1:V127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L48" activeCellId="0" sqref="L48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L51" activeCellId="0" sqref="L51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
@@ -1323,7 +1342,7 @@
         <v>75</v>
       </c>
       <c r="L24" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1406,11 +1425,15 @@
       <c r="E27" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="18"/>
+      <c r="F27" s="18" t="n">
+        <v>2</v>
+      </c>
       <c r="G27" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="18"/>
+      <c r="H27" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="J27" s="20" t="s">
         <v>78</v>
       </c>
@@ -1434,11 +1457,15 @@
       <c r="E28" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="18"/>
+      <c r="F28" s="18" t="n">
+        <v>2</v>
+      </c>
       <c r="G28" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H28" s="18"/>
+      <c r="H28" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="J28" s="20" t="s">
         <v>79</v>
       </c>
@@ -2006,7 +2033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="16" t="s">
         <v>49</v>
       </c>
@@ -2027,8 +2054,14 @@
         <v>16</v>
       </c>
       <c r="H49" s="18"/>
-    </row>
-    <row r="50" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J49" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="L49" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="16" t="s">
         <v>63</v>
       </c>
@@ -2049,8 +2082,14 @@
         <v>16</v>
       </c>
       <c r="H50" s="18"/>
-    </row>
-    <row r="51" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J50" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="L50" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="16" t="s">
         <v>63</v>
       </c>
@@ -2071,6 +2110,12 @@
         <v>16</v>
       </c>
       <c r="H51" s="18"/>
+      <c r="J51" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="L51" s="15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="16" t="s">
@@ -2122,53 +2167,53 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="21"/>
-      <c r="B80" s="21"/>
+      <c r="A80" s="22"/>
+      <c r="B80" s="22"/>
     </row>
     <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="21"/>
-      <c r="B81" s="21"/>
+      <c r="A81" s="22"/>
+      <c r="B81" s="22"/>
     </row>
     <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J89" s="22"/>
-      <c r="K89" s="22"/>
-      <c r="L89" s="22"/>
+      <c r="J89" s="23"/>
+      <c r="K89" s="23"/>
+      <c r="L89" s="23"/>
     </row>
     <row r="98" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I98" s="23"/>
-      <c r="J98" s="24"/>
-      <c r="K98" s="24"/>
-      <c r="L98" s="24"/>
-    </row>
-    <row r="100" s="23" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I98" s="24"/>
+      <c r="J98" s="25"/>
+      <c r="K98" s="25"/>
+      <c r="L98" s="25"/>
+    </row>
+    <row r="100" s="24" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="D100" s="2"/>
       <c r="G100" s="2"/>
-      <c r="J100" s="24"/>
-      <c r="K100" s="24"/>
-      <c r="L100" s="24"/>
-    </row>
-    <row r="102" s="23" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J100" s="25"/>
+      <c r="K100" s="25"/>
+      <c r="L100" s="25"/>
+    </row>
+    <row r="102" s="24" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="D102" s="2"/>
       <c r="G102" s="2"/>
     </row>
     <row r="103" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J103" s="25"/>
-      <c r="K103" s="25"/>
-      <c r="L103" s="25"/>
+      <c r="J103" s="26"/>
+      <c r="K103" s="26"/>
+      <c r="L103" s="26"/>
     </row>
     <row r="125" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J125" s="23"/>
-      <c r="K125" s="23"/>
-      <c r="L125" s="23"/>
+      <c r="J125" s="24"/>
+      <c r="K125" s="24"/>
+      <c r="L125" s="24"/>
     </row>
     <row r="127" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J127" s="23"/>
-      <c r="K127" s="23"/>
-      <c r="L127" s="23"/>
+      <c r="J127" s="24"/>
+      <c r="K127" s="24"/>
+      <c r="L127" s="24"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2195,7 +2240,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2218,7 +2263,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="104">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -331,6 +331,9 @@
   </si>
   <si>
     <t xml:space="preserve">Andreas Christensen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enzo Fernandez</t>
   </si>
 </sst>
 </file>
@@ -341,7 +344,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="d\.m\.;@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -411,12 +414,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -576,18 +573,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -596,7 +593,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -620,11 +617,11 @@
   </sheetPr>
   <dimension ref="A1:V127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L51" activeCellId="0" sqref="L51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L52" activeCellId="0" sqref="L52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
@@ -1150,7 +1147,7 @@
         <v>62</v>
       </c>
       <c r="L18" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1489,11 +1486,15 @@
       <c r="E29" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="18"/>
+      <c r="F29" s="18" t="n">
+        <v>2</v>
+      </c>
       <c r="G29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H29" s="18"/>
+      <c r="H29" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="J29" s="15" t="s">
         <v>80</v>
       </c>
@@ -2138,6 +2139,12 @@
         <v>16</v>
       </c>
       <c r="H52" s="18"/>
+      <c r="J52" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="L52" s="15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="16" t="s">
@@ -2240,7 +2247,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2263,7 +2270,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="105">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -334,6 +334,9 @@
   </si>
   <si>
     <t xml:space="preserve">Enzo Fernandez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keysher Fuller</t>
   </si>
 </sst>
 </file>
@@ -617,11 +620,11 @@
   </sheetPr>
   <dimension ref="A1:V127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L52" activeCellId="0" sqref="L52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L53" activeCellId="0" sqref="L53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
@@ -1518,11 +1521,15 @@
       <c r="E30" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="F30" s="18"/>
+      <c r="F30" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="G30" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="18"/>
+      <c r="H30" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="J30" s="20" t="s">
         <v>81</v>
       </c>
@@ -2167,6 +2174,12 @@
         <v>16</v>
       </c>
       <c r="H53" s="18"/>
+      <c r="J53" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="L53" s="15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K54" s="15"/>
@@ -2247,7 +2260,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2270,7 +2283,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="107">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -337,6 +337,12 @@
   </si>
   <si>
     <t xml:space="preserve">Keysher Fuller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abdelhamid Sabiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zakaria Aboukhlal</t>
   </si>
 </sst>
 </file>
@@ -620,11 +626,11 @@
   </sheetPr>
   <dimension ref="A1:V127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L53" activeCellId="0" sqref="L53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O62" activeCellId="0" sqref="O62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
@@ -1553,11 +1559,15 @@
       <c r="E31" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="18"/>
+      <c r="F31" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="G31" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H31" s="18"/>
+      <c r="H31" s="18" t="n">
+        <v>2</v>
+      </c>
       <c r="J31" s="15" t="s">
         <v>82</v>
       </c>
@@ -2181,9 +2191,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J54" s="20" t="s">
+        <v>105</v>
+      </c>
       <c r="K54" s="15"/>
-      <c r="L54" s="15"/>
+      <c r="L54" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J55" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="L55" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2260,7 +2283,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2283,7 +2306,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -626,11 +626,11 @@
   </sheetPr>
   <dimension ref="A1:V127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O62" activeCellId="0" sqref="O62"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H32" activeCellId="0" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.01953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
@@ -1591,11 +1591,15 @@
       <c r="E32" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F32" s="18"/>
+      <c r="F32" s="18" t="n">
+        <v>3</v>
+      </c>
       <c r="G32" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H32" s="18"/>
+      <c r="H32" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="J32" s="20" t="s">
         <v>83</v>
       </c>
@@ -2283,7 +2287,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.01953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2306,7 +2310,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.01953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="118">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -343,6 +343,39 @@
   </si>
   <si>
     <t xml:space="preserve">Zakaria Aboukhlal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niclas Fullkrug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alphonso Davies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrej Kramaric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marko Livaja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lovro Majer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jean-Charles Castelletto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vincent Aboubakar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eric Maxim Choupo-Moting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strahinja Pavlovic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sergej Milinkovic-Savic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aleksander Mitrovic</t>
   </si>
 </sst>
 </file>
@@ -626,11 +659,11 @@
   </sheetPr>
   <dimension ref="A1:V127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H32" activeCellId="0" sqref="H32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L66" activeCellId="0" sqref="L66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.01953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.03125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
@@ -1592,7 +1625,7 @@
         <v>57</v>
       </c>
       <c r="F32" s="18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G32" s="17" t="s">
         <v>16</v>
@@ -1623,16 +1656,20 @@
       <c r="E33" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="18"/>
+      <c r="F33" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="G33" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H33" s="18"/>
+      <c r="H33" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="J33" s="20" t="s">
         <v>84</v>
       </c>
       <c r="L33" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1651,11 +1688,15 @@
       <c r="E34" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="F34" s="18"/>
+      <c r="F34" s="18" t="n">
+        <v>3</v>
+      </c>
       <c r="G34" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H34" s="18"/>
+      <c r="H34" s="18" t="n">
+        <v>3</v>
+      </c>
       <c r="J34" s="20" t="s">
         <v>85</v>
       </c>
@@ -2212,7 +2253,94 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J56" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="L56" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J57" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="L57" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J58" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="L58" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J59" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="L59" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J60" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="L60" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J61" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="L61" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J62" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="L62" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J63" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L63" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J64" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="L64" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J65" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="L65" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J66" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="L66" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="22"/>
       <c r="B80" s="22"/>
@@ -2287,7 +2415,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.01953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.03125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2310,7 +2438,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.01953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.03125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="122">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -376,6 +376,18 @@
   </si>
   <si>
     <t xml:space="preserve">Aleksander Mitrovic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cho Gue-sung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohammed Salisu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohammed Kudus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casemiro</t>
   </si>
 </sst>
 </file>
@@ -386,7 +398,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="d\.m\.;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -456,6 +468,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -530,7 +548,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -619,11 +637,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -635,7 +657,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -659,11 +681,11 @@
   </sheetPr>
   <dimension ref="A1:V127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L66" activeCellId="0" sqref="L66"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H36" activeCellId="0" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.03125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.0390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
@@ -1720,11 +1742,15 @@
       <c r="E35" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="F35" s="18"/>
+      <c r="F35" s="18" t="n">
+        <v>2</v>
+      </c>
       <c r="G35" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H35" s="18"/>
+      <c r="H35" s="18" t="n">
+        <v>3</v>
+      </c>
       <c r="J35" s="15" t="s">
         <v>86</v>
       </c>
@@ -1748,11 +1774,15 @@
       <c r="E36" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F36" s="18"/>
+      <c r="F36" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="G36" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H36" s="18"/>
+      <c r="H36" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="J36" s="20" t="s">
         <v>87</v>
       </c>
@@ -2341,54 +2371,83 @@
         <v>1</v>
       </c>
     </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J67" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="L67" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J68" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="L68" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J69" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="L69" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J70" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
     <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="22"/>
-      <c r="B80" s="22"/>
+      <c r="A80" s="23"/>
+      <c r="B80" s="23"/>
     </row>
     <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="22"/>
-      <c r="B81" s="22"/>
+      <c r="A81" s="23"/>
+      <c r="B81" s="23"/>
     </row>
     <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J89" s="23"/>
-      <c r="K89" s="23"/>
-      <c r="L89" s="23"/>
+      <c r="J89" s="24"/>
+      <c r="K89" s="24"/>
+      <c r="L89" s="24"/>
     </row>
     <row r="98" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I98" s="24"/>
-      <c r="J98" s="25"/>
-      <c r="K98" s="25"/>
-      <c r="L98" s="25"/>
-    </row>
-    <row r="100" s="24" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I98" s="25"/>
+      <c r="J98" s="26"/>
+      <c r="K98" s="26"/>
+      <c r="L98" s="26"/>
+    </row>
+    <row r="100" s="25" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="D100" s="2"/>
       <c r="G100" s="2"/>
-      <c r="J100" s="25"/>
-      <c r="K100" s="25"/>
-      <c r="L100" s="25"/>
-    </row>
-    <row r="102" s="24" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J100" s="26"/>
+      <c r="K100" s="26"/>
+      <c r="L100" s="26"/>
+    </row>
+    <row r="102" s="25" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="D102" s="2"/>
       <c r="G102" s="2"/>
     </row>
     <row r="103" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J103" s="26"/>
-      <c r="K103" s="26"/>
-      <c r="L103" s="26"/>
+      <c r="J103" s="27"/>
+      <c r="K103" s="27"/>
+      <c r="L103" s="27"/>
     </row>
     <row r="125" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J125" s="24"/>
-      <c r="K125" s="24"/>
-      <c r="L125" s="24"/>
+      <c r="J125" s="25"/>
+      <c r="K125" s="25"/>
+      <c r="L125" s="25"/>
     </row>
     <row r="127" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J127" s="24"/>
-      <c r="K127" s="24"/>
-      <c r="L127" s="24"/>
+      <c r="J127" s="25"/>
+      <c r="K127" s="25"/>
+      <c r="L127" s="25"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2415,7 +2474,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.03125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.0390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2438,7 +2497,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.03125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.0390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="123">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -388,6 +388,9 @@
   </si>
   <si>
     <t xml:space="preserve">Casemiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bruno Fernandes</t>
   </si>
 </sst>
 </file>
@@ -398,7 +401,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="d\.m\.;@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -468,12 +471,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -548,7 +545,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -637,18 +634,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -657,7 +650,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -681,11 +674,11 @@
   </sheetPr>
   <dimension ref="A1:V127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H36" activeCellId="0" sqref="H36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L70" activeCellId="0" sqref="L70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
@@ -1806,11 +1799,15 @@
       <c r="E37" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F37" s="18"/>
+      <c r="F37" s="18" t="n">
+        <v>2</v>
+      </c>
       <c r="G37" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H37" s="18"/>
+      <c r="H37" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="J37" s="20" t="s">
         <v>88</v>
       </c>
@@ -2388,7 +2385,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J69" s="22" t="s">
+      <c r="J69" s="21" t="s">
         <v>120</v>
       </c>
       <c r="L69" s="0" t="n">
@@ -2399,55 +2396,66 @@
       <c r="J70" s="0" t="s">
         <v>121</v>
       </c>
+      <c r="L70" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J71" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="L71" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="23"/>
-      <c r="B80" s="23"/>
+      <c r="A80" s="22"/>
+      <c r="B80" s="22"/>
     </row>
     <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="23"/>
-      <c r="B81" s="23"/>
+      <c r="A81" s="22"/>
+      <c r="B81" s="22"/>
     </row>
     <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J89" s="24"/>
-      <c r="K89" s="24"/>
-      <c r="L89" s="24"/>
+      <c r="J89" s="23"/>
+      <c r="K89" s="23"/>
+      <c r="L89" s="23"/>
     </row>
     <row r="98" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I98" s="25"/>
-      <c r="J98" s="26"/>
-      <c r="K98" s="26"/>
-      <c r="L98" s="26"/>
-    </row>
-    <row r="100" s="25" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I98" s="24"/>
+      <c r="J98" s="25"/>
+      <c r="K98" s="25"/>
+      <c r="L98" s="25"/>
+    </row>
+    <row r="100" s="24" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="D100" s="2"/>
       <c r="G100" s="2"/>
-      <c r="J100" s="26"/>
-      <c r="K100" s="26"/>
-      <c r="L100" s="26"/>
-    </row>
-    <row r="102" s="25" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J100" s="25"/>
+      <c r="K100" s="25"/>
+      <c r="L100" s="25"/>
+    </row>
+    <row r="102" s="24" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="D102" s="2"/>
       <c r="G102" s="2"/>
     </row>
     <row r="103" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J103" s="27"/>
-      <c r="K103" s="27"/>
-      <c r="L103" s="27"/>
+      <c r="J103" s="26"/>
+      <c r="K103" s="26"/>
+      <c r="L103" s="26"/>
     </row>
     <row r="125" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J125" s="25"/>
-      <c r="K125" s="25"/>
-      <c r="L125" s="25"/>
+      <c r="J125" s="24"/>
+      <c r="K125" s="24"/>
+      <c r="L125" s="24"/>
     </row>
     <row r="127" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J127" s="25"/>
-      <c r="K127" s="25"/>
-      <c r="L127" s="25"/>
+      <c r="J127" s="24"/>
+      <c r="K127" s="24"/>
+      <c r="L127" s="24"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2474,7 +2482,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2497,7 +2505,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="127">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -391,6 +391,18 @@
   </si>
   <si>
     <t xml:space="preserve">Bruno Fernandes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frenkie de Jong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moises Caicedo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ismaila Sarr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalidou Koulibaly</t>
   </si>
 </sst>
 </file>
@@ -674,11 +686,11 @@
   </sheetPr>
   <dimension ref="A1:V127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L70" activeCellId="0" sqref="L70"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E87" activeCellId="0" sqref="E87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
@@ -1076,7 +1088,7 @@
         <v>48</v>
       </c>
       <c r="L14" s="15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1831,11 +1843,15 @@
       <c r="E38" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F38" s="18"/>
+      <c r="F38" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="G38" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H38" s="18"/>
+      <c r="H38" s="18" t="n">
+        <v>2</v>
+      </c>
       <c r="J38" s="20" t="s">
         <v>89</v>
       </c>
@@ -1859,11 +1875,15 @@
       <c r="E39" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F39" s="18"/>
+      <c r="F39" s="18" t="n">
+        <v>2</v>
+      </c>
       <c r="G39" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H39" s="18"/>
+      <c r="H39" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="J39" s="20" t="s">
         <v>90</v>
       </c>
@@ -2406,6 +2426,38 @@
       </c>
       <c r="L71" s="0" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J72" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="L72" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J73" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="L73" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J74" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="L74" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J75" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="L75" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2482,7 +2534,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2505,7 +2557,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -393,7 +393,7 @@
     <t xml:space="preserve">Bruno Fernandes</t>
   </si>
   <si>
-    <t xml:space="preserve">frenkie de Jong</t>
+    <t xml:space="preserve">Frenkie de Jong</t>
   </si>
   <si>
     <t xml:space="preserve">Moises Caicedo</t>
@@ -687,10 +687,10 @@
   <dimension ref="A1:V127"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E87" activeCellId="0" sqref="E87"/>
+      <selection pane="topLeft" activeCell="J72" activeCellId="0" sqref="J72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
@@ -2534,7 +2534,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2557,7 +2557,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -393,7 +393,7 @@
     <t xml:space="preserve">Bruno Fernandes</t>
   </si>
   <si>
-    <t xml:space="preserve">Frenkie de Jong</t>
+    <t xml:space="preserve">Frenkie De Jong</t>
   </si>
   <si>
     <t xml:space="preserve">Moises Caicedo</t>
@@ -690,13 +690,13 @@
       <selection pane="topLeft" activeCell="J72" activeCellId="0" sqref="J72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="2.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="21.89"/>
@@ -2534,7 +2534,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2557,7 +2557,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="129">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -403,6 +403,12 @@
   </si>
   <si>
     <t xml:space="preserve">Kalidou Koulibaly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christian Pulisic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phill Foden</t>
   </si>
 </sst>
 </file>
@@ -687,10 +693,10 @@
   <dimension ref="A1:V127"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J72" activeCellId="0" sqref="J72"/>
+      <selection pane="topLeft" activeCell="L77" activeCellId="0" sqref="L77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
@@ -960,7 +966,7 @@
       </c>
       <c r="K10" s="19"/>
       <c r="L10" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1907,11 +1913,15 @@
       <c r="E40" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F40" s="18"/>
+      <c r="F40" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="G40" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="18"/>
+      <c r="H40" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="J40" s="20" t="s">
         <v>91</v>
       </c>
@@ -1935,11 +1945,15 @@
       <c r="E41" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F41" s="18"/>
+      <c r="F41" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="G41" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H41" s="18"/>
+      <c r="H41" s="18" t="n">
+        <v>3</v>
+      </c>
       <c r="J41" s="20" t="s">
         <v>92</v>
       </c>
@@ -2457,6 +2471,22 @@
         <v>126</v>
       </c>
       <c r="L75" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J76" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="L76" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J77" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="L77" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2534,7 +2564,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2557,7 +2587,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -393,7 +393,7 @@
     <t xml:space="preserve">Bruno Fernandes</t>
   </si>
   <si>
-    <t xml:space="preserve">Frenkie De Jong</t>
+    <t xml:space="preserve">Frenkie de Jong</t>
   </si>
   <si>
     <t xml:space="preserve">Moises Caicedo</t>
@@ -693,10 +693,10 @@
   <dimension ref="A1:V127"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L77" activeCellId="0" sqref="L77"/>
+      <selection pane="topLeft" activeCell="J73" activeCellId="0" sqref="J73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
@@ -2564,7 +2564,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2587,7 +2587,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -408,7 +408,7 @@
     <t xml:space="preserve">Christian Pulisic</t>
   </si>
   <si>
-    <t xml:space="preserve">Phill Foden</t>
+    <t xml:space="preserve">Phil Foden</t>
   </si>
 </sst>
 </file>
@@ -692,11 +692,11 @@
   </sheetPr>
   <dimension ref="A1:V127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J73" activeCellId="0" sqref="J73"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O38" activeCellId="0" sqref="O38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.12109375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
@@ -1977,11 +1977,15 @@
       <c r="E42" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F42" s="18"/>
+      <c r="F42" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="G42" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H42" s="18"/>
+      <c r="H42" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="J42" s="20" t="s">
         <v>93</v>
       </c>
@@ -2005,11 +2009,15 @@
       <c r="E43" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F43" s="18"/>
+      <c r="F43" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="G43" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H43" s="18"/>
+      <c r="H43" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="J43" s="20" t="s">
         <v>94</v>
       </c>
@@ -2564,7 +2572,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.12109375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2587,7 +2595,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.12109375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="135">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -409,6 +409,24 @@
   </si>
   <si>
     <t xml:space="preserve">Phil Foden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wahbi Khazri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mathew Leckie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julian Alvarez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexis Mac Allister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luis Chavez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henry Martin</t>
   </si>
 </sst>
 </file>
@@ -692,11 +710,11 @@
   </sheetPr>
   <dimension ref="A1:V127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O38" activeCellId="0" sqref="O38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L83" activeCellId="0" sqref="L83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.12109375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
@@ -1286,7 +1304,7 @@
         <v>69</v>
       </c>
       <c r="L20" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1978,13 +1996,13 @@
         <v>42</v>
       </c>
       <c r="F42" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" s="17" t="s">
         <v>16</v>
       </c>
       <c r="H42" s="18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" s="20" t="s">
         <v>93</v>
@@ -2010,13 +2028,13 @@
         <v>36</v>
       </c>
       <c r="F43" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" s="17" t="s">
         <v>16</v>
       </c>
       <c r="H43" s="18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" s="20" t="s">
         <v>94</v>
@@ -2041,11 +2059,15 @@
       <c r="E44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F44" s="18"/>
+      <c r="F44" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="G44" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H44" s="18"/>
+      <c r="H44" s="18" t="n">
+        <v>2</v>
+      </c>
       <c r="J44" s="20" t="s">
         <v>95</v>
       </c>
@@ -2069,11 +2091,15 @@
       <c r="E45" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F45" s="18"/>
+      <c r="F45" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="G45" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H45" s="18"/>
+      <c r="H45" s="18" t="n">
+        <v>2</v>
+      </c>
       <c r="J45" s="20" t="s">
         <v>96</v>
       </c>
@@ -2498,13 +2524,57 @@
         <v>1</v>
       </c>
     </row>
+    <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J78" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="L78" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J79" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L79" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="22"/>
       <c r="B80" s="22"/>
+      <c r="J80" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="L80" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="22"/>
       <c r="B81" s="22"/>
+      <c r="J81" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="L81" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J82" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="L82" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J83" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="L83" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J89" s="23"/>
@@ -2572,7 +2642,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.12109375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2595,7 +2665,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.12109375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -393,7 +393,7 @@
     <t xml:space="preserve">Bruno Fernandes</t>
   </si>
   <si>
-    <t xml:space="preserve">Frenkie de Jong</t>
+    <t xml:space="preserve">Frenkie De Jong</t>
   </si>
   <si>
     <t xml:space="preserve">Moises Caicedo</t>
@@ -710,11 +710,11 @@
   </sheetPr>
   <dimension ref="A1:V127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L83" activeCellId="0" sqref="L83"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J72" activeCellId="0" sqref="J72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
@@ -2642,7 +2642,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2665,7 +2665,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="137">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -427,6 +427,12 @@
   </si>
   <si>
     <t xml:space="preserve">Henry Martin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Youssef En-Nesyri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hakim Ziyech</t>
   </si>
 </sst>
 </file>
@@ -710,11 +716,11 @@
   </sheetPr>
   <dimension ref="A1:V127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J72" activeCellId="0" sqref="J72"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J86" activeCellId="0" sqref="J86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
@@ -2123,11 +2129,15 @@
       <c r="E46" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F46" s="18"/>
+      <c r="F46" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="G46" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H46" s="18"/>
+      <c r="H46" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="J46" s="20" t="s">
         <v>97</v>
       </c>
@@ -2151,11 +2161,15 @@
       <c r="E47" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F47" s="18"/>
+      <c r="F47" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="G47" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H47" s="18"/>
+      <c r="H47" s="18" t="n">
+        <v>2</v>
+      </c>
       <c r="J47" s="20" t="s">
         <v>98</v>
       </c>
@@ -2573,6 +2587,22 @@
         <v>134</v>
       </c>
       <c r="L83" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J84" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="L84" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J85" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="L85" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,7 +2672,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2665,7 +2695,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="142">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -433,6 +433,21 @@
   </si>
   <si>
     <t xml:space="preserve">Hakim Ziyech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serge Gnabry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kai Havertz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yeltsin Tejeda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Pablo Vargas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ao Tanaka</t>
   </si>
 </sst>
 </file>
@@ -716,11 +731,11 @@
   </sheetPr>
   <dimension ref="A1:V127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J86" activeCellId="0" sqref="J86"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L26" activeCellId="0" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
@@ -1502,7 +1517,7 @@
         <v>77</v>
       </c>
       <c r="L26" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1726,7 +1741,7 @@
         <v>84</v>
       </c>
       <c r="L33" s="15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2193,11 +2208,15 @@
       <c r="E48" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="F48" s="18"/>
+      <c r="F48" s="18" t="n">
+        <v>2</v>
+      </c>
       <c r="G48" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H48" s="18"/>
+      <c r="H48" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="J48" s="15" t="s">
         <v>99</v>
       </c>
@@ -2221,11 +2240,15 @@
       <c r="E49" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F49" s="18"/>
+      <c r="F49" s="18" t="n">
+        <v>2</v>
+      </c>
       <c r="G49" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H49" s="18"/>
+      <c r="H49" s="18" t="n">
+        <v>4</v>
+      </c>
       <c r="J49" s="0" t="s">
         <v>100</v>
       </c>
@@ -2367,7 +2390,7 @@
         <v>107</v>
       </c>
       <c r="L56" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2606,10 +2629,46 @@
         <v>1</v>
       </c>
     </row>
+    <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J86" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="L86" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J87" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="L87" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J88" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="L88" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J89" s="23"/>
+      <c r="J89" s="23" t="s">
+        <v>140</v>
+      </c>
       <c r="K89" s="23"/>
-      <c r="L89" s="23"/>
+      <c r="L89" s="23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J90" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="L90" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I98" s="24"/>
@@ -2672,7 +2731,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2695,7 +2754,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -731,11 +731,11 @@
   </sheetPr>
   <dimension ref="A1:V127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L26" activeCellId="0" sqref="L26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H51" activeCellId="0" sqref="H51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
@@ -2272,11 +2272,15 @@
       <c r="E50" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="F50" s="18"/>
+      <c r="F50" s="18" t="n">
+        <v>2</v>
+      </c>
       <c r="G50" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H50" s="18"/>
+      <c r="H50" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="J50" s="21" t="s">
         <v>101</v>
       </c>
@@ -2300,11 +2304,15 @@
       <c r="E51" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F51" s="18"/>
+      <c r="F51" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="G51" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H51" s="18"/>
+      <c r="H51" s="18" t="n">
+        <v>2</v>
+      </c>
       <c r="J51" s="15" t="s">
         <v>102</v>
       </c>
@@ -2731,7 +2739,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2754,7 +2762,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="143">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -66,6 +66,9 @@
     <t xml:space="preserve">Mestari</t>
   </si>
   <si>
+    <t xml:space="preserve">Pudonnut</t>
+  </si>
+  <si>
     <t xml:space="preserve">A</t>
   </si>
   <si>
@@ -81,6 +84,9 @@
     <t xml:space="preserve">Enner Valencia</t>
   </si>
   <si>
+    <t xml:space="preserve">Belgia</t>
+  </si>
+  <si>
     <t xml:space="preserve">B</t>
   </si>
   <si>
@@ -96,6 +102,9 @@
     <t xml:space="preserve">Jude Bellingham</t>
   </si>
   <si>
+    <t xml:space="preserve">Saksa</t>
+  </si>
+  <si>
     <t xml:space="preserve">Senegal</t>
   </si>
   <si>
@@ -105,6 +114,9 @@
     <t xml:space="preserve">Bukayo Saka</t>
   </si>
   <si>
+    <t xml:space="preserve">Tanska</t>
+  </si>
+  <si>
     <t xml:space="preserve">USA</t>
   </si>
   <si>
@@ -114,6 +126,9 @@
     <t xml:space="preserve">Raheem Sterling</t>
   </si>
   <si>
+    <t xml:space="preserve">Serbia</t>
+  </si>
+  <si>
     <t xml:space="preserve">C</t>
   </si>
   <si>
@@ -129,12 +144,12 @@
     <t xml:space="preserve">Marcus Rashford</t>
   </si>
   <si>
+    <t xml:space="preserve">Uruguay</t>
+  </si>
+  <si>
     <t xml:space="preserve">D</t>
   </si>
   <si>
-    <t xml:space="preserve">Tanska</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tunisia</t>
   </si>
   <si>
@@ -174,9 +189,6 @@
     <t xml:space="preserve">E</t>
   </si>
   <si>
-    <t xml:space="preserve">Saksa</t>
-  </si>
-  <si>
     <t xml:space="preserve">Japani</t>
   </si>
   <si>
@@ -192,9 +204,6 @@
     <t xml:space="preserve">Gareth Bale</t>
   </si>
   <si>
-    <t xml:space="preserve">Belgia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kanada</t>
   </si>
   <si>
@@ -216,9 +225,6 @@
     <t xml:space="preserve">H</t>
   </si>
   <si>
-    <t xml:space="preserve">Uruguay</t>
-  </si>
-  <si>
     <t xml:space="preserve">Etelä-Korea</t>
   </si>
   <si>
@@ -235,9 +241,6 @@
   </si>
   <si>
     <t xml:space="preserve">Brasilia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serbia</t>
   </si>
   <si>
     <t xml:space="preserve">Craig Goodwin</t>
@@ -731,17 +734,17 @@
   </sheetPr>
   <dimension ref="A1:V127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H51" activeCellId="0" sqref="H51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S11" activeCellId="0" sqref="S11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.2109375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="2.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="21.89"/>
@@ -833,36 +836,39 @@
       <c r="R5" s="15" t="s">
         <v>13</v>
       </c>
+      <c r="S5" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="U5" s="15"/>
       <c r="V5" s="15"/>
     </row>
     <row r="6" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="16" t="n">
         <v>44885</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="18" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6" s="18" t="n">
         <v>2</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K6" s="19"/>
       <c r="L6" s="15" t="n">
@@ -872,169 +878,184 @@
       <c r="O6" s="19"/>
       <c r="Q6" s="19"/>
       <c r="R6" s="19"/>
+      <c r="S6" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F7" s="18" t="n">
         <v>6</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H7" s="18" t="n">
         <v>2</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K7" s="19"/>
       <c r="L7" s="15" t="n">
         <v>1</v>
       </c>
       <c r="Q7" s="19"/>
+      <c r="S7" s="15" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="8" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="16" t="n">
         <v>44886</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F8" s="18" t="n">
         <v>0</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H8" s="18" t="n">
         <v>2</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K8" s="19"/>
       <c r="L8" s="15" t="n">
         <v>2</v>
       </c>
       <c r="Q8" s="19"/>
+      <c r="S8" s="15" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F9" s="18" t="n">
         <v>1</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H9" s="18" t="n">
         <v>1</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K9" s="19"/>
       <c r="L9" s="15" t="n">
         <v>1</v>
       </c>
       <c r="Q9" s="19"/>
+      <c r="S9" s="15" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F10" s="18" t="n">
         <v>1</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H10" s="18" t="n">
         <v>2</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K10" s="19"/>
       <c r="L10" s="15" t="n">
         <v>3</v>
       </c>
+      <c r="S10" s="15" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="11" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F11" s="18" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H11" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L11" s="15" t="n">
         <v>0</v>
@@ -1042,31 +1063,31 @@
     </row>
     <row r="12" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B12" s="16" t="n">
         <v>44887</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F12" s="18" t="n">
         <v>0</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H12" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="L12" s="15" t="n">
         <v>1</v>
@@ -1074,31 +1095,31 @@
     </row>
     <row r="13" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F13" s="18" t="n">
         <v>4</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H13" s="18" t="n">
         <v>1</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L13" s="15" t="n">
         <v>2</v>
@@ -1106,31 +1127,31 @@
     </row>
     <row r="14" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="16" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B14" s="16" t="n">
         <v>44888</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F14" s="18" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H14" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L14" s="15" t="n">
         <v>3</v>
@@ -1138,31 +1159,31 @@
     </row>
     <row r="15" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B15" s="16" t="n">
         <v>44888</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F15" s="18" t="n">
         <v>1</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H15" s="18" t="n">
         <v>2</v>
       </c>
       <c r="J15" s="20" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="L15" s="15" t="n">
         <v>1</v>
@@ -1170,31 +1191,31 @@
     </row>
     <row r="16" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B16" s="16" t="n">
         <v>44888</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F16" s="18" t="n">
         <v>7</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H16" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L16" s="15" t="n">
         <v>1</v>
@@ -1202,31 +1223,31 @@
     </row>
     <row r="17" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="16" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B17" s="16" t="n">
         <v>44888</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F17" s="18" t="n">
         <v>1</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H17" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L17" s="15" t="n">
         <v>1</v>
@@ -1234,31 +1255,31 @@
     </row>
     <row r="18" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B18" s="16" t="n">
         <v>44889</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F18" s="18" t="n">
         <v>1</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H18" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L18" s="15" t="n">
         <v>2</v>
@@ -1266,31 +1287,31 @@
     </row>
     <row r="19" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B19" s="16" t="n">
         <v>44889</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F19" s="18" t="n">
         <v>0</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H19" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J19" s="20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L19" s="15" t="n">
         <v>1</v>
@@ -1298,31 +1319,31 @@
     </row>
     <row r="20" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B20" s="16" t="n">
         <v>44889</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F20" s="18" t="n">
         <v>3</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H20" s="18" t="n">
         <v>2</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L20" s="15" t="n">
         <v>2</v>
@@ -1330,31 +1351,31 @@
     </row>
     <row r="21" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B21" s="16" t="n">
         <v>44889</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="F21" s="18" t="n">
         <v>2</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H21" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L21" s="15" t="n">
         <v>1</v>
@@ -1362,31 +1383,31 @@
     </row>
     <row r="22" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B22" s="16" t="n">
         <v>44891</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F22" s="18" t="n">
         <v>0</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H22" s="18" t="n">
         <v>2</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L22" s="15" t="n">
         <v>1</v>
@@ -1394,31 +1415,31 @@
     </row>
     <row r="23" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B23" s="16" t="n">
         <v>44890</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F23" s="18" t="n">
         <v>1</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H23" s="18" t="n">
         <v>3</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L23" s="15" t="n">
         <v>2</v>
@@ -1426,31 +1447,31 @@
     </row>
     <row r="24" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B24" s="16" t="n">
         <v>44890</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F24" s="18" t="n">
         <v>1</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H24" s="18" t="n">
         <v>1</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L24" s="15" t="n">
         <v>3</v>
@@ -1458,31 +1479,31 @@
     </row>
     <row r="25" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B25" s="16" t="n">
         <v>44890</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F25" s="18" t="n">
         <v>0</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H25" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J25" s="20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L25" s="15" t="n">
         <v>1</v>
@@ -1490,31 +1511,31 @@
     </row>
     <row r="26" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B26" s="16" t="n">
         <v>44891</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F26" s="18" t="n">
         <v>0</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H26" s="18" t="n">
         <v>1</v>
       </c>
       <c r="J26" s="20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L26" s="15" t="n">
         <v>2</v>
@@ -1522,31 +1543,31 @@
     </row>
     <row r="27" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B27" s="16" t="n">
         <v>44891</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F27" s="18" t="n">
         <v>2</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H27" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J27" s="20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L27" s="15" t="n">
         <v>1</v>
@@ -1554,31 +1575,31 @@
     </row>
     <row r="28" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B28" s="16" t="n">
         <v>44891</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F28" s="18" t="n">
         <v>2</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H28" s="18" t="n">
         <v>1</v>
       </c>
       <c r="J28" s="20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L28" s="15" t="n">
         <v>1</v>
@@ -1586,31 +1607,31 @@
     </row>
     <row r="29" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29" s="16" t="n">
         <v>44891</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F29" s="18" t="n">
         <v>2</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H29" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L29" s="15" t="n">
         <v>2</v>
@@ -1618,31 +1639,31 @@
     </row>
     <row r="30" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B30" s="16" t="n">
         <v>44892</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F30" s="18" t="n">
         <v>0</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H30" s="18" t="n">
         <v>1</v>
       </c>
       <c r="J30" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L30" s="15" t="n">
         <v>1</v>
@@ -1650,31 +1671,31 @@
     </row>
     <row r="31" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="16" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B31" s="16" t="n">
         <v>44892</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F31" s="18" t="n">
         <v>0</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H31" s="18" t="n">
         <v>2</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L31" s="15" t="n">
         <v>1</v>
@@ -1682,31 +1703,31 @@
     </row>
     <row r="32" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="16" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B32" s="16" t="n">
         <v>44892</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F32" s="18" t="n">
         <v>4</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H32" s="18" t="n">
         <v>1</v>
       </c>
       <c r="J32" s="20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L32" s="15" t="n">
         <v>1</v>
@@ -1714,31 +1735,31 @@
     </row>
     <row r="33" s="15" customFormat="true" ht="19.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B33" s="16" t="n">
         <v>44892</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="F33" s="18" t="n">
         <v>1</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H33" s="18" t="n">
         <v>1</v>
       </c>
       <c r="J33" s="20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L33" s="15" t="n">
         <v>3</v>
@@ -1746,31 +1767,31 @@
     </row>
     <row r="34" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B34" s="16" t="n">
         <v>44893</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="F34" s="18" t="n">
         <v>3</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H34" s="18" t="n">
         <v>3</v>
       </c>
       <c r="J34" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L34" s="15" t="n">
         <v>1</v>
@@ -1778,31 +1799,31 @@
     </row>
     <row r="35" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B35" s="16" t="n">
         <v>44893</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F35" s="18" t="n">
         <v>2</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H35" s="18" t="n">
         <v>3</v>
       </c>
       <c r="J35" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L35" s="15" t="n">
         <v>1</v>
@@ -1810,31 +1831,31 @@
     </row>
     <row r="36" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B36" s="16" t="n">
         <v>44893</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F36" s="18" t="n">
         <v>1</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H36" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J36" s="20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L36" s="15" t="n">
         <v>1</v>
@@ -1842,31 +1863,31 @@
     </row>
     <row r="37" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B37" s="16" t="n">
         <v>44893</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="F37" s="18" t="n">
         <v>2</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H37" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J37" s="20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L37" s="15" t="n">
         <v>1</v>
@@ -1874,31 +1895,31 @@
     </row>
     <row r="38" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B38" s="16" t="n">
         <v>44894</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F38" s="18" t="n">
         <v>1</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H38" s="18" t="n">
         <v>2</v>
       </c>
       <c r="J38" s="20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L38" s="15" t="n">
         <v>1</v>
@@ -1906,31 +1927,31 @@
     </row>
     <row r="39" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B39" s="16" t="n">
         <v>44894</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D39" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="15" t="s">
-        <v>15</v>
-      </c>
       <c r="F39" s="18" t="n">
         <v>2</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H39" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J39" s="20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L39" s="15" t="n">
         <v>1</v>
@@ -1938,31 +1959,31 @@
     </row>
     <row r="40" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B40" s="16" t="n">
         <v>44894</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F40" s="18" t="n">
         <v>0</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H40" s="18" t="n">
         <v>1</v>
       </c>
       <c r="J40" s="20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L40" s="15" t="n">
         <v>1</v>
@@ -1970,31 +1991,31 @@
     </row>
     <row r="41" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B41" s="16" t="n">
         <v>44894</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F41" s="18" t="n">
         <v>0</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H41" s="18" t="n">
         <v>3</v>
       </c>
       <c r="J41" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L41" s="15" t="n">
         <v>1</v>
@@ -2002,31 +2023,31 @@
     </row>
     <row r="42" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B42" s="16" t="n">
         <v>44895</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F42" s="18" t="n">
         <v>1</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H42" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J42" s="20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L42" s="15" t="n">
         <v>1</v>
@@ -2034,31 +2055,31 @@
     </row>
     <row r="43" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B43" s="16" t="n">
         <v>44895</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F43" s="18" t="n">
         <v>1</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H43" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J43" s="20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L43" s="15" t="n">
         <v>1</v>
@@ -2066,31 +2087,31 @@
     </row>
     <row r="44" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B44" s="16" t="n">
         <v>44895</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F44" s="18" t="n">
         <v>0</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H44" s="18" t="n">
         <v>2</v>
       </c>
       <c r="J44" s="20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L44" s="15" t="n">
         <v>1</v>
@@ -2098,31 +2119,31 @@
     </row>
     <row r="45" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B45" s="16" t="n">
         <v>44895</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F45" s="18" t="n">
         <v>1</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H45" s="18" t="n">
         <v>2</v>
       </c>
       <c r="J45" s="20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L45" s="15" t="n">
         <v>1</v>
@@ -2130,31 +2151,31 @@
     </row>
     <row r="46" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="16" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B46" s="16" t="n">
         <v>44896</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="F46" s="18" t="n">
         <v>0</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H46" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J46" s="20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L46" s="15" t="n">
         <v>1</v>
@@ -2162,31 +2183,31 @@
     </row>
     <row r="47" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="16" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B47" s="16" t="n">
         <v>44896</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F47" s="18" t="n">
         <v>1</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H47" s="18" t="n">
         <v>2</v>
       </c>
       <c r="J47" s="20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L47" s="15" t="n">
         <v>1</v>
@@ -2194,31 +2215,31 @@
     </row>
     <row r="48" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48" s="16" t="n">
         <v>44896</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F48" s="18" t="n">
         <v>2</v>
       </c>
       <c r="G48" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H48" s="18" t="n">
         <v>1</v>
       </c>
       <c r="J48" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L48" s="15" t="n">
         <v>1</v>
@@ -2226,31 +2247,31 @@
     </row>
     <row r="49" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49" s="16" t="n">
         <v>44896</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="F49" s="18" t="n">
         <v>2</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H49" s="18" t="n">
         <v>4</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L49" s="15" t="n">
         <v>1</v>
@@ -2258,31 +2279,31 @@
     </row>
     <row r="50" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B50" s="16" t="n">
         <v>44897</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F50" s="18" t="n">
         <v>2</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H50" s="18" t="n">
         <v>1</v>
       </c>
       <c r="J50" s="21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L50" s="15" t="n">
         <v>1</v>
@@ -2290,31 +2311,31 @@
     </row>
     <row r="51" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B51" s="16" t="n">
         <v>44897</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="F51" s="18" t="n">
         <v>0</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H51" s="18" t="n">
         <v>2</v>
       </c>
       <c r="J51" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L51" s="15" t="n">
         <v>1</v>
@@ -2322,27 +2343,31 @@
     </row>
     <row r="52" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B52" s="16" t="n">
         <v>44897</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F52" s="18"/>
+        <v>63</v>
+      </c>
+      <c r="F52" s="18" t="n">
+        <v>2</v>
+      </c>
       <c r="G52" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H52" s="18"/>
+        <v>17</v>
+      </c>
+      <c r="H52" s="18" t="n">
+        <v>3</v>
+      </c>
       <c r="J52" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L52" s="15" t="n">
         <v>1</v>
@@ -2350,27 +2375,31 @@
     </row>
     <row r="53" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B53" s="16" t="n">
         <v>44897</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F53" s="18"/>
+        <v>72</v>
+      </c>
+      <c r="F53" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="G53" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H53" s="18"/>
+        <v>17</v>
+      </c>
+      <c r="H53" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="J53" s="15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L53" s="15" t="n">
         <v>1</v>
@@ -2378,7 +2407,7 @@
     </row>
     <row r="54" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J54" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K54" s="15"/>
       <c r="L54" s="15" t="n">
@@ -2387,7 +2416,7 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J55" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L55" s="0" t="n">
         <v>1</v>
@@ -2395,7 +2424,7 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J56" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L56" s="0" t="n">
         <v>2</v>
@@ -2403,7 +2432,7 @@
     </row>
     <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J57" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L57" s="0" t="n">
         <v>1</v>
@@ -2411,7 +2440,7 @@
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J58" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L58" s="0" t="n">
         <v>2</v>
@@ -2419,7 +2448,7 @@
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J59" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L59" s="0" t="n">
         <v>1</v>
@@ -2427,7 +2456,7 @@
     </row>
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J60" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L60" s="0" t="n">
         <v>1</v>
@@ -2435,7 +2464,7 @@
     </row>
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J61" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L61" s="0" t="n">
         <v>1</v>
@@ -2443,7 +2472,7 @@
     </row>
     <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J62" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L62" s="0" t="n">
         <v>1</v>
@@ -2451,7 +2480,7 @@
     </row>
     <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J63" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L63" s="0" t="n">
         <v>1</v>
@@ -2459,7 +2488,7 @@
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J64" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L64" s="0" t="n">
         <v>1</v>
@@ -2467,7 +2496,7 @@
     </row>
     <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J65" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L65" s="0" t="n">
         <v>1</v>
@@ -2475,7 +2504,7 @@
     </row>
     <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J66" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L66" s="0" t="n">
         <v>1</v>
@@ -2483,7 +2512,7 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J67" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L67" s="0" t="n">
         <v>2</v>
@@ -2491,7 +2520,7 @@
     </row>
     <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J68" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L68" s="0" t="n">
         <v>1</v>
@@ -2499,7 +2528,7 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J69" s="21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L69" s="0" t="n">
         <v>2</v>
@@ -2507,7 +2536,7 @@
     </row>
     <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J70" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L70" s="0" t="n">
         <v>1</v>
@@ -2515,7 +2544,7 @@
     </row>
     <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J71" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L71" s="0" t="n">
         <v>2</v>
@@ -2523,7 +2552,7 @@
     </row>
     <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J72" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L72" s="0" t="n">
         <v>1</v>
@@ -2531,7 +2560,7 @@
     </row>
     <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J73" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L73" s="0" t="n">
         <v>1</v>
@@ -2539,7 +2568,7 @@
     </row>
     <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J74" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L74" s="0" t="n">
         <v>1</v>
@@ -2547,7 +2576,7 @@
     </row>
     <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J75" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L75" s="0" t="n">
         <v>1</v>
@@ -2555,7 +2584,7 @@
     </row>
     <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J76" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L76" s="0" t="n">
         <v>1</v>
@@ -2563,7 +2592,7 @@
     </row>
     <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J77" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L77" s="0" t="n">
         <v>1</v>
@@ -2571,7 +2600,7 @@
     </row>
     <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J78" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L78" s="0" t="n">
         <v>1</v>
@@ -2579,7 +2608,7 @@
     </row>
     <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J79" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L79" s="0" t="n">
         <v>1</v>
@@ -2589,7 +2618,7 @@
       <c r="A80" s="22"/>
       <c r="B80" s="22"/>
       <c r="J80" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L80" s="0" t="n">
         <v>1</v>
@@ -2599,7 +2628,7 @@
       <c r="A81" s="22"/>
       <c r="B81" s="22"/>
       <c r="J81" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L81" s="0" t="n">
         <v>1</v>
@@ -2607,7 +2636,7 @@
     </row>
     <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J82" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L82" s="0" t="n">
         <v>1</v>
@@ -2615,7 +2644,7 @@
     </row>
     <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J83" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L83" s="0" t="n">
         <v>1</v>
@@ -2623,7 +2652,7 @@
     </row>
     <row r="84" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J84" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L84" s="0" t="n">
         <v>1</v>
@@ -2631,7 +2660,7 @@
     </row>
     <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J85" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L85" s="0" t="n">
         <v>1</v>
@@ -2639,7 +2668,7 @@
     </row>
     <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J86" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L86" s="0" t="n">
         <v>1</v>
@@ -2647,7 +2676,7 @@
     </row>
     <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J87" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L87" s="0" t="n">
         <v>2</v>
@@ -2655,7 +2684,7 @@
     </row>
     <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J88" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L88" s="0" t="n">
         <v>1</v>
@@ -2663,7 +2692,7 @@
     </row>
     <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J89" s="23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K89" s="23"/>
       <c r="L89" s="23" t="n">
@@ -2672,7 +2701,7 @@
     </row>
     <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J90" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L90" s="0" t="n">
         <v>1</v>
@@ -2739,7 +2768,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.2109375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2762,7 +2791,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.2109375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="143">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -734,11 +734,11 @@
   </sheetPr>
   <dimension ref="A1:V127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S11" activeCellId="0" sqref="S11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q75" activeCellId="0" sqref="Q75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2109375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.23828125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
@@ -1060,6 +1060,9 @@
       <c r="L11" s="15" t="n">
         <v>0</v>
       </c>
+      <c r="S11" s="15" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="16" t="s">
@@ -1282,7 +1285,7 @@
         <v>65</v>
       </c>
       <c r="L18" s="15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2621,7 +2624,7 @@
         <v>132</v>
       </c>
       <c r="L80" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2768,7 +2771,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2109375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.23828125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2791,7 +2794,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2109375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.23828125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="143">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -734,11 +734,11 @@
   </sheetPr>
   <dimension ref="A1:V127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q75" activeCellId="0" sqref="Q75"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L50" activeCellId="0" sqref="L50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23828125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.25390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
@@ -1095,6 +1095,9 @@
       <c r="L12" s="15" t="n">
         <v>1</v>
       </c>
+      <c r="S12" s="15" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="13" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="16" t="s">
@@ -1477,7 +1480,7 @@
         <v>76</v>
       </c>
       <c r="L24" s="15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2309,7 +2312,7 @@
         <v>102</v>
       </c>
       <c r="L50" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2771,7 +2774,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23828125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.25390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2794,7 +2797,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23828125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.25390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -735,10 +735,10 @@
   <dimension ref="A1:V127"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L50" activeCellId="0" sqref="L50"/>
+      <selection pane="topLeft" activeCell="L23" activeCellId="0" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
@@ -1448,7 +1448,7 @@
         <v>75</v>
       </c>
       <c r="L23" s="15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2774,7 +2774,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2797,7 +2797,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="148">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -174,6 +174,9 @@
     <t xml:space="preserve">Mehdi Taremi</t>
   </si>
   <si>
+    <t xml:space="preserve">Espanja</t>
+  </si>
+  <si>
     <t xml:space="preserve">F</t>
   </si>
   <si>
@@ -186,18 +189,15 @@
     <t xml:space="preserve">Cody Gakpo</t>
   </si>
   <si>
+    <t xml:space="preserve">Japani</t>
+  </si>
+  <si>
     <t xml:space="preserve">E</t>
   </si>
   <si>
-    <t xml:space="preserve">Japani</t>
-  </si>
-  <si>
     <t xml:space="preserve">Davy Klaassen</t>
   </si>
   <si>
-    <t xml:space="preserve">Espanja</t>
-  </si>
-  <si>
     <t xml:space="preserve">Costa Rica</t>
   </si>
   <si>
@@ -451,6 +451,21 @@
   </si>
   <si>
     <t xml:space="preserve">Ao Tanaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivan Perisic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viniciuc jr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neymar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucas Paqueta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordan Henderson</t>
   </si>
 </sst>
 </file>
@@ -734,11 +749,11 @@
   </sheetPr>
   <dimension ref="A1:V127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L23" activeCellId="0" sqref="L23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L95" activeCellId="0" sqref="L95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.28125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
@@ -949,7 +964,7 @@
       </c>
       <c r="K8" s="19"/>
       <c r="L8" s="15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q8" s="19"/>
       <c r="S8" s="15" t="s">
@@ -1058,7 +1073,7 @@
         <v>43</v>
       </c>
       <c r="L11" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" s="15" t="s">
         <v>31</v>
@@ -1130,22 +1145,25 @@
       <c r="L13" s="15" t="n">
         <v>2</v>
       </c>
+      <c r="S13" s="15" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14" s="16" t="n">
         <v>44888</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F14" s="18" t="n">
         <v>0</v>
@@ -1157,15 +1175,18 @@
         <v>0</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L14" s="15" t="n">
         <v>3</v>
       </c>
+      <c r="S14" s="15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B15" s="16" t="n">
         <v>44888</v>
@@ -1189,21 +1210,24 @@
         <v>2</v>
       </c>
       <c r="J15" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L15" s="15" t="n">
         <v>1</v>
+      </c>
+      <c r="S15" s="15" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B16" s="16" t="n">
         <v>44888</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>17</v>
@@ -1229,7 +1253,7 @@
     </row>
     <row r="17" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17" s="16" t="n">
         <v>44888</v>
@@ -1645,7 +1669,7 @@
     </row>
     <row r="30" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B30" s="16" t="n">
         <v>44892</v>
@@ -1677,7 +1701,7 @@
     </row>
     <row r="31" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B31" s="16" t="n">
         <v>44892</v>
@@ -1689,7 +1713,7 @@
         <v>17</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F31" s="18" t="n">
         <v>0</v>
@@ -1709,13 +1733,13 @@
     </row>
     <row r="32" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B32" s="16" t="n">
         <v>44892</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>17</v>
@@ -1741,13 +1765,13 @@
     </row>
     <row r="33" s="15" customFormat="true" ht="19.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B33" s="16" t="n">
         <v>44892</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>17</v>
@@ -2024,7 +2048,7 @@
         <v>93</v>
       </c>
       <c r="L41" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2157,13 +2181,13 @@
     </row>
     <row r="46" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46" s="16" t="n">
         <v>44896</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D46" s="17" t="s">
         <v>17</v>
@@ -2189,7 +2213,7 @@
     </row>
     <row r="47" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B47" s="16" t="n">
         <v>44896</v>
@@ -2201,7 +2225,7 @@
         <v>17</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F47" s="18" t="n">
         <v>1</v>
@@ -2221,7 +2245,7 @@
     </row>
     <row r="48" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B48" s="16" t="n">
         <v>44896</v>
@@ -2233,7 +2257,7 @@
         <v>17</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F48" s="18" t="n">
         <v>2</v>
@@ -2253,7 +2277,7 @@
     </row>
     <row r="49" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B49" s="16" t="n">
         <v>44896</v>
@@ -2710,6 +2734,46 @@
         <v>142</v>
       </c>
       <c r="L90" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J91" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="L91" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J92" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="L92" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J93" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="L93" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J94" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="L94" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J95" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="L95" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2774,7 +2838,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.28125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2797,7 +2861,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.28125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="148">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -84,6 +84,9 @@
     <t xml:space="preserve">Enner Valencia</t>
   </si>
   <si>
+    <t xml:space="preserve">Kroatia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Belgia</t>
   </si>
   <si>
@@ -183,9 +186,6 @@
     <t xml:space="preserve">Marokko</t>
   </si>
   <si>
-    <t xml:space="preserve">Kroatia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cody Gakpo</t>
   </si>
   <si>
@@ -204,6 +204,9 @@
     <t xml:space="preserve">Gareth Bale</t>
   </si>
   <si>
+    <t xml:space="preserve">Brasilia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kanada</t>
   </si>
   <si>
@@ -238,9 +241,6 @@
   </si>
   <si>
     <t xml:space="preserve">Salem Al Dawsari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brasilia</t>
   </si>
   <si>
     <t xml:space="preserve">Craig Goodwin</t>
@@ -749,11 +749,11 @@
   </sheetPr>
   <dimension ref="A1:V127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L95" activeCellId="0" sqref="L95"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q21" activeCellId="0" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.2890625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
@@ -891,27 +891,29 @@
       </c>
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
-      <c r="Q6" s="19"/>
+      <c r="Q6" s="19" t="s">
+        <v>20</v>
+      </c>
       <c r="R6" s="19"/>
       <c r="S6" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" s="18" t="n">
         <v>6</v>
@@ -923,7 +925,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7" s="19"/>
       <c r="L7" s="15" t="n">
@@ -931,7 +933,7 @@
       </c>
       <c r="Q7" s="19"/>
       <c r="S7" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -942,13 +944,13 @@
         <v>44886</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" s="18" t="n">
         <v>0</v>
@@ -960,7 +962,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K8" s="19"/>
       <c r="L8" s="15" t="n">
@@ -968,24 +970,24 @@
       </c>
       <c r="Q8" s="19"/>
       <c r="S8" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F9" s="18" t="n">
         <v>1</v>
@@ -997,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K9" s="19"/>
       <c r="L9" s="15" t="n">
@@ -1005,24 +1007,24 @@
       </c>
       <c r="Q9" s="19"/>
       <c r="S9" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10" s="18" t="n">
         <v>1</v>
@@ -1034,31 +1036,31 @@
         <v>2</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K10" s="19"/>
       <c r="L10" s="15" t="n">
         <v>3</v>
       </c>
       <c r="S10" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F11" s="18" t="n">
         <v>0</v>
@@ -1070,30 +1072,30 @@
         <v>0</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L11" s="15" t="n">
         <v>1</v>
       </c>
       <c r="S11" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="16" t="n">
         <v>44887</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F12" s="18" t="n">
         <v>0</v>
@@ -1105,30 +1107,30 @@
         <v>0</v>
       </c>
       <c r="J12" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" s="15" t="s">
         <v>46</v>
-      </c>
-      <c r="L12" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="S12" s="15" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F13" s="18" t="n">
         <v>4</v>
@@ -1140,30 +1142,30 @@
         <v>1</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="15" t="n">
         <v>2</v>
       </c>
       <c r="S13" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B14" s="16" t="n">
         <v>44888</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="F14" s="18" t="n">
         <v>0</v>
@@ -1192,7 +1194,7 @@
         <v>44888</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>17</v>
@@ -1216,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="S15" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1227,7 +1229,7 @@
         <v>44888</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>17</v>
@@ -1250,22 +1252,25 @@
       <c r="L16" s="15" t="n">
         <v>1</v>
       </c>
+      <c r="S16" s="15" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="17" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17" s="16" t="n">
         <v>44888</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F17" s="18" t="n">
         <v>1</v>
@@ -1277,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L17" s="15" t="n">
         <v>1</v>
@@ -1285,19 +1290,19 @@
     </row>
     <row r="18" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B18" s="16" t="n">
         <v>44889</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F18" s="18" t="n">
         <v>1</v>
@@ -1309,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L18" s="15" t="n">
         <v>3</v>
@@ -1317,19 +1322,19 @@
     </row>
     <row r="19" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B19" s="16" t="n">
         <v>44889</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F19" s="18" t="n">
         <v>0</v>
@@ -1341,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L19" s="15" t="n">
         <v>1</v>
@@ -1349,19 +1354,19 @@
     </row>
     <row r="20" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B20" s="16" t="n">
         <v>44889</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F20" s="18" t="n">
         <v>3</v>
@@ -1373,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L20" s="15" t="n">
         <v>2</v>
@@ -1381,19 +1386,19 @@
     </row>
     <row r="21" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B21" s="16" t="n">
         <v>44889</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F21" s="18" t="n">
         <v>2</v>
@@ -1413,19 +1418,19 @@
     </row>
     <row r="22" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="16" t="n">
         <v>44891</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F22" s="18" t="n">
         <v>0</v>
@@ -1457,7 +1462,7 @@
         <v>17</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F23" s="18" t="n">
         <v>1</v>
@@ -1483,7 +1488,7 @@
         <v>44890</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>17</v>
@@ -1509,19 +1514,19 @@
     </row>
     <row r="25" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B25" s="16" t="n">
         <v>44890</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F25" s="18" t="n">
         <v>0</v>
@@ -1541,19 +1546,19 @@
     </row>
     <row r="26" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" s="16" t="n">
         <v>44891</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F26" s="18" t="n">
         <v>0</v>
@@ -1573,19 +1578,19 @@
     </row>
     <row r="27" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" s="16" t="n">
         <v>44891</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F27" s="18" t="n">
         <v>2</v>
@@ -1605,19 +1610,19 @@
     </row>
     <row r="28" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" s="16" t="n">
         <v>44891</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F28" s="18" t="n">
         <v>2</v>
@@ -1637,19 +1642,19 @@
     </row>
     <row r="29" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" s="16" t="n">
         <v>44891</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" s="18" t="n">
         <v>2</v>
@@ -1701,19 +1706,19 @@
     </row>
     <row r="31" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B31" s="16" t="n">
         <v>44892</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F31" s="18" t="n">
         <v>0</v>
@@ -1733,19 +1738,19 @@
     </row>
     <row r="32" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B32" s="16" t="n">
         <v>44892</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F32" s="18" t="n">
         <v>4</v>
@@ -1771,13 +1776,13 @@
         <v>44892</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F33" s="18" t="n">
         <v>1</v>
@@ -1797,19 +1802,19 @@
     </row>
     <row r="34" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B34" s="16" t="n">
         <v>44893</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F34" s="18" t="n">
         <v>3</v>
@@ -1829,19 +1834,19 @@
     </row>
     <row r="35" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B35" s="16" t="n">
         <v>44893</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F35" s="18" t="n">
         <v>2</v>
@@ -1861,19 +1866,19 @@
     </row>
     <row r="36" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B36" s="16" t="n">
         <v>44893</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F36" s="18" t="n">
         <v>1</v>
@@ -1893,19 +1898,19 @@
     </row>
     <row r="37" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B37" s="16" t="n">
         <v>44893</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F37" s="18" t="n">
         <v>2</v>
@@ -1937,7 +1942,7 @@
         <v>17</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F38" s="18" t="n">
         <v>1</v>
@@ -1963,7 +1968,7 @@
         <v>44894</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>17</v>
@@ -1989,19 +1994,19 @@
     </row>
     <row r="40" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B40" s="16" t="n">
         <v>44894</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D40" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F40" s="18" t="n">
         <v>0</v>
@@ -2021,19 +2026,19 @@
     </row>
     <row r="41" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B41" s="16" t="n">
         <v>44894</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D41" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F41" s="18" t="n">
         <v>0</v>
@@ -2053,19 +2058,19 @@
     </row>
     <row r="42" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" s="16" t="n">
         <v>44895</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D42" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F42" s="18" t="n">
         <v>1</v>
@@ -2085,19 +2090,19 @@
     </row>
     <row r="43" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="16" t="n">
         <v>44895</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D43" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F43" s="18" t="n">
         <v>1</v>
@@ -2117,19 +2122,19 @@
     </row>
     <row r="44" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B44" s="16" t="n">
         <v>44895</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D44" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F44" s="18" t="n">
         <v>0</v>
@@ -2149,19 +2154,19 @@
     </row>
     <row r="45" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B45" s="16" t="n">
         <v>44895</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D45" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" s="18" t="n">
         <v>1</v>
@@ -2181,19 +2186,19 @@
     </row>
     <row r="46" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B46" s="16" t="n">
         <v>44896</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D46" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F46" s="18" t="n">
         <v>0</v>
@@ -2213,19 +2218,19 @@
     </row>
     <row r="47" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47" s="16" t="n">
         <v>44896</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D47" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F47" s="18" t="n">
         <v>1</v>
@@ -2257,7 +2262,7 @@
         <v>17</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F48" s="18" t="n">
         <v>2</v>
@@ -2289,7 +2294,7 @@
         <v>17</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F49" s="18" t="n">
         <v>2</v>
@@ -2309,19 +2314,19 @@
     </row>
     <row r="50" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B50" s="16" t="n">
         <v>44897</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D50" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F50" s="18" t="n">
         <v>2</v>
@@ -2341,19 +2346,19 @@
     </row>
     <row r="51" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B51" s="16" t="n">
         <v>44897</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D51" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F51" s="18" t="n">
         <v>0</v>
@@ -2373,19 +2378,19 @@
     </row>
     <row r="52" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B52" s="16" t="n">
         <v>44897</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D52" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F52" s="18" t="n">
         <v>2</v>
@@ -2405,19 +2410,19 @@
     </row>
     <row r="53" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B53" s="16" t="n">
         <v>44897</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D53" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F53" s="18" t="n">
         <v>1</v>
@@ -2758,7 +2763,7 @@
         <v>145</v>
       </c>
       <c r="L93" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2838,7 +2843,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.2890625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2861,7 +2866,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.2890625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="148">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -105,6 +105,9 @@
     <t xml:space="preserve">Jude Bellingham</t>
   </si>
   <si>
+    <t xml:space="preserve">Argentiina</t>
+  </si>
+  <si>
     <t xml:space="preserve">Saksa</t>
   </si>
   <si>
@@ -117,6 +120,9 @@
     <t xml:space="preserve">Bukayo Saka</t>
   </si>
   <si>
+    <t xml:space="preserve">Marokko</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tanska</t>
   </si>
   <si>
@@ -138,9 +144,6 @@
     <t xml:space="preserve">22.11.</t>
   </si>
   <si>
-    <t xml:space="preserve">Argentiina</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saudi-Arabia</t>
   </si>
   <si>
@@ -183,9 +186,6 @@
     <t xml:space="preserve">F</t>
   </si>
   <si>
-    <t xml:space="preserve">Marokko</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cody Gakpo</t>
   </si>
   <si>
@@ -213,6 +213,9 @@
     <t xml:space="preserve">Timothy Weah</t>
   </si>
   <si>
+    <t xml:space="preserve">Portugali</t>
+  </si>
+  <si>
     <t xml:space="preserve">G</t>
   </si>
   <si>
@@ -232,9 +235,6 @@
   </si>
   <si>
     <t xml:space="preserve">Saleh Al-Shehri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portugali</t>
   </si>
   <si>
     <t xml:space="preserve">Ghana</t>
@@ -750,10 +750,10 @@
   <dimension ref="A1:V127"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q21" activeCellId="0" sqref="Q21"/>
+      <selection pane="topLeft" activeCell="S18" activeCellId="0" sqref="S18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2890625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.30078125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
@@ -931,9 +931,11 @@
       <c r="L7" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="Q7" s="19"/>
+      <c r="Q7" s="19" t="s">
+        <v>27</v>
+      </c>
       <c r="S7" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -944,13 +946,13 @@
         <v>44886</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" s="18" t="n">
         <v>0</v>
@@ -962,15 +964,17 @@
         <v>2</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K8" s="19"/>
       <c r="L8" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="Q8" s="19"/>
+      <c r="Q8" s="19" t="s">
+        <v>32</v>
+      </c>
       <c r="S8" s="15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -981,13 +985,13 @@
         <v>23</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F9" s="18" t="n">
         <v>1</v>
@@ -999,7 +1003,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K9" s="19"/>
       <c r="L9" s="15" t="n">
@@ -1007,24 +1011,24 @@
       </c>
       <c r="Q9" s="19"/>
       <c r="S9" s="15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F10" s="18" t="n">
         <v>1</v>
@@ -1036,31 +1040,31 @@
         <v>2</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K10" s="19"/>
       <c r="L10" s="15" t="n">
         <v>3</v>
       </c>
       <c r="S10" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" s="18" t="n">
         <v>0</v>
@@ -1072,30 +1076,30 @@
         <v>0</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L11" s="15" t="n">
         <v>1</v>
       </c>
       <c r="S11" s="15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B12" s="16" t="n">
         <v>44887</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F12" s="18" t="n">
         <v>0</v>
@@ -1107,30 +1111,30 @@
         <v>0</v>
       </c>
       <c r="J12" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" s="15" t="s">
         <v>47</v>
-      </c>
-      <c r="L12" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="S12" s="15" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="13" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="18" t="n">
         <v>4</v>
@@ -1142,24 +1146,24 @@
         <v>1</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L13" s="15" t="n">
         <v>2</v>
       </c>
       <c r="S13" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" s="16" t="n">
         <v>44888</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>17</v>
@@ -1194,7 +1198,7 @@
         <v>44888</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>17</v>
@@ -1218,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="S15" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1229,7 +1233,7 @@
         <v>44888</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>17</v>
@@ -1258,7 +1262,7 @@
     </row>
     <row r="17" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" s="16" t="n">
         <v>44888</v>
@@ -1287,22 +1291,25 @@
       <c r="L17" s="15" t="n">
         <v>1</v>
       </c>
+      <c r="S17" s="15" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="18" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B18" s="16" t="n">
         <v>44889</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F18" s="18" t="n">
         <v>1</v>
@@ -1314,27 +1321,30 @@
         <v>0</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L18" s="15" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="S18" s="15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B19" s="16" t="n">
         <v>44889</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F19" s="18" t="n">
         <v>0</v>
@@ -1346,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L19" s="15" t="n">
         <v>1</v>
@@ -1354,13 +1364,13 @@
     </row>
     <row r="20" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B20" s="16" t="n">
         <v>44889</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>17</v>
@@ -1386,7 +1396,7 @@
     </row>
     <row r="21" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B21" s="16" t="n">
         <v>44889</v>
@@ -1398,7 +1408,7 @@
         <v>17</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F21" s="18" t="n">
         <v>2</v>
@@ -1424,7 +1434,7 @@
         <v>44891</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>17</v>
@@ -1462,7 +1472,7 @@
         <v>17</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F23" s="18" t="n">
         <v>1</v>
@@ -1488,7 +1498,7 @@
         <v>44890</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>17</v>
@@ -1526,7 +1536,7 @@
         <v>17</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F25" s="18" t="n">
         <v>0</v>
@@ -1546,19 +1556,19 @@
     </row>
     <row r="26" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" s="16" t="n">
         <v>44891</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F26" s="18" t="n">
         <v>0</v>
@@ -1578,19 +1588,19 @@
     </row>
     <row r="27" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B27" s="16" t="n">
         <v>44891</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F27" s="18" t="n">
         <v>2</v>
@@ -1610,19 +1620,19 @@
     </row>
     <row r="28" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" s="16" t="n">
         <v>44891</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F28" s="18" t="n">
         <v>2</v>
@@ -1642,19 +1652,19 @@
     </row>
     <row r="29" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B29" s="16" t="n">
         <v>44891</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F29" s="18" t="n">
         <v>2</v>
@@ -1706,7 +1716,7 @@
     </row>
     <row r="31" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31" s="16" t="n">
         <v>44892</v>
@@ -1718,7 +1728,7 @@
         <v>17</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="F31" s="18" t="n">
         <v>0</v>
@@ -1738,7 +1748,7 @@
     </row>
     <row r="32" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B32" s="16" t="n">
         <v>44892</v>
@@ -1776,13 +1786,13 @@
         <v>44892</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18" t="n">
         <v>1</v>
@@ -1802,19 +1812,19 @@
     </row>
     <row r="34" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B34" s="16" t="n">
         <v>44893</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F34" s="18" t="n">
         <v>3</v>
@@ -1834,13 +1844,13 @@
     </row>
     <row r="35" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B35" s="16" t="n">
         <v>44893</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>17</v>
@@ -1866,7 +1876,7 @@
     </row>
     <row r="36" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B36" s="16" t="n">
         <v>44893</v>
@@ -1878,7 +1888,7 @@
         <v>17</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F36" s="18" t="n">
         <v>1</v>
@@ -1898,19 +1908,19 @@
     </row>
     <row r="37" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B37" s="16" t="n">
         <v>44893</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F37" s="18" t="n">
         <v>2</v>
@@ -1942,7 +1952,7 @@
         <v>17</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F38" s="18" t="n">
         <v>1</v>
@@ -1968,7 +1978,7 @@
         <v>44894</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>17</v>
@@ -2006,7 +2016,7 @@
         <v>17</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F40" s="18" t="n">
         <v>0</v>
@@ -2032,7 +2042,7 @@
         <v>44894</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D41" s="17" t="s">
         <v>17</v>
@@ -2058,19 +2068,19 @@
     </row>
     <row r="42" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42" s="16" t="n">
         <v>44895</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D42" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F42" s="18" t="n">
         <v>1</v>
@@ -2090,19 +2100,19 @@
     </row>
     <row r="43" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" s="16" t="n">
         <v>44895</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D43" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F43" s="18" t="n">
         <v>1</v>
@@ -2122,19 +2132,19 @@
     </row>
     <row r="44" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B44" s="16" t="n">
         <v>44895</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D44" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F44" s="18" t="n">
         <v>0</v>
@@ -2154,19 +2164,19 @@
     </row>
     <row r="45" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B45" s="16" t="n">
         <v>44895</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D45" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F45" s="18" t="n">
         <v>1</v>
@@ -2186,7 +2196,7 @@
     </row>
     <row r="46" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B46" s="16" t="n">
         <v>44896</v>
@@ -2218,7 +2228,7 @@
     </row>
     <row r="47" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B47" s="16" t="n">
         <v>44896</v>
@@ -2230,7 +2240,7 @@
         <v>17</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="F47" s="18" t="n">
         <v>1</v>
@@ -2262,7 +2272,7 @@
         <v>17</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F48" s="18" t="n">
         <v>2</v>
@@ -2294,7 +2304,7 @@
         <v>17</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F49" s="18" t="n">
         <v>2</v>
@@ -2314,19 +2324,19 @@
     </row>
     <row r="50" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B50" s="16" t="n">
         <v>44897</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D50" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F50" s="18" t="n">
         <v>2</v>
@@ -2346,7 +2356,7 @@
     </row>
     <row r="51" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B51" s="16" t="n">
         <v>44897</v>
@@ -2358,7 +2368,7 @@
         <v>17</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F51" s="18" t="n">
         <v>0</v>
@@ -2378,19 +2388,19 @@
     </row>
     <row r="52" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B52" s="16" t="n">
         <v>44897</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D52" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F52" s="18" t="n">
         <v>2</v>
@@ -2410,13 +2420,13 @@
     </row>
     <row r="53" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B53" s="16" t="n">
         <v>44897</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D53" s="17" t="s">
         <v>17</v>
@@ -2843,7 +2853,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2890625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.30078125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2866,7 +2876,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2890625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.30078125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="148">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -135,6 +135,9 @@
     <t xml:space="preserve">Raheem Sterling</t>
   </si>
   <si>
+    <t xml:space="preserve">Ranska</t>
+  </si>
+  <si>
     <t xml:space="preserve">Serbia</t>
   </si>
   <si>
@@ -169,9 +172,6 @@
   </si>
   <si>
     <t xml:space="preserve">Jack Grealish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ranska</t>
   </si>
   <si>
     <t xml:space="preserve">Australia</t>
@@ -749,11 +749,11 @@
   </sheetPr>
   <dimension ref="A1:V127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S18" activeCellId="0" sqref="S18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.30078125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.31640625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
@@ -1009,17 +1009,19 @@
       <c r="L9" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="Q9" s="19"/>
+      <c r="Q9" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="S9" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>27</v>
@@ -1028,7 +1030,7 @@
         <v>17</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F10" s="18" t="n">
         <v>1</v>
@@ -1040,22 +1042,22 @@
         <v>2</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K10" s="19"/>
       <c r="L10" s="15" t="n">
         <v>3</v>
       </c>
       <c r="S10" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>33</v>
@@ -1064,7 +1066,7 @@
         <v>17</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" s="18" t="n">
         <v>0</v>
@@ -1076,10 +1078,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L11" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S11" s="15" t="s">
         <v>34</v>
@@ -1087,19 +1089,19 @@
     </row>
     <row r="12" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" s="16" t="n">
         <v>44887</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F12" s="18" t="n">
         <v>0</v>
@@ -1111,24 +1113,24 @@
         <v>0</v>
       </c>
       <c r="J12" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" s="15" t="s">
         <v>48</v>
-      </c>
-      <c r="L12" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="S12" s="15" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="13" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>17</v>
@@ -1338,7 +1340,7 @@
         <v>44889</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>17</v>
@@ -1360,6 +1362,9 @@
       </c>
       <c r="L19" s="15" t="n">
         <v>1</v>
+      </c>
+      <c r="S19" s="15" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="20" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1408,7 +1413,7 @@
         <v>17</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F21" s="18" t="n">
         <v>2</v>
@@ -1556,13 +1561,13 @@
     </row>
     <row r="26" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" s="16" t="n">
         <v>44891</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>17</v>
@@ -1588,19 +1593,19 @@
     </row>
     <row r="27" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="16" t="n">
         <v>44891</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F27" s="18" t="n">
         <v>2</v>
@@ -1620,13 +1625,13 @@
     </row>
     <row r="28" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" s="16" t="n">
         <v>44891</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>17</v>
@@ -1652,7 +1657,7 @@
     </row>
     <row r="29" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" s="16" t="n">
         <v>44891</v>
@@ -1664,7 +1669,7 @@
         <v>17</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F29" s="18" t="n">
         <v>2</v>
@@ -1824,7 +1829,7 @@
         <v>17</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F34" s="18" t="n">
         <v>3</v>
@@ -1920,7 +1925,7 @@
         <v>17</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F37" s="18" t="n">
         <v>2</v>
@@ -2068,19 +2073,19 @@
     </row>
     <row r="42" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42" s="16" t="n">
         <v>44895</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D42" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18" t="n">
         <v>1</v>
@@ -2100,7 +2105,7 @@
     </row>
     <row r="43" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43" s="16" t="n">
         <v>44895</v>
@@ -2132,13 +2137,13 @@
     </row>
     <row r="44" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B44" s="16" t="n">
         <v>44895</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D44" s="17" t="s">
         <v>17</v>
@@ -2164,19 +2169,19 @@
     </row>
     <row r="45" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B45" s="16" t="n">
         <v>44895</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D45" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F45" s="18" t="n">
         <v>1</v>
@@ -2368,7 +2373,7 @@
         <v>17</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F51" s="18" t="n">
         <v>0</v>
@@ -2394,7 +2399,7 @@
         <v>44897</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D52" s="17" t="s">
         <v>17</v>
@@ -2853,7 +2858,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.30078125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.31640625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2876,7 +2881,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.30078125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.31640625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -749,11 +749,11 @@
   </sheetPr>
   <dimension ref="A1:V127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N71" activeCellId="0" sqref="N71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.31640625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.3359375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
@@ -1326,7 +1326,7 @@
         <v>67</v>
       </c>
       <c r="L18" s="15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S18" s="15" t="s">
         <v>30</v>
@@ -1492,7 +1492,7 @@
         <v>75</v>
       </c>
       <c r="L23" s="15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2671,7 +2671,7 @@
         <v>132</v>
       </c>
       <c r="L80" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2858,7 +2858,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.31640625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.3359375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2881,7 +2881,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.31640625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.3359375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="148">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -84,9 +84,15 @@
     <t xml:space="preserve">Enner Valencia</t>
   </si>
   <si>
+    <t xml:space="preserve">Kylian Mbappe</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kroatia</t>
   </si>
   <si>
+    <t xml:space="preserve">Argentiina</t>
+  </si>
+  <si>
     <t xml:space="preserve">Belgia</t>
   </si>
   <si>
@@ -105,9 +111,6 @@
     <t xml:space="preserve">Jude Bellingham</t>
   </si>
   <si>
-    <t xml:space="preserve">Argentiina</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saksa</t>
   </si>
   <si>
@@ -250,9 +253,6 @@
   </si>
   <si>
     <t xml:space="preserve">Olivier Giroud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kylian Mbappe</t>
   </si>
   <si>
     <t xml:space="preserve">Takuma Asano</t>
@@ -749,11 +749,11 @@
   </sheetPr>
   <dimension ref="A1:V127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N71" activeCellId="0" sqref="N71"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R7" activeCellId="0" sqref="R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3359375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
@@ -889,31 +889,35 @@
       <c r="L6" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="N6" s="19"/>
+      <c r="N6" s="19" t="s">
+        <v>20</v>
+      </c>
       <c r="O6" s="19"/>
       <c r="Q6" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="R6" s="19"/>
+        <v>21</v>
+      </c>
+      <c r="R6" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="S6" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F7" s="18" t="n">
         <v>6</v>
@@ -925,17 +929,17 @@
         <v>2</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K7" s="19"/>
       <c r="L7" s="15" t="n">
         <v>1</v>
       </c>
       <c r="Q7" s="19" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="S7" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -946,13 +950,13 @@
         <v>44886</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" s="18" t="n">
         <v>0</v>
@@ -964,34 +968,34 @@
         <v>2</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K8" s="19"/>
       <c r="L8" s="15" t="n">
         <v>3</v>
       </c>
       <c r="Q8" s="19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S8" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9" s="18" t="n">
         <v>1</v>
@@ -1003,34 +1007,34 @@
         <v>1</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K9" s="19"/>
       <c r="L9" s="15" t="n">
         <v>1</v>
       </c>
       <c r="Q9" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S9" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F10" s="18" t="n">
         <v>1</v>
@@ -1042,31 +1046,31 @@
         <v>2</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K10" s="19"/>
       <c r="L10" s="15" t="n">
         <v>3</v>
       </c>
       <c r="S10" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F11" s="18" t="n">
         <v>0</v>
@@ -1078,30 +1082,30 @@
         <v>0</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L11" s="15" t="n">
         <v>2</v>
       </c>
       <c r="S11" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" s="16" t="n">
         <v>44887</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F12" s="18" t="n">
         <v>0</v>
@@ -1113,30 +1117,30 @@
         <v>0</v>
       </c>
       <c r="J12" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" s="15" t="s">
         <v>49</v>
-      </c>
-      <c r="L12" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="S12" s="15" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="13" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F13" s="18" t="n">
         <v>4</v>
@@ -1148,30 +1152,30 @@
         <v>1</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L13" s="15" t="n">
         <v>2</v>
       </c>
       <c r="S13" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B14" s="16" t="n">
         <v>44888</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F14" s="18" t="n">
         <v>0</v>
@@ -1183,30 +1187,30 @@
         <v>0</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L14" s="15" t="n">
         <v>3</v>
       </c>
       <c r="S14" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B15" s="16" t="n">
         <v>44888</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F15" s="18" t="n">
         <v>1</v>
@@ -1218,30 +1222,30 @@
         <v>2</v>
       </c>
       <c r="J15" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L15" s="15" t="n">
         <v>1</v>
       </c>
       <c r="S15" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B16" s="16" t="n">
         <v>44888</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F16" s="18" t="n">
         <v>7</v>
@@ -1253,30 +1257,30 @@
         <v>0</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L16" s="15" t="n">
         <v>1</v>
       </c>
       <c r="S16" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B17" s="16" t="n">
         <v>44888</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F17" s="18" t="n">
         <v>1</v>
@@ -1288,30 +1292,30 @@
         <v>0</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L17" s="15" t="n">
         <v>1</v>
       </c>
       <c r="S17" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B18" s="16" t="n">
         <v>44889</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F18" s="18" t="n">
         <v>1</v>
@@ -1323,30 +1327,30 @@
         <v>0</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L18" s="15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S18" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B19" s="16" t="n">
         <v>44889</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F19" s="18" t="n">
         <v>0</v>
@@ -1358,30 +1362,30 @@
         <v>0</v>
       </c>
       <c r="J19" s="20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L19" s="15" t="n">
         <v>1</v>
       </c>
       <c r="S19" s="15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B20" s="16" t="n">
         <v>44889</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F20" s="18" t="n">
         <v>3</v>
@@ -1393,7 +1397,7 @@
         <v>2</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L20" s="15" t="n">
         <v>2</v>
@@ -1401,19 +1405,19 @@
     </row>
     <row r="21" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B21" s="16" t="n">
         <v>44889</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F21" s="18" t="n">
         <v>2</v>
@@ -1425,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L21" s="15" t="n">
         <v>1</v>
@@ -1433,19 +1437,19 @@
     </row>
     <row r="22" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B22" s="16" t="n">
         <v>44891</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F22" s="18" t="n">
         <v>0</v>
@@ -1457,7 +1461,7 @@
         <v>2</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L22" s="15" t="n">
         <v>1</v>
@@ -1477,7 +1481,7 @@
         <v>17</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F23" s="18" t="n">
         <v>1</v>
@@ -1489,7 +1493,7 @@
         <v>3</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L23" s="15" t="n">
         <v>4</v>
@@ -1503,7 +1507,7 @@
         <v>44890</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>17</v>
@@ -1521,27 +1525,27 @@
         <v>1</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="L24" s="15" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B25" s="16" t="n">
         <v>44890</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F25" s="18" t="n">
         <v>0</v>
@@ -1561,19 +1565,19 @@
     </row>
     <row r="26" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B26" s="16" t="n">
         <v>44891</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F26" s="18" t="n">
         <v>0</v>
@@ -1593,19 +1597,19 @@
     </row>
     <row r="27" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" s="16" t="n">
         <v>44891</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F27" s="18" t="n">
         <v>2</v>
@@ -1625,19 +1629,19 @@
     </row>
     <row r="28" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" s="16" t="n">
         <v>44891</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F28" s="18" t="n">
         <v>2</v>
@@ -1657,19 +1661,19 @@
     </row>
     <row r="29" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" s="16" t="n">
         <v>44891</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F29" s="18" t="n">
         <v>2</v>
@@ -1689,19 +1693,19 @@
     </row>
     <row r="30" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B30" s="16" t="n">
         <v>44892</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F30" s="18" t="n">
         <v>0</v>
@@ -1721,19 +1725,19 @@
     </row>
     <row r="31" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B31" s="16" t="n">
         <v>44892</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F31" s="18" t="n">
         <v>0</v>
@@ -1753,19 +1757,19 @@
     </row>
     <row r="32" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32" s="16" t="n">
         <v>44892</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F32" s="18" t="n">
         <v>4</v>
@@ -1785,19 +1789,19 @@
     </row>
     <row r="33" s="15" customFormat="true" ht="19.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B33" s="16" t="n">
         <v>44892</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F33" s="18" t="n">
         <v>1</v>
@@ -1817,19 +1821,19 @@
     </row>
     <row r="34" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B34" s="16" t="n">
         <v>44893</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F34" s="18" t="n">
         <v>3</v>
@@ -1849,19 +1853,19 @@
     </row>
     <row r="35" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B35" s="16" t="n">
         <v>44893</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F35" s="18" t="n">
         <v>2</v>
@@ -1881,19 +1885,19 @@
     </row>
     <row r="36" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B36" s="16" t="n">
         <v>44893</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F36" s="18" t="n">
         <v>1</v>
@@ -1913,19 +1917,19 @@
     </row>
     <row r="37" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B37" s="16" t="n">
         <v>44893</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" s="18" t="n">
         <v>2</v>
@@ -1957,7 +1961,7 @@
         <v>17</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F38" s="18" t="n">
         <v>1</v>
@@ -1983,7 +1987,7 @@
         <v>44894</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>17</v>
@@ -2009,19 +2013,19 @@
     </row>
     <row r="40" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B40" s="16" t="n">
         <v>44894</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D40" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18" t="n">
         <v>0</v>
@@ -2041,19 +2045,19 @@
     </row>
     <row r="41" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B41" s="16" t="n">
         <v>44894</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D41" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F41" s="18" t="n">
         <v>0</v>
@@ -2073,19 +2077,19 @@
     </row>
     <row r="42" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" s="16" t="n">
         <v>44895</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D42" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F42" s="18" t="n">
         <v>1</v>
@@ -2105,19 +2109,19 @@
     </row>
     <row r="43" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43" s="16" t="n">
         <v>44895</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D43" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F43" s="18" t="n">
         <v>1</v>
@@ -2137,19 +2141,19 @@
     </row>
     <row r="44" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B44" s="16" t="n">
         <v>44895</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D44" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F44" s="18" t="n">
         <v>0</v>
@@ -2169,19 +2173,19 @@
     </row>
     <row r="45" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B45" s="16" t="n">
         <v>44895</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D45" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F45" s="18" t="n">
         <v>1</v>
@@ -2201,19 +2205,19 @@
     </row>
     <row r="46" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B46" s="16" t="n">
         <v>44896</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D46" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F46" s="18" t="n">
         <v>0</v>
@@ -2233,19 +2237,19 @@
     </row>
     <row r="47" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B47" s="16" t="n">
         <v>44896</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D47" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F47" s="18" t="n">
         <v>1</v>
@@ -2265,19 +2269,19 @@
     </row>
     <row r="48" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B48" s="16" t="n">
         <v>44896</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D48" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F48" s="18" t="n">
         <v>2</v>
@@ -2297,19 +2301,19 @@
     </row>
     <row r="49" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B49" s="16" t="n">
         <v>44896</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D49" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F49" s="18" t="n">
         <v>2</v>
@@ -2329,19 +2333,19 @@
     </row>
     <row r="50" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B50" s="16" t="n">
         <v>44897</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D50" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F50" s="18" t="n">
         <v>2</v>
@@ -2361,19 +2365,19 @@
     </row>
     <row r="51" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B51" s="16" t="n">
         <v>44897</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D51" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" s="18" t="n">
         <v>0</v>
@@ -2393,19 +2397,19 @@
     </row>
     <row r="52" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B52" s="16" t="n">
         <v>44897</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D52" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F52" s="18" t="n">
         <v>2</v>
@@ -2425,19 +2429,19 @@
     </row>
     <row r="53" s="15" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B53" s="16" t="n">
         <v>44897</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D53" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F53" s="18" t="n">
         <v>1</v>
@@ -2858,7 +2862,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3359375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2881,7 +2885,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3359375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
